--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,13 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -66,6 +65,27 @@
   </si>
   <si>
     <t>Avg. Level</t>
+  </si>
+  <si>
+    <t>NKTICK</t>
+  </si>
+  <si>
+    <t>2299. Xếp hàng mua vé</t>
+  </si>
+  <si>
+    <t>Available on github</t>
+  </si>
+  <si>
+    <t>NKPALIN</t>
+  </si>
+  <si>
+    <t>2118. Chuỗi đối xứng</t>
+  </si>
+  <si>
+    <t>VOSRTRI</t>
+  </si>
+  <si>
+    <t>21148. Tam giác vuông</t>
   </si>
 </sst>
 </file>
@@ -335,6 +355,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,21 +388,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -378,6 +398,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,7 +449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +484,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,7 +699,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,54 +729,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="9" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="9" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="9" t="s">
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="9" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="11"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,1402 +836,1428 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="12">
         <f>IFERROR(SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3),"")</f>
         <v>1</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="9">
         <v>100</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="15"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="5"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="15"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="5"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="15"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="15"/>
+      <c r="R3" s="9"/>
       <c r="S3" s="5"/>
       <c r="T3" s="8"/>
-      <c r="U3" s="15"/>
+      <c r="U3" s="9"/>
       <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="18" t="str">
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12">
         <f t="shared" ref="D4:D50" si="0">IFERROR(SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),"")</f>
-        <v/>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="5"/>
+        <v>2</v>
+      </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="15"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="15"/>
+      <c r="K4" s="12">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8">
+        <v>100</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="15"/>
+      <c r="R4" s="9"/>
       <c r="S4" s="5"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="15"/>
+      <c r="U4" s="9"/>
       <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="5"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="5"/>
+      <c r="K5" s="8">
+        <v>3</v>
+      </c>
+      <c r="L5" s="9">
+        <v>80</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="N5" s="8"/>
-      <c r="O5" s="15"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="15"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="5"/>
       <c r="T5" s="8"/>
-      <c r="U5" s="15"/>
+      <c r="U5" s="9"/>
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="5"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="15"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="5"/>
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>100</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="N6" s="8"/>
-      <c r="O6" s="15"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="15"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="5"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="15"/>
+      <c r="U6" s="9"/>
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="18" t="str">
+      <c r="D7" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="5"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="15"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="5"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="15"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="5"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="15"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="15"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="5"/>
       <c r="T7" s="8"/>
-      <c r="U7" s="15"/>
+      <c r="U7" s="9"/>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="15"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="5"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="5"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="15"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="15"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="5"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="9"/>
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="15"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="5"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="15"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="5"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="15"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="15"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="5"/>
       <c r="T9" s="8"/>
-      <c r="U9" s="15"/>
+      <c r="U9" s="9"/>
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="18" t="str">
+      <c r="D10" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="5"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="15"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="15"/>
+      <c r="R10" s="9"/>
       <c r="S10" s="5"/>
       <c r="T10" s="8"/>
-      <c r="U10" s="15"/>
+      <c r="U10" s="9"/>
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="18" t="str">
+      <c r="D11" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="15"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="5"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="5"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="15"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="15"/>
+      <c r="R11" s="9"/>
       <c r="S11" s="5"/>
       <c r="T11" s="8"/>
-      <c r="U11" s="15"/>
+      <c r="U11" s="9"/>
       <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="18" t="str">
+      <c r="D12" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="15"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="5"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="5"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="15"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="15"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="5"/>
       <c r="T12" s="8"/>
-      <c r="U12" s="15"/>
+      <c r="U12" s="9"/>
       <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="18" t="str">
+      <c r="D13" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="15"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="5"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="15"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="15"/>
+      <c r="R13" s="9"/>
       <c r="S13" s="5"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="15"/>
+      <c r="U13" s="9"/>
       <c r="V13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="18" t="str">
+      <c r="D14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="5"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="5"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="15"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="15"/>
+      <c r="R14" s="9"/>
       <c r="S14" s="5"/>
       <c r="T14" s="8"/>
-      <c r="U14" s="15"/>
+      <c r="U14" s="9"/>
       <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="18" t="str">
+      <c r="D15" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="5"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="5"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="15"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="15"/>
+      <c r="R15" s="9"/>
       <c r="S15" s="5"/>
       <c r="T15" s="8"/>
-      <c r="U15" s="15"/>
+      <c r="U15" s="9"/>
       <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="18" t="str">
+      <c r="D16" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="15"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="5"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="5"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="15"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="15"/>
+      <c r="R16" s="9"/>
       <c r="S16" s="5"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="15"/>
+      <c r="U16" s="9"/>
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="18" t="str">
+      <c r="D17" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="5"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="5"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="15"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="5"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="15"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="15"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="5"/>
       <c r="T17" s="8"/>
-      <c r="U17" s="15"/>
+      <c r="U17" s="9"/>
       <c r="V17" s="5"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="18" t="str">
+      <c r="D18" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="15"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="5"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="15"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="5"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="15"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="15"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="5"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="15"/>
+      <c r="U18" s="9"/>
       <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="18" t="str">
+      <c r="D19" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="5"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="15"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="5"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="5"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="15"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="15"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="5"/>
       <c r="T19" s="8"/>
-      <c r="U19" s="15"/>
+      <c r="U19" s="9"/>
       <c r="V19" s="5"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="18" t="str">
+      <c r="D20" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="15"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="5"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="15"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="5"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="15"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="15"/>
+      <c r="R20" s="9"/>
       <c r="S20" s="5"/>
       <c r="T20" s="8"/>
-      <c r="U20" s="15"/>
+      <c r="U20" s="9"/>
       <c r="V20" s="5"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="18" t="str">
+      <c r="D21" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="15"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="5"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="15"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="5"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="15"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="15"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="5"/>
       <c r="T21" s="8"/>
-      <c r="U21" s="15"/>
+      <c r="U21" s="9"/>
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="18" t="str">
+      <c r="D22" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="5"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="15"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="5"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="15"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="5"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="15"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="15"/>
+      <c r="R22" s="9"/>
       <c r="S22" s="5"/>
       <c r="T22" s="8"/>
-      <c r="U22" s="15"/>
+      <c r="U22" s="9"/>
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="18" t="str">
+      <c r="D23" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="5"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="15"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="15"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="5"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="15"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="15"/>
+      <c r="R23" s="9"/>
       <c r="S23" s="5"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="15"/>
+      <c r="U23" s="9"/>
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="18" t="str">
+      <c r="D24" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="5"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="15"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="5"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="15"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="5"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="15"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="15"/>
+      <c r="R24" s="9"/>
       <c r="S24" s="5"/>
       <c r="T24" s="8"/>
-      <c r="U24" s="15"/>
+      <c r="U24" s="9"/>
       <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="18" t="str">
+      <c r="D25" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="5"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="15"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="5"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="15"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="5"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="15"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="15"/>
+      <c r="R25" s="9"/>
       <c r="S25" s="5"/>
       <c r="T25" s="8"/>
-      <c r="U25" s="15"/>
+      <c r="U25" s="9"/>
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="18" t="str">
+      <c r="D26" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="5"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="15"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="5"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="15"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="5"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="15"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="15"/>
+      <c r="R26" s="9"/>
       <c r="S26" s="5"/>
       <c r="T26" s="8"/>
-      <c r="U26" s="15"/>
+      <c r="U26" s="9"/>
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="18" t="str">
+      <c r="D27" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="15"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="5"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="15"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="5"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="15"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="15"/>
+      <c r="R27" s="9"/>
       <c r="S27" s="5"/>
       <c r="T27" s="8"/>
-      <c r="U27" s="15"/>
+      <c r="U27" s="9"/>
       <c r="V27" s="5"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="18" t="str">
+      <c r="D28" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="15"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="5"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="15"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="5"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="15"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="15"/>
+      <c r="R28" s="9"/>
       <c r="S28" s="5"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="15"/>
+      <c r="U28" s="9"/>
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="18" t="str">
+      <c r="D29" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="5"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="15"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="5"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="15"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="5"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="15"/>
+      <c r="O29" s="9"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="15"/>
+      <c r="R29" s="9"/>
       <c r="S29" s="5"/>
       <c r="T29" s="8"/>
-      <c r="U29" s="15"/>
+      <c r="U29" s="9"/>
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="18" t="str">
+      <c r="D30" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="5"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="15"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="5"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="15"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="5"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="15"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="15"/>
+      <c r="R30" s="9"/>
       <c r="S30" s="5"/>
       <c r="T30" s="8"/>
-      <c r="U30" s="15"/>
+      <c r="U30" s="9"/>
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="18" t="str">
+      <c r="D31" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="15"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="5"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="15"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="5"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="15"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="15"/>
+      <c r="R31" s="9"/>
       <c r="S31" s="5"/>
       <c r="T31" s="8"/>
-      <c r="U31" s="15"/>
+      <c r="U31" s="9"/>
       <c r="V31" s="5"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="18" t="str">
+      <c r="D32" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="15"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="5"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="15"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="5"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="15"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="15"/>
+      <c r="R32" s="9"/>
       <c r="S32" s="5"/>
       <c r="T32" s="8"/>
-      <c r="U32" s="15"/>
+      <c r="U32" s="9"/>
       <c r="V32" s="5"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="18" t="str">
+      <c r="D33" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="15"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="5"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="15"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="5"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="15"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="15"/>
+      <c r="R33" s="9"/>
       <c r="S33" s="5"/>
       <c r="T33" s="8"/>
-      <c r="U33" s="15"/>
+      <c r="U33" s="9"/>
       <c r="V33" s="5"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="18" t="str">
+      <c r="D34" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="5"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="15"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="5"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="15"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="5"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="15"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="15"/>
+      <c r="R34" s="9"/>
       <c r="S34" s="5"/>
       <c r="T34" s="8"/>
-      <c r="U34" s="15"/>
+      <c r="U34" s="9"/>
       <c r="V34" s="5"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="18" t="str">
+      <c r="D35" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="15"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="5"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="15"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="5"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="15"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="5"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="15"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="8"/>
-      <c r="R35" s="15"/>
+      <c r="R35" s="9"/>
       <c r="S35" s="5"/>
       <c r="T35" s="8"/>
-      <c r="U35" s="15"/>
+      <c r="U35" s="9"/>
       <c r="V35" s="5"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="18" t="str">
+      <c r="D36" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="15"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="5"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="15"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="5"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="15"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="5"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="15"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="8"/>
-      <c r="R36" s="15"/>
+      <c r="R36" s="9"/>
       <c r="S36" s="5"/>
       <c r="T36" s="8"/>
-      <c r="U36" s="15"/>
+      <c r="U36" s="9"/>
       <c r="V36" s="5"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="18" t="str">
+      <c r="D37" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="15"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="5"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="15"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="5"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="15"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="5"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="15"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="8"/>
-      <c r="R37" s="15"/>
+      <c r="R37" s="9"/>
       <c r="S37" s="5"/>
       <c r="T37" s="8"/>
-      <c r="U37" s="15"/>
+      <c r="U37" s="9"/>
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="18" t="str">
+      <c r="D38" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="15"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="5"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="15"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="5"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="15"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="5"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="15"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="8"/>
-      <c r="R38" s="15"/>
+      <c r="R38" s="9"/>
       <c r="S38" s="5"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="15"/>
+      <c r="U38" s="9"/>
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="18" t="str">
+      <c r="D39" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="15"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="5"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="15"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="5"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="15"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="5"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="15"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="8"/>
-      <c r="R39" s="15"/>
+      <c r="R39" s="9"/>
       <c r="S39" s="5"/>
       <c r="T39" s="8"/>
-      <c r="U39" s="15"/>
+      <c r="U39" s="9"/>
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="18" t="str">
+      <c r="D40" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="15"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="5"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="15"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="5"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="15"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="5"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="15"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="15"/>
+      <c r="R40" s="9"/>
       <c r="S40" s="5"/>
       <c r="T40" s="8"/>
-      <c r="U40" s="15"/>
+      <c r="U40" s="9"/>
       <c r="V40" s="5"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="18" t="str">
+      <c r="D41" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="15"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="5"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="15"/>
+      <c r="I41" s="9"/>
       <c r="J41" s="5"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="15"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="5"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="15"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="8"/>
-      <c r="R41" s="15"/>
+      <c r="R41" s="9"/>
       <c r="S41" s="5"/>
       <c r="T41" s="8"/>
-      <c r="U41" s="15"/>
+      <c r="U41" s="9"/>
       <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="18" t="str">
+      <c r="D42" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E42" s="8"/>
-      <c r="F42" s="15"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="5"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="15"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="5"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="15"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="5"/>
       <c r="N42" s="8"/>
-      <c r="O42" s="15"/>
+      <c r="O42" s="9"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="8"/>
-      <c r="R42" s="15"/>
+      <c r="R42" s="9"/>
       <c r="S42" s="5"/>
       <c r="T42" s="8"/>
-      <c r="U42" s="15"/>
+      <c r="U42" s="9"/>
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="15"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="18" t="str">
+      <c r="D43" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="15"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="5"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="15"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="5"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="15"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="5"/>
       <c r="N43" s="8"/>
-      <c r="O43" s="15"/>
+      <c r="O43" s="9"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="8"/>
-      <c r="R43" s="15"/>
+      <c r="R43" s="9"/>
       <c r="S43" s="5"/>
       <c r="T43" s="8"/>
-      <c r="U43" s="15"/>
+      <c r="U43" s="9"/>
       <c r="V43" s="5"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="18" t="str">
+      <c r="D44" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E44" s="8"/>
-      <c r="F44" s="15"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="5"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="15"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="5"/>
       <c r="K44" s="8"/>
-      <c r="L44" s="15"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="5"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="15"/>
+      <c r="O44" s="9"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="8"/>
-      <c r="R44" s="15"/>
+      <c r="R44" s="9"/>
       <c r="S44" s="5"/>
       <c r="T44" s="8"/>
-      <c r="U44" s="15"/>
+      <c r="U44" s="9"/>
       <c r="V44" s="5"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="18" t="str">
+      <c r="D45" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E45" s="8"/>
-      <c r="F45" s="15"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="5"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="15"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="5"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="15"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="5"/>
       <c r="N45" s="8"/>
-      <c r="O45" s="15"/>
+      <c r="O45" s="9"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="8"/>
-      <c r="R45" s="15"/>
+      <c r="R45" s="9"/>
       <c r="S45" s="5"/>
       <c r="T45" s="8"/>
-      <c r="U45" s="15"/>
+      <c r="U45" s="9"/>
       <c r="V45" s="5"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="18" t="str">
+      <c r="D46" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="15"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="5"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="15"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="5"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="15"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="5"/>
       <c r="N46" s="8"/>
-      <c r="O46" s="15"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="8"/>
-      <c r="R46" s="15"/>
+      <c r="R46" s="9"/>
       <c r="S46" s="5"/>
       <c r="T46" s="8"/>
-      <c r="U46" s="15"/>
+      <c r="U46" s="9"/>
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="18" t="str">
+      <c r="D47" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="15"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="5"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="15"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="5"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="15"/>
+      <c r="L47" s="9"/>
       <c r="M47" s="5"/>
       <c r="N47" s="8"/>
-      <c r="O47" s="15"/>
+      <c r="O47" s="9"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="8"/>
-      <c r="R47" s="15"/>
+      <c r="R47" s="9"/>
       <c r="S47" s="5"/>
       <c r="T47" s="8"/>
-      <c r="U47" s="15"/>
+      <c r="U47" s="9"/>
       <c r="V47" s="5"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="18" t="str">
+      <c r="D48" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="15"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="5"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="15"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="5"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="15"/>
+      <c r="L48" s="9"/>
       <c r="M48" s="5"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="15"/>
+      <c r="O48" s="9"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="8"/>
-      <c r="R48" s="15"/>
+      <c r="R48" s="9"/>
       <c r="S48" s="5"/>
       <c r="T48" s="8"/>
-      <c r="U48" s="15"/>
+      <c r="U48" s="9"/>
       <c r="V48" s="5"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="18" t="str">
+      <c r="D49" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="15"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="5"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="15"/>
+      <c r="I49" s="9"/>
       <c r="J49" s="5"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="15"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="5"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="15"/>
+      <c r="O49" s="9"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="8"/>
-      <c r="R49" s="15"/>
+      <c r="R49" s="9"/>
       <c r="S49" s="5"/>
       <c r="T49" s="8"/>
-      <c r="U49" s="15"/>
+      <c r="U49" s="9"/>
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="16"/>
+      <c r="D50" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="16"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="16"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="10"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="16"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="10"/>
       <c r="P50" s="7"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="16"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="10"/>
       <c r="S50" s="7"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="16"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="10"/>
       <c r="V50" s="7"/>
     </row>
   </sheetData>
@@ -2226,8 +2275,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>2299. Xếp hàng mua vé</t>
-  </si>
-  <si>
-    <t>Available on github</t>
   </si>
   <si>
     <t>NKPALIN</t>
@@ -699,7 +696,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,9 +891,7 @@
       <c r="L4" s="8">
         <v>100</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="M4" s="5"/>
       <c r="O4" s="9"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="8"/>
@@ -911,10 +906,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -932,9 +927,7 @@
       <c r="L5" s="9">
         <v>80</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="8"/>
       <c r="O5" s="9"/>
       <c r="P5" s="5"/>
@@ -950,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -971,9 +964,7 @@
       <c r="L6" s="9">
         <v>100</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="8"/>
       <c r="O6" s="9"/>
       <c r="P6" s="5"/>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>21148. Tam giác vuông</t>
+  </si>
+  <si>
+    <t>NKREZ</t>
+  </si>
+  <si>
+    <t>2187. Hội trường</t>
+  </si>
+  <si>
+    <t>VCOWFLIX</t>
+  </si>
+  <si>
+    <t>2720. Đi xem phim</t>
   </si>
 </sst>
 </file>
@@ -696,7 +708,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:M6"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="9">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="8"/>
@@ -979,11 +991,15 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
@@ -991,8 +1007,12 @@
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="8">
+        <v>3</v>
+      </c>
+      <c r="L7" s="9">
+        <v>92.31</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9"/>
@@ -1008,11 +1028,15 @@
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
@@ -1020,8 +1044,12 @@
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>100</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="8"/>
       <c r="O8" s="9"/>
@@ -2269,8 +2297,10 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -105,7 +105,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -113,7 +113,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -121,7 +121,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -708,36 +708,36 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="12.625" customWidth="1"/>
+    <col min="20" max="20" width="8.25" customWidth="1"/>
+    <col min="21" max="21" width="11.125" customWidth="1"/>
+    <col min="22" max="22" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -781,7 +781,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -841,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="D3" s="12">
         <f>IFERROR(SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3),"")</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -864,8 +864,12 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>100</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -880,7 +884,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -913,7 +917,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -930,8 +934,12 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <v>100</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="8">
         <v>3</v>
@@ -950,7 +958,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -967,8 +975,12 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>100</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="8">
         <v>2</v>
@@ -987,7 +999,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1004,8 +1016,12 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="8">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>100</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="8">
         <v>3</v>
@@ -1024,7 +1040,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1061,7 +1077,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1090,7 +1106,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1119,7 +1135,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1148,7 +1164,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1177,7 +1193,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1206,7 +1222,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1235,7 +1251,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1264,7 +1280,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1293,7 +1309,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1322,7 +1338,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1351,7 +1367,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1380,7 +1396,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1409,7 +1425,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1438,7 +1454,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1467,7 +1483,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1496,7 +1512,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1525,7 +1541,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1554,7 +1570,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1583,7 +1599,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1612,7 +1628,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1641,7 +1657,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1670,7 +1686,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1699,7 +1715,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1728,7 +1744,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1757,7 +1773,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -1786,7 +1802,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -1815,7 +1831,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -1844,7 +1860,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -1873,7 +1889,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -1902,7 +1918,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -1931,7 +1947,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -1960,7 +1976,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -1989,7 +2005,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2018,7 +2034,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2047,7 +2063,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2076,7 +2092,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2105,7 +2121,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="5"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2134,7 +2150,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2163,7 +2179,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2192,7 +2208,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2221,7 +2237,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="5"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2250,7 +2266,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="5"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>48</v>
       </c>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -334,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +388,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -696,7 +707,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:M6"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +852,7 @@
       </c>
       <c r="D3" s="12">
         <f>IFERROR(SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -858,9 +869,15 @@
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="5"/>
+      <c r="N3" s="8">
+        <v>3</v>
+      </c>
+      <c r="O3" s="20">
+        <v>85</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="9"/>
       <c r="S3" s="5"/>
@@ -928,8 +945,12 @@
         <v>80</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
+      <c r="N5" s="8">
+        <v>3</v>
+      </c>
+      <c r="O5" s="9">
+        <v>10</v>
+      </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="9"/>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -708,7 +708,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1057,8 +1057,12 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>100</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="8">
         <v>2</v>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -372,6 +372,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,12 +394,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -707,7 +707,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,54 +737,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="14" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="14" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="14" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="14" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="18"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,12 +872,10 @@
       <c r="N3" s="8">
         <v>3</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="14">
         <v>85</v>
       </c>
-      <c r="P3" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="P3" s="15"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="9"/>
       <c r="S3" s="5"/>
@@ -986,8 +984,12 @@
         <v>100</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
+      <c r="N6" s="8">
+        <v>2</v>
+      </c>
+      <c r="O6" s="9">
+        <v>80</v>
+      </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="9"/>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>21148. Tam giác vuông</t>
+  </si>
+  <si>
+    <t>NKREZ</t>
+  </si>
+  <si>
+    <t>2187. Hội trường</t>
+  </si>
+  <si>
+    <t>VCOWFLIX</t>
+  </si>
+  <si>
+    <t>2720. Đi xem phim</t>
+  </si>
+  <si>
+    <t>NKCABLE</t>
+  </si>
+  <si>
+    <t>2352. Nối mạng</t>
+  </si>
+  <si>
+    <t>C11TRCNT</t>
+  </si>
+  <si>
+    <t>12770. Bắn máy bay</t>
   </si>
 </sst>
 </file>
@@ -707,7 +731,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="9">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="8">
@@ -1002,11 +1026,15 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
@@ -1014,8 +1042,12 @@
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="8">
+        <v>3</v>
+      </c>
+      <c r="L7" s="9">
+        <v>92.31</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9"/>
@@ -1031,11 +1063,15 @@
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
@@ -1043,8 +1079,12 @@
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>100</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="8"/>
       <c r="O8" s="9"/>
@@ -1060,11 +1100,15 @@
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
@@ -1072,8 +1116,12 @@
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
+      <c r="K9" s="8">
+        <v>2</v>
+      </c>
+      <c r="L9" s="9">
+        <v>100</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9"/>
@@ -1089,11 +1137,15 @@
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
@@ -1101,8 +1153,12 @@
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="8">
+        <v>3</v>
+      </c>
+      <c r="L10" s="9">
+        <v>100</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="8"/>
       <c r="O10" s="9"/>
@@ -2292,8 +2348,12 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>12770. Bắn máy bay</t>
+  </si>
+  <si>
+    <t>NKINV</t>
+  </si>
+  <si>
+    <t>2263. Dãy nghịch thế</t>
   </si>
 </sst>
 </file>
@@ -731,7 +737,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +897,9 @@
       <c r="I3" s="9"/>
       <c r="J3" s="5"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="9">
+        <v>85</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="8">
         <v>3</v>
@@ -1174,11 +1182,15 @@
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
@@ -1186,8 +1198,12 @@
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="8">
+        <v>3</v>
+      </c>
+      <c r="L11" s="9">
+        <v>20</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="8"/>
       <c r="O11" s="9"/>
@@ -2352,8 +2368,9 @@
     <hyperlink ref="B8" r:id="rId6"/>
     <hyperlink ref="B9" r:id="rId7"/>
     <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -113,6 +113,24 @@
   </si>
   <si>
     <t>2263. Dãy nghịch thế</t>
+  </si>
+  <si>
+    <t>VBGRASS</t>
+  </si>
+  <si>
+    <t>2719. Bãi cỏ ngon nhất</t>
+  </si>
+  <si>
+    <t>NKABD</t>
+  </si>
+  <si>
+    <t>3620. Số phong phú</t>
+  </si>
+  <si>
+    <t>C11SEQ3</t>
+  </si>
+  <si>
+    <t>12963. Dãy số</t>
   </si>
 </sst>
 </file>
@@ -737,7 +755,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,11 +1237,15 @@
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -1231,8 +1253,12 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12" s="9">
+        <v>100</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="8"/>
       <c r="O12" s="9"/>
@@ -1248,11 +1274,15 @@
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
@@ -1260,8 +1290,12 @@
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="8">
+        <v>2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>100</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="8"/>
       <c r="O13" s="9"/>
@@ -1277,11 +1311,15 @@
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
@@ -1289,8 +1327,12 @@
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="8">
+        <v>2</v>
+      </c>
+      <c r="L14" s="9">
+        <v>100</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9"/>
@@ -2369,8 +2411,11 @@
     <hyperlink ref="B9" r:id="rId7"/>
     <hyperlink ref="B10" r:id="rId8"/>
     <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -131,17 +131,23 @@
   </si>
   <si>
     <t>12963. Dãy số</t>
+  </si>
+  <si>
+    <t>VOSTRAVL</t>
+  </si>
+  <si>
+    <t>21147. Du lịch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -149,7 +155,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -157,7 +163,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -165,6 +171,13 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000020"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -387,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -755,36 +771,36 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19:F19"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="12.625" customWidth="1"/>
+    <col min="20" max="20" width="8.25" customWidth="1"/>
+    <col min="21" max="21" width="11.125" customWidth="1"/>
+    <col min="22" max="22" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -828,7 +844,7 @@
       <c r="U1" s="17"/>
       <c r="V1" s="18"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -888,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -911,8 +927,12 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>100</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9">
@@ -933,7 +953,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -947,8 +967,12 @@
         <f t="shared" ref="D4:D50" si="0">IFERROR(SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),"")</f>
         <v>2</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>100</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="12">
         <v>2</v>
@@ -966,7 +990,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -983,8 +1007,12 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <v>100</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="8">
         <v>3</v>
@@ -1007,7 +1035,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1024,8 +1052,12 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>100</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="8">
         <v>2</v>
@@ -1048,7 +1080,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1065,8 +1097,12 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="8">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>100</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="8">
         <v>3</v>
@@ -1085,7 +1121,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1102,8 +1138,12 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>100</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="8">
         <v>2</v>
@@ -1122,7 +1162,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1139,8 +1179,12 @@
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="8">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>100</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="8">
         <v>2</v>
@@ -1159,7 +1203,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1171,13 +1215,17 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="8">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9">
+        <v>100</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="8">
         <v>3</v>
@@ -1196,7 +1244,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1220,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="8"/>
@@ -1233,7 +1281,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1245,13 +1293,17 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="8">
+        <v>3</v>
+      </c>
+      <c r="I12" s="9">
+        <v>100</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="8">
         <v>2</v>
@@ -1270,7 +1322,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1287,8 +1339,12 @@
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="8">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>100</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="8">
         <v>2</v>
@@ -1307,7 +1363,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1324,8 +1380,12 @@
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="8">
+        <v>2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>100</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="8">
         <v>2</v>
@@ -1344,21 +1404,29 @@
       <c r="U14" s="9"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="8">
+        <v>4</v>
+      </c>
+      <c r="I15" s="9">
+        <v>95.24</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
@@ -1373,7 +1441,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1402,7 +1470,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1431,7 +1499,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1460,7 +1528,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1489,7 +1557,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1518,7 +1586,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1547,7 +1615,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1576,7 +1644,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1605,7 +1673,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1634,7 +1702,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1663,7 +1731,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1692,7 +1760,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1721,7 +1789,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1750,7 +1818,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1779,7 +1847,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1808,7 +1876,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1837,7 +1905,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1866,7 +1934,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -1895,7 +1963,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -1924,7 +1992,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -1953,7 +2021,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -1982,7 +2050,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2011,7 +2079,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2040,7 +2108,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2069,7 +2137,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2098,7 +2166,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2127,7 +2195,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2156,7 +2224,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2185,7 +2253,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2214,7 +2282,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="5"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2243,7 +2311,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2272,7 +2340,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2301,7 +2369,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2330,7 +2398,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="5"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2359,7 +2427,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="5"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2414,8 +2482,9 @@
     <hyperlink ref="B12" r:id="rId10"/>
     <hyperlink ref="B13" r:id="rId11"/>
     <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -439,6 +439,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,9 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,7 +771,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -801,54 +801,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="16" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="16" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="16" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="9">
-        <v>100</v>
+        <v>46.15</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="8">
@@ -1411,7 +1411,7 @@
       <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="12">

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>21147. Du lịch</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>2918. Gấp tiền</t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,7 +161,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -163,7 +169,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -175,7 +181,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -400,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,6 +466,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -771,36 +778,36 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="20" width="8.25" customWidth="1"/>
-    <col min="21" max="21" width="11.125" customWidth="1"/>
-    <col min="22" max="22" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -844,7 +851,7 @@
       <c r="U1" s="18"/>
       <c r="V1" s="19"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -904,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -953,7 +960,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -990,7 +997,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1035,7 +1042,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1080,7 +1087,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1121,7 +1128,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1162,7 +1169,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1193,8 +1200,12 @@
         <v>100</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
+      <c r="N9" s="8">
+        <v>2</v>
+      </c>
+      <c r="O9" s="9">
+        <v>100</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="9"/>
@@ -1203,7 +1214,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1215,7 +1226,7 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
@@ -1234,7 +1245,9 @@
         <v>100</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="8"/>
+      <c r="N10" s="8">
+        <v>3</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="8"/>
@@ -1244,7 +1257,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1281,7 +1294,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1322,7 +1335,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1363,7 +1376,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1394,8 +1407,12 @@
         <v>100</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="N14" s="8">
+        <v>2</v>
+      </c>
+      <c r="O14" s="9">
+        <v>100</v>
+      </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="9"/>
@@ -1404,7 +1421,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1441,15 +1458,19 @@
       <c r="U15" s="9"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
@@ -1460,7 +1481,9 @@
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="8"/>
+      <c r="N16" s="8">
+        <v>4</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="8"/>
@@ -1470,7 +1493,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1499,7 +1522,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1528,7 +1551,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1557,7 +1580,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1586,7 +1609,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1615,7 +1638,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1644,7 +1667,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1673,7 +1696,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1702,7 +1725,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1731,7 +1754,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1760,7 +1783,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1789,7 +1812,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1818,7 +1841,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1847,7 +1870,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1876,7 +1899,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1905,7 +1928,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1934,7 +1957,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -1963,7 +1986,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -1992,7 +2015,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2021,7 +2044,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2050,7 +2073,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2079,7 +2102,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2108,7 +2131,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2137,7 +2160,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2166,7 +2189,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2195,7 +2218,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2224,7 +2247,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2253,7 +2276,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2282,7 +2305,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="5"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2311,7 +2334,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2340,7 +2363,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2369,7 +2392,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2398,7 +2421,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="5"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2427,7 +2450,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="5"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2483,8 +2506,9 @@
     <hyperlink ref="B13" r:id="rId11"/>
     <hyperlink ref="B14" r:id="rId12"/>
     <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>21147. Du lịch</t>
+  </si>
+  <si>
+    <t>46,15 (Java)</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1100,8 +1103,8 @@
       <c r="H7" s="8">
         <v>3</v>
       </c>
-      <c r="I7" s="9">
-        <v>46.15</v>
+      <c r="I7" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="8">
@@ -1425,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="9">
-        <v>95.24</v>
+        <v>100</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="8"/>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>46,15 (Java)</t>
+  </si>
+  <si>
+    <t>VOSCOMPS</t>
+  </si>
+  <si>
+    <t>21075. Connected Components</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +164,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +172,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -178,7 +184,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -774,36 +780,36 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="20" width="8.25" customWidth="1"/>
-    <col min="21" max="21" width="11.125" customWidth="1"/>
-    <col min="22" max="22" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -847,7 +853,7 @@
       <c r="U1" s="18"/>
       <c r="V1" s="19"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -907,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -919,7 +925,7 @@
       </c>
       <c r="D3" s="12">
         <f>IFERROR(SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3),"")</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -937,7 +943,9 @@
         <v>100</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
       <c r="L3" s="9">
         <v>85</v>
       </c>
@@ -956,7 +964,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -993,7 +1001,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1038,7 +1046,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1083,7 +1091,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1124,7 +1132,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1165,7 +1173,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1206,7 +1214,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1247,7 +1255,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1284,7 +1292,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1325,7 +1333,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1366,7 +1374,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1407,7 +1415,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1444,15 +1452,19 @@
       <c r="U15" s="9"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
@@ -1460,8 +1472,12 @@
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="8">
+        <v>3</v>
+      </c>
+      <c r="L16" s="9">
+        <v>10</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9"/>
@@ -1473,7 +1489,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1502,7 +1518,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1531,7 +1547,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1560,7 +1576,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1589,7 +1605,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1618,7 +1634,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1647,7 +1663,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1676,7 +1692,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1705,7 +1721,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1734,7 +1750,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1763,7 +1779,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1792,7 +1808,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1821,7 +1837,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1850,7 +1866,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1879,7 +1895,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1908,7 +1924,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1937,7 +1953,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -1966,7 +1982,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -1995,7 +2011,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2024,7 +2040,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2053,7 +2069,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2082,7 +2098,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2111,7 +2127,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2140,7 +2156,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2169,7 +2185,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2198,7 +2214,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2227,7 +2243,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2256,7 +2272,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2285,7 +2301,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="5"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2314,7 +2330,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2343,7 +2359,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2372,7 +2388,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2401,7 +2417,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="5"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2430,7 +2446,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="5"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2486,8 +2502,9 @@
     <hyperlink ref="B13" r:id="rId11"/>
     <hyperlink ref="B14" r:id="rId12"/>
     <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Practices" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -146,6 +146,30 @@
   </si>
   <si>
     <t>21075. Connected Components</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>2918. Gấp tiền</t>
+  </si>
+  <si>
+    <t>3198. Xúc xắc bò</t>
+  </si>
+  <si>
+    <t>BONES</t>
+  </si>
+  <si>
+    <t>10468. VOI 2012 Bản vanxơ Fibonacci</t>
+  </si>
+  <si>
+    <t>FIBVAL</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>2117. Bus</t>
   </si>
 </sst>
 </file>
@@ -409,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,6 +491,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -780,36 +810,36 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -853,7 +883,7 @@
       <c r="U1" s="18"/>
       <c r="V1" s="19"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -913,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -964,7 +994,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -977,6 +1007,9 @@
       <c r="D4" s="12">
         <f t="shared" ref="D4:D50" si="0">IFERROR(SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),"")</f>
         <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>100</v>
       </c>
       <c r="H4" s="8">
         <v>2</v>
@@ -1001,7 +1034,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1046,7 +1079,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1061,7 +1094,9 @@
         <v>2</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9">
+        <v>100</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="8">
         <v>2</v>
@@ -1091,7 +1126,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1132,7 +1167,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1173,7 +1208,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1188,7 +1223,9 @@
         <v>2</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9">
+        <v>100</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="8">
         <v>2</v>
@@ -1214,7 +1251,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1229,7 +1266,9 @@
         <v>2.5</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9">
+        <v>100</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="8">
         <v>2</v>
@@ -1255,7 +1294,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1270,7 +1309,9 @@
         <v>3</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9">
+        <v>60</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
@@ -1292,7 +1333,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1333,7 +1374,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1374,7 +1415,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1415,7 +1456,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1452,7 +1493,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1489,21 +1530,33 @@
       <c r="U16" s="9"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>100</v>
+      </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="8">
+        <v>2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
@@ -1518,21 +1571,29 @@
       <c r="U17" s="9"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>100</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
@@ -1547,21 +1608,29 @@
       <c r="U18" s="9"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9">
+        <v>100</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9"/>
@@ -1576,21 +1645,29 @@
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="8">
+        <v>2</v>
+      </c>
+      <c r="I20" s="9">
+        <v>100</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9"/>
@@ -1605,7 +1682,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1634,7 +1711,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1663,7 +1740,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1692,7 +1769,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1721,7 +1798,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1750,7 +1827,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1779,7 +1856,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1808,7 +1885,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1837,7 +1914,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1866,7 +1943,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1895,7 +1972,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1924,7 +2001,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1953,7 +2030,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -1982,7 +2059,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2011,7 +2088,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2040,7 +2117,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2069,7 +2146,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2098,7 +2175,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2127,7 +2204,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2156,7 +2233,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2185,7 +2262,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2214,7 +2291,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2243,7 +2320,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2272,7 +2349,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2301,7 +2378,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="5"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2330,7 +2407,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2359,7 +2436,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2388,7 +2465,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2417,7 +2494,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="5"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2446,7 +2523,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="5"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2503,8 +2580,12 @@
     <hyperlink ref="B14" r:id="rId12"/>
     <hyperlink ref="B15" r:id="rId13"/>
     <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18" tooltip="NKBUS" display="http://vn.spoj.com/problems/NKBUS/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>46,15 (Java)</t>
+  </si>
+  <si>
+    <t>TLE</t>
+  </si>
+  <si>
+    <t>6184. Chocolate Buying</t>
+  </si>
+  <si>
+    <t>CBUYING</t>
   </si>
 </sst>
 </file>
@@ -150,7 +159,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +167,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +175,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -178,7 +187,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -774,36 +783,36 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="20" width="8.25" customWidth="1"/>
-    <col min="21" max="21" width="11.125" customWidth="1"/>
-    <col min="22" max="22" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -847,7 +856,7 @@
       <c r="U1" s="18"/>
       <c r="V1" s="19"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -907,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -956,7 +965,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -993,7 +1002,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1038,7 +1047,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1083,7 +1092,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1124,7 +1133,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1165,7 +1174,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1206,7 +1215,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1218,7 +1227,7 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
@@ -1243,11 +1252,15 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="9"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9"/>
+      <c r="T10" s="8">
+        <v>3</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1284,7 +1297,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1325,7 +1338,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1366,7 +1379,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1403,11 +1416,15 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="9"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="9"/>
+      <c r="T14" s="8">
+        <v>2</v>
+      </c>
+      <c r="U14" s="9">
+        <v>100</v>
+      </c>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1444,15 +1461,19 @@
       <c r="U15" s="9"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
@@ -1469,11 +1490,15 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="9"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="9"/>
+      <c r="T16" s="8">
+        <v>2</v>
+      </c>
+      <c r="U16" s="9">
+        <v>50</v>
+      </c>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1502,7 +1527,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1531,7 +1556,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1560,7 +1585,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1589,7 +1614,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1618,7 +1643,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1647,7 +1672,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1676,7 +1701,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1705,7 +1730,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1734,7 +1759,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1763,7 +1788,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1792,7 +1817,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1821,7 +1846,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1850,7 +1875,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1879,7 +1904,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1908,7 +1933,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1937,7 +1962,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -1966,7 +1991,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -1995,7 +2020,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2024,7 +2049,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2053,7 +2078,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2082,7 +2107,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2111,7 +2136,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2140,7 +2165,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2169,7 +2194,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2198,7 +2223,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2227,7 +2252,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2256,7 +2281,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2285,7 +2310,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="5"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2314,7 +2339,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2343,7 +2368,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2372,7 +2397,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2401,7 +2426,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="5"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2430,7 +2455,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="5"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2486,8 +2511,9 @@
     <hyperlink ref="B13" r:id="rId11"/>
     <hyperlink ref="B14" r:id="rId12"/>
     <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -142,13 +142,40 @@
     <t>46,15 (Java)</t>
   </si>
   <si>
-    <t>TLE</t>
-  </si>
-  <si>
     <t>6184. Chocolate Buying</t>
   </si>
   <si>
     <t>CBUYING</t>
+  </si>
+  <si>
+    <t>2240. Số huyền bí</t>
+  </si>
+  <si>
+    <t>MYSTERY</t>
+  </si>
+  <si>
+    <t>13019. Hai nhà máy điện nguyên tử</t>
+  </si>
+  <si>
+    <t>NUCLEAR</t>
+  </si>
+  <si>
+    <t>15282. Secret Garden</t>
+  </si>
+  <si>
+    <t>20645. Bảng quan hệ</t>
+  </si>
+  <si>
+    <t>20650. Mỏ vàng</t>
+  </si>
+  <si>
+    <t>VMFOUR</t>
+  </si>
+  <si>
+    <t>VMREL6</t>
+  </si>
+  <si>
+    <t>VMGOLD</t>
   </si>
 </sst>
 </file>
@@ -412,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,6 +498,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -780,10 +810,10 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,8 +1285,8 @@
       <c r="T10" s="8">
         <v>3</v>
       </c>
-      <c r="U10" s="9" t="s">
-        <v>41</v>
+      <c r="U10" s="9">
+        <v>100</v>
       </c>
       <c r="V10" s="5"/>
     </row>
@@ -1309,7 +1339,7 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -1334,8 +1364,12 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="9"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="9"/>
+      <c r="T12" s="8">
+        <v>2</v>
+      </c>
+      <c r="U12" s="9">
+        <v>100</v>
+      </c>
       <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1466,10 +1500,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
@@ -1502,11 +1536,15 @@
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
@@ -1523,19 +1561,27 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="9"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9"/>
+      <c r="T17" s="8">
+        <v>3</v>
+      </c>
+      <c r="U17" s="9">
+        <v>20</v>
+      </c>
       <c r="V17" s="5"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
@@ -1552,16 +1598,24 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="9"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="9"/>
+      <c r="T18" s="8">
+        <v>3</v>
+      </c>
+      <c r="U18" s="9">
+        <v>70</v>
+      </c>
       <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1582,15 +1636,21 @@
       <c r="R19" s="9"/>
       <c r="S19" s="5"/>
       <c r="T19" s="8"/>
-      <c r="U19" s="9"/>
+      <c r="U19" s="9">
+        <v>30</v>
+      </c>
       <c r="V19" s="5"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D20" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1618,11 +1678,15 @@
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
@@ -1639,8 +1703,12 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="9"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="9"/>
+      <c r="T21" s="8">
+        <v>3</v>
+      </c>
+      <c r="U21" s="9">
+        <v>40</v>
+      </c>
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -2512,8 +2580,13 @@
     <hyperlink ref="B14" r:id="rId12"/>
     <hyperlink ref="B15" r:id="rId13"/>
     <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -170,6 +170,42 @@
   </si>
   <si>
     <t>2250. Dãy con dài nhất</t>
+  </si>
+  <si>
+    <t>2240. Số huyền bí</t>
+  </si>
+  <si>
+    <t>6184. Chocolate Buying</t>
+  </si>
+  <si>
+    <t>13019. Hai nhà máy điện nguyên tử</t>
+  </si>
+  <si>
+    <t>15282. Secret Garden</t>
+  </si>
+  <si>
+    <t>20650. Mỏ vàng</t>
+  </si>
+  <si>
+    <t>20645. Bảng quan hệ</t>
+  </si>
+  <si>
+    <t>MYSTERY</t>
+  </si>
+  <si>
+    <t>CBUYING</t>
+  </si>
+  <si>
+    <t>NUCLEAR</t>
+  </si>
+  <si>
+    <t>VMFOUR</t>
+  </si>
+  <si>
+    <t>VMGOLD</t>
+  </si>
+  <si>
+    <t>VMREL6</t>
   </si>
 </sst>
 </file>
@@ -433,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -801,10 +840,10 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1305,7 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2.75</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
@@ -1295,8 +1334,12 @@
         <v>0</v>
       </c>
       <c r="S10" s="5"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9"/>
+      <c r="T10" s="8">
+        <v>3</v>
+      </c>
+      <c r="U10" s="9">
+        <v>100</v>
+      </c>
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1352,7 +1395,7 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -1377,8 +1420,12 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="9"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="9"/>
+      <c r="T12" s="8">
+        <v>2</v>
+      </c>
+      <c r="U12" s="9">
+        <v>100</v>
+      </c>
       <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1463,8 +1510,12 @@
         <v>100</v>
       </c>
       <c r="S14" s="5"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="9"/>
+      <c r="T14" s="8">
+        <v>2</v>
+      </c>
+      <c r="U14" s="9">
+        <v>100</v>
+      </c>
       <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1722,16 +1773,24 @@
         <v>50</v>
       </c>
       <c r="S21" s="5"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="9"/>
+      <c r="T21" s="8">
+        <v>3</v>
+      </c>
+      <c r="U21" s="9">
+        <v>20</v>
+      </c>
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D22" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1759,11 +1818,15 @@
       <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
@@ -1780,19 +1843,27 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="9"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="9"/>
+      <c r="T23" s="8">
+        <v>3</v>
+      </c>
+      <c r="U23" s="9">
+        <v>50</v>
+      </c>
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
@@ -1809,19 +1880,27 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="9"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="9"/>
+      <c r="T24" s="8">
+        <v>2</v>
+      </c>
+      <c r="U24" s="9">
+        <v>70</v>
+      </c>
       <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -1838,19 +1917,27 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="9"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="9"/>
+      <c r="T25" s="8">
+        <v>3</v>
+      </c>
+      <c r="U25" s="9">
+        <v>30</v>
+      </c>
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -1867,19 +1954,27 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="9"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="9"/>
+      <c r="T26" s="8">
+        <v>3</v>
+      </c>
+      <c r="U26" s="9">
+        <v>14.29</v>
+      </c>
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
@@ -1896,8 +1991,12 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="9"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="9"/>
+      <c r="T27" s="8">
+        <v>3</v>
+      </c>
+      <c r="U27" s="9">
+        <v>10</v>
+      </c>
       <c r="V27" s="5"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -2600,8 +2699,14 @@
     <hyperlink ref="B19" r:id="rId17"/>
     <hyperlink ref="B20" r:id="rId18"/>
     <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B26" r:id="rId21"/>
+    <hyperlink ref="B27" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B24" r:id="rId24"/>
+    <hyperlink ref="B23" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -448,6 +448,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,7 +467,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -778,7 +778,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,54 +808,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="17" t="s">
+      <c r="E1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="17" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="17" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="17" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="17" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -1325,8 +1325,12 @@
         <v>100</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
+      <c r="N12" s="8">
+        <v>3</v>
+      </c>
+      <c r="O12" s="9">
+        <v>100</v>
+      </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="9"/>
@@ -1366,8 +1370,12 @@
         <v>100</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
+      <c r="N13" s="8">
+        <v>2</v>
+      </c>
+      <c r="O13" s="9">
+        <v>100</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="9"/>
@@ -1465,7 +1473,7 @@
       <c r="B16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="12">

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Practices" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>VMREL6</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>2918. Gấp tiền</t>
+  </si>
+  <si>
+    <t>First Number</t>
+  </si>
+  <si>
+    <t>4257. First Number</t>
   </si>
 </sst>
 </file>
@@ -469,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,6 +523,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,9 +544,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -840,87 +853,87 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="17" t="s">
+      <c r="E1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="17" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="17" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="17" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="17" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="17"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1031,7 +1044,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1043,7 +1056,13 @@
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D50" si="0">IFERROR(SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),"")</f>
-        <v>2.3333333333333335</v>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>100</v>
       </c>
       <c r="H4" s="8">
         <v>2</v>
@@ -1072,7 +1091,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1121,7 +1140,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1133,10 +1152,14 @@
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>100</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="8">
         <v>2</v>
@@ -1170,7 +1193,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1211,7 +1234,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1252,7 +1275,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1264,10 +1287,14 @@
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>100</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="8">
         <v>2</v>
@@ -1293,7 +1320,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1305,9 +1332,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>2.75</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>2.4</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5"/>
       <c r="H10" s="8">
@@ -1342,7 +1371,7 @@
       </c>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1354,10 +1383,14 @@
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>60</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
@@ -1383,7 +1416,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1428,7 +1461,7 @@
       </c>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1442,7 +1475,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="5"/>
       <c r="H13" s="8">
@@ -1469,7 +1504,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1483,7 +1518,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="5"/>
       <c r="H14" s="8">
@@ -1518,7 +1555,7 @@
       </c>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1555,7 +1592,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1592,7 +1629,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1629,7 +1666,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1643,8 +1680,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>100</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
@@ -1666,7 +1707,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1703,7 +1744,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1740,7 +1781,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1781,11 +1822,11 @@
       </c>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1814,7 +1855,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1851,7 +1892,7 @@
       </c>
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1888,7 +1929,7 @@
       </c>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1925,7 +1966,7 @@
       </c>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1962,7 +2003,7 @@
       </c>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1999,18 +2040,26 @@
       </c>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>100</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
@@ -2028,18 +2077,26 @@
       <c r="U28" s="9"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>100</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
@@ -2057,7 +2114,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2086,7 +2143,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2115,7 +2172,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2144,7 +2201,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2173,7 +2230,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2202,7 +2259,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2231,7 +2288,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2260,7 +2317,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2289,7 +2346,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2318,7 +2375,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2347,7 +2404,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2376,7 +2433,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2405,7 +2462,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2434,7 +2491,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2463,7 +2520,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2492,7 +2549,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="5"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2521,7 +2578,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2550,7 +2607,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2579,7 +2636,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2608,7 +2665,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="5"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2637,7 +2694,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="5"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2705,8 +2762,10 @@
     <hyperlink ref="B25" r:id="rId23"/>
     <hyperlink ref="B24" r:id="rId24"/>
     <hyperlink ref="B23" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27" tooltip="MDIGITS2" display="http://vn.spoj.com/problems/MDIGITS2/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId26"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Practices" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,6 +526,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,7 +545,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -606,7 +609,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,7 +644,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,84 +859,84 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="18" t="s">
+      <c r="E1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="18" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="18" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="18" t="s">
+      <c r="R1" s="20"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="20"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="18"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="21"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="12">
-        <f>IFERROR(SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3),"")</f>
+        <f>IFERROR(ROUND( SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3), 1),"")</f>
         <v>1.8</v>
       </c>
       <c r="E3" s="8">
@@ -1044,7 +1047,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1055,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:D50" si="0">IFERROR(SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E4">
+        <f t="shared" ref="D4:D50" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4), 1),"")</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="25">
         <v>1</v>
       </c>
       <c r="F4" s="9">
@@ -1091,7 +1094,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1140,7 +1143,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1193,7 +1196,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1234,7 +1237,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1275,7 +1278,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1287,7 +1290,7 @@
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>1.7</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -1320,7 +1323,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1371,7 +1374,7 @@
       </c>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1383,7 +1386,7 @@
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2.7</v>
       </c>
       <c r="E11" s="8">
         <v>2</v>
@@ -1416,7 +1419,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1428,7 +1431,7 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -1461,7 +1464,7 @@
       </c>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1504,7 +1507,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1555,7 +1558,7 @@
       </c>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1592,7 +1595,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1629,7 +1632,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1666,7 +1669,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1707,7 +1710,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1744,7 +1747,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1781,7 +1784,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1822,7 +1825,7 @@
       </c>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1855,7 +1858,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1892,7 +1895,7 @@
       </c>
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1929,7 +1932,7 @@
       </c>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1966,7 +1969,7 @@
       </c>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2003,7 +2006,7 @@
       </c>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2040,7 +2043,7 @@
       </c>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2077,11 +2080,11 @@
       <c r="U28" s="9"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2114,7 +2117,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2143,7 +2146,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2172,7 +2175,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2201,7 +2204,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2230,7 +2233,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2259,7 +2262,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2288,7 +2291,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2317,7 +2320,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2346,7 +2349,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2375,7 +2378,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2404,7 +2407,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2433,7 +2436,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2462,7 +2465,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2491,7 +2494,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2520,7 +2523,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2549,7 +2552,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="5"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2578,7 +2581,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2607,7 +2610,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2636,7 +2639,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2665,7 +2668,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="5"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2694,7 +2697,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="5"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,9 +545,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -609,7 +606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,7 +641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,7 +856,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,22 +867,22 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" customWidth="1"/>
     <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
     <col min="17" max="17" width="8.28515625" customWidth="1"/>
     <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="20" max="20" width="8.28515625" customWidth="1"/>
     <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1003,7 +1000,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="12">
-        <f>IFERROR(ROUND( SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3), 1),"")</f>
+        <f>IFERROR(SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3),"")</f>
         <v>1.8</v>
       </c>
       <c r="E3" s="8">
@@ -1058,10 +1055,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:D50" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4), 1),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E4" s="25">
+        <f t="shared" ref="D4:D50" si="0">IFERROR(SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),"")</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="9">
@@ -1290,7 +1287,7 @@
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>1.7</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -1386,7 +1383,7 @@
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E11" s="8">
         <v>2</v>
@@ -1431,7 +1428,7 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -1730,8 +1727,12 @@
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9">
+        <v>100</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,6 +545,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -606,7 +609,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,7 +644,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,7 +859,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,24 +868,24 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="25" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" customWidth="1"/>
     <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="8.28515625" customWidth="1"/>
     <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="8.28515625" customWidth="1"/>
     <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1000,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="12">
-        <f>IFERROR(SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3),"")</f>
+        <f>IFERROR(ROUND( SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3),1),"")</f>
         <v>1.8</v>
       </c>
       <c r="E3" s="8">
@@ -1055,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:D50" si="0">IFERROR(SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E4">
+        <f t="shared" ref="D4:D50" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),1),"")</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="25">
         <v>1</v>
       </c>
       <c r="F4" s="9">
@@ -1287,7 +1290,7 @@
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>1.7</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -1383,7 +1386,7 @@
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2.7</v>
       </c>
       <c r="E11" s="8">
         <v>2</v>
@@ -1428,7 +1431,7 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,6 +527,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,7 +548,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -609,7 +612,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,7 +647,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,7 +862,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +871,7 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="19" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
@@ -889,54 +892,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="E1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="19" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="19" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="22"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,9 +1062,9 @@
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D50" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),1),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E4" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E4" s="19">
         <v>1</v>
       </c>
       <c r="F4" s="9">
@@ -1081,7 +1084,12 @@
         <v>100</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="26">
+        <v>3</v>
+      </c>
+      <c r="O4" s="9">
+        <v>100</v>
+      </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="8">
         <v>3</v>
@@ -1290,7 +1298,7 @@
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -1313,8 +1321,12 @@
         <v>100</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
+      <c r="N9" s="8">
+        <v>3</v>
+      </c>
+      <c r="O9" s="9">
+        <v>100</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="9"/>
@@ -1450,8 +1462,12 @@
         <v>100</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
+      <c r="N12" s="8">
+        <v>2</v>
+      </c>
+      <c r="O12" s="9">
+        <v>100</v>
+      </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="9"/>
@@ -1540,8 +1556,12 @@
         <v>100</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="N14" s="8">
+        <v>2</v>
+      </c>
+      <c r="O14" s="9">
+        <v>100</v>
+      </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="8">
         <v>2</v>
@@ -1655,8 +1675,12 @@
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
+      <c r="N17" s="8">
+        <v>2</v>
+      </c>
+      <c r="O17" s="9">
+        <v>100</v>
+      </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="8">
         <v>2</v>
@@ -1696,8 +1720,12 @@
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9">
+        <v>100</v>
+      </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="8">
         <v>1</v>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>4257. First Number</t>
+  </si>
+  <si>
+    <t>2203. Dãy số</t>
   </si>
 </sst>
 </file>
@@ -530,6 +533,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,9 +552,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -612,7 +615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,7 +650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -862,7 +865,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,54 +895,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="20" t="s">
+      <c r="E1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="20" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="20" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="20" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="20" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>100</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="26">
+      <c r="N4" s="20">
         <v>3</v>
       </c>
       <c r="O4" s="9">
@@ -1398,7 +1401,7 @@
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="E11" s="8">
         <v>2</v>
@@ -1421,7 +1424,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" s="9">
         <v>20</v>
@@ -1787,7 +1790,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -1828,7 +1831,7 @@
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
@@ -1850,7 +1853,7 @@
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U21" s="9">
         <v>20</v>
@@ -1867,9 +1870,9 @@
       <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D22" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
@@ -1886,7 +1889,9 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="9"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="8"/>
+      <c r="T22" s="8">
+        <v>4</v>
+      </c>
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
     </row>
@@ -1939,7 +1944,7 @@
       </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
@@ -1957,7 +1962,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="5"/>
       <c r="T24" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U24" s="9">
         <v>70</v>
@@ -1976,7 +1981,7 @@
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -1994,7 +1999,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="5"/>
       <c r="T25" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U25" s="9">
         <v>30</v>
@@ -2013,7 +2018,7 @@
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -2031,7 +2036,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="5"/>
       <c r="T26" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U26" s="9">
         <v>14.29</v>
@@ -2050,7 +2055,7 @@
       </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
@@ -2068,7 +2073,7 @@
       <c r="R27" s="9"/>
       <c r="S27" s="5"/>
       <c r="T27" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U27" s="9">
         <v>10</v>
@@ -2087,10 +2092,10 @@
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="9">
         <v>100</v>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>2203. Dãy số</t>
+  </si>
+  <si>
+    <t>NKSEQ</t>
   </si>
 </sst>
 </file>
@@ -865,7 +868,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1790,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>67</v>
@@ -2794,7 +2797,7 @@
     <hyperlink ref="B17" r:id="rId15"/>
     <hyperlink ref="B18" r:id="rId16"/>
     <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId18" display="C11SEQ3"/>
     <hyperlink ref="B21" r:id="rId19"/>
     <hyperlink ref="B22" r:id="rId20"/>
     <hyperlink ref="B26" r:id="rId21"/>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -862,13 +862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
     <col min="22" max="22" width="12.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="23"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1012,8 +1012,8 @@
         <v>13</v>
       </c>
       <c r="D3" s="12">
-        <f>IFERROR(ROUND( SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3),1),"")</f>
-        <v>1.8</v>
+        <f>IFERROR(ROUND( SUM(E3,H3,K3,N3,Q3,T3, W3, W3, W3)/COUNT(E3,H3,K3,N3,Q3,T3, W3, W3, W3),1),"")</f>
+        <v>1.5</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -1055,8 +1055,11 @@
       <c r="T3" s="8"/>
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:D50" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),1),"")</f>
+        <f t="shared" ref="D4:D29" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E4" s="19">
@@ -1107,8 +1110,9 @@
       <c r="T4" s="8"/>
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="19"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1156,8 +1160,11 @@
       <c r="T5" s="8"/>
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1209,8 +1216,9 @@
       <c r="T6" s="8"/>
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="19"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1250,8 +1258,11 @@
       <c r="T7" s="8"/>
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1291,8 +1302,9 @@
       <c r="T8" s="8"/>
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="19"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1340,8 +1352,9 @@
       <c r="T9" s="8"/>
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="19"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1391,8 +1404,9 @@
         <v>100</v>
       </c>
       <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="19"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1404,7 +1418,7 @@
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="8">
         <v>2</v>
@@ -1436,8 +1450,11 @@
       <c r="T11" s="8"/>
       <c r="U11" s="9"/>
       <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1485,8 +1502,9 @@
         <v>100</v>
       </c>
       <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1528,8 +1546,11 @@
       <c r="T13" s="8"/>
       <c r="U13" s="9"/>
       <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1583,8 +1604,11 @@
         <v>100</v>
       </c>
       <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1620,8 +1644,9 @@
       <c r="T15" s="8"/>
       <c r="U15" s="9"/>
       <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" s="19"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1633,7 +1658,7 @@
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
@@ -1657,8 +1682,11 @@
       <c r="T16" s="8"/>
       <c r="U16" s="9"/>
       <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1698,8 +1726,9 @@
       <c r="T17" s="8"/>
       <c r="U17" s="9"/>
       <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="19"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1743,8 +1772,9 @@
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
       <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="19"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1784,8 +1814,9 @@
       <c r="T19" s="8"/>
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="19"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1797,7 +1828,7 @@
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
@@ -1821,8 +1852,11 @@
       <c r="T20" s="8"/>
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1834,7 +1868,7 @@
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
@@ -1862,8 +1896,11 @@
         <v>20</v>
       </c>
       <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1897,8 +1934,11 @@
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1910,7 +1950,7 @@
       </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
@@ -1934,8 +1974,11 @@
         <v>50</v>
       </c>
       <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1971,8 +2014,11 @@
         <v>70</v>
       </c>
       <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1984,7 +2030,7 @@
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -2008,8 +2054,11 @@
         <v>30</v>
       </c>
       <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2045,8 +2094,11 @@
         <v>14.29</v>
       </c>
       <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2082,8 +2134,11 @@
         <v>10</v>
       </c>
       <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2119,8 +2174,11 @@
       <c r="T28" s="8"/>
       <c r="U28" s="9"/>
       <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2156,15 +2214,16 @@
       <c r="T29" s="8"/>
       <c r="U29" s="9"/>
       <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="19"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="4"/>
       <c r="D30" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D50" si="1">IFERROR(ROUND( SUM(E30,H30,K30,N30,Q30,T30)/COUNT(E30,H30,K30,N30,Q30,T30),1),"")</f>
         <v/>
       </c>
       <c r="E30" s="8"/>
@@ -2185,15 +2244,16 @@
       <c r="T30" s="8"/>
       <c r="U30" s="9"/>
       <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="19"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="4"/>
       <c r="D31" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E31" s="8"/>
@@ -2214,15 +2274,16 @@
       <c r="T31" s="8"/>
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="19"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="4"/>
       <c r="D32" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E32" s="8"/>
@@ -2243,15 +2304,16 @@
       <c r="T32" s="8"/>
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="19"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="4"/>
       <c r="D33" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E33" s="8"/>
@@ -2272,15 +2334,16 @@
       <c r="T33" s="8"/>
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="19"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="4"/>
       <c r="D34" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E34" s="8"/>
@@ -2301,15 +2364,16 @@
       <c r="T34" s="8"/>
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="19"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="4"/>
       <c r="D35" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E35" s="8"/>
@@ -2330,15 +2394,16 @@
       <c r="T35" s="8"/>
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35" s="19"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="4"/>
       <c r="D36" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E36" s="8"/>
@@ -2359,15 +2424,16 @@
       <c r="T36" s="8"/>
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="19"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="4"/>
       <c r="D37" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E37" s="8"/>
@@ -2388,15 +2454,16 @@
       <c r="T37" s="8"/>
       <c r="U37" s="9"/>
       <c r="V37" s="5"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="19"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="4"/>
       <c r="D38" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E38" s="8"/>
@@ -2417,15 +2484,16 @@
       <c r="T38" s="8"/>
       <c r="U38" s="9"/>
       <c r="V38" s="5"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38" s="19"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="4"/>
       <c r="D39" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E39" s="8"/>
@@ -2446,15 +2514,16 @@
       <c r="T39" s="8"/>
       <c r="U39" s="9"/>
       <c r="V39" s="5"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="19"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="4"/>
       <c r="D40" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E40" s="8"/>
@@ -2475,15 +2544,16 @@
       <c r="T40" s="8"/>
       <c r="U40" s="9"/>
       <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="19"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="4"/>
       <c r="D41" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E41" s="8"/>
@@ -2504,15 +2574,16 @@
       <c r="T41" s="8"/>
       <c r="U41" s="9"/>
       <c r="V41" s="5"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="19"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="4"/>
       <c r="D42" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E42" s="8"/>
@@ -2533,15 +2604,16 @@
       <c r="T42" s="8"/>
       <c r="U42" s="9"/>
       <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42" s="19"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="4"/>
       <c r="D43" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E43" s="8"/>
@@ -2562,15 +2634,16 @@
       <c r="T43" s="8"/>
       <c r="U43" s="9"/>
       <c r="V43" s="5"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43" s="19"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
       <c r="D44" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E44" s="8"/>
@@ -2591,15 +2664,16 @@
       <c r="T44" s="8"/>
       <c r="U44" s="9"/>
       <c r="V44" s="5"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44" s="19"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="4"/>
       <c r="D45" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E45" s="8"/>
@@ -2620,15 +2694,16 @@
       <c r="T45" s="8"/>
       <c r="U45" s="9"/>
       <c r="V45" s="5"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45" s="19"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="4"/>
       <c r="D46" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E46" s="8"/>
@@ -2649,15 +2724,16 @@
       <c r="T46" s="8"/>
       <c r="U46" s="9"/>
       <c r="V46" s="5"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46" s="19"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="4"/>
       <c r="D47" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E47" s="8"/>
@@ -2678,15 +2754,16 @@
       <c r="T47" s="8"/>
       <c r="U47" s="9"/>
       <c r="V47" s="5"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47" s="19"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="4"/>
       <c r="D48" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E48" s="8"/>
@@ -2707,15 +2784,16 @@
       <c r="T48" s="8"/>
       <c r="U48" s="9"/>
       <c r="V48" s="5"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48" s="19"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="4"/>
       <c r="D49" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E49" s="8"/>
@@ -2736,15 +2814,16 @@
       <c r="T49" s="8"/>
       <c r="U49" s="9"/>
       <c r="V49" s="5"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49" s="19"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="6"/>
       <c r="D50" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E50" s="13"/>
@@ -2765,6 +2844,7 @@
       <c r="T50" s="13"/>
       <c r="U50" s="10"/>
       <c r="V50" s="7"/>
+      <c r="W50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -139,9 +139,6 @@
     <t>21147. Du lịch</t>
   </si>
   <si>
-    <t>46,15 (Java)</t>
-  </si>
-  <si>
     <t>VOSCOMPS</t>
   </si>
   <si>
@@ -224,6 +221,30 @@
   </si>
   <si>
     <t>NKSEQ</t>
+  </si>
+  <si>
+    <t>BONES</t>
+  </si>
+  <si>
+    <t>3198. Xúc xắc bò</t>
+  </si>
+  <si>
+    <t>NKBUS</t>
+  </si>
+  <si>
+    <t>2117. Bus</t>
+  </si>
+  <si>
+    <t>NKLINEUP</t>
+  </si>
+  <si>
+    <t>2210. Xếp hàng</t>
+  </si>
+  <si>
+    <t>NKLETTER</t>
+  </si>
+  <si>
+    <t>3631. Gửi thư</t>
   </si>
 </sst>
 </file>
@@ -234,7 +255,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,7 +263,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -250,7 +271,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -262,7 +283,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -618,7 +639,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,7 +674,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -865,39 +886,39 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="12.625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="12.625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="12.625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="12.625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.25" customWidth="1"/>
+    <col min="21" max="21" width="11.125" customWidth="1"/>
+    <col min="22" max="22" width="12.625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -941,7 +962,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="23"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1001,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1059,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1112,7 +1133,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1164,7 +1185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1218,7 +1239,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1238,8 +1259,8 @@
       <c r="H7" s="8">
         <v>3</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>40</v>
+      <c r="I7" s="9">
+        <v>46.15</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="8">
@@ -1262,7 +1283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1304,7 +1325,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1354,7 +1375,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1406,7 +1427,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1454,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1504,7 +1525,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1550,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1608,7 +1629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1646,15 +1667,15 @@
       <c r="V15" s="5"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
@@ -1686,15 +1707,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
@@ -1728,15 +1749,15 @@
       <c r="V17" s="5"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
@@ -1774,15 +1795,15 @@
       <c r="V18" s="5"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
@@ -1816,15 +1837,15 @@
       <c r="V19" s="5"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -1856,15 +1877,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
@@ -1900,15 +1921,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="12">
         <f t="shared" si="0"/>
@@ -1938,25 +1959,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <v>50</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
@@ -1978,15 +2003,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
@@ -2018,15 +2043,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
@@ -2058,15 +2083,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
@@ -2098,15 +2123,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
@@ -2138,19 +2163,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E28" s="8">
         <v>2</v>
@@ -2159,8 +2184,12 @@
         <v>100</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="8">
+        <v>3</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9"/>
@@ -2178,15 +2207,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
@@ -2199,8 +2228,12 @@
         <v>100</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>100</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9"/>
@@ -2216,21 +2249,29 @@
       <c r="V29" s="5"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="12" t="str">
-        <f t="shared" ref="D4:D50" si="1">IFERROR(ROUND( SUM(E30,H30,K30,N30,Q30,T30)/COUNT(E30,H30,K30,N30,Q30,T30),1),"")</f>
-        <v/>
+      <c r="B30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" ref="D30:D50" si="1">IFERROR(ROUND( SUM(E30,H30,K30,N30,Q30,T30)/COUNT(E30,H30,K30,N30,Q30,T30),1),"")</f>
+        <v>1</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>100</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9"/>
@@ -2246,21 +2287,29 @@
       <c r="V30" s="5"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="12" t="str">
+      <c r="B31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="12">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="8">
+        <v>2</v>
+      </c>
+      <c r="I31" s="9">
+        <v>90</v>
+      </c>
       <c r="J31" s="5"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
@@ -2276,21 +2325,29 @@
       <c r="V31" s="5"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="12" t="str">
+      <c r="B32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="12">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="8">
+        <v>3</v>
+      </c>
+      <c r="I32" s="9">
+        <v>100</v>
+      </c>
       <c r="J32" s="5"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
@@ -2306,21 +2363,29 @@
       <c r="V32" s="5"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="12" t="str">
+      <c r="B33" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="12">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9">
+        <v>100</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
@@ -2336,12 +2401,12 @@
       <c r="V33" s="5"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2366,7 +2431,7 @@
       <c r="V34" s="5"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2396,7 +2461,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2426,7 +2491,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="19"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2456,7 +2521,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="19"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2486,7 +2551,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2516,7 +2581,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2546,7 +2611,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2576,7 +2641,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2606,7 +2671,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="19"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2636,7 +2701,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="19"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2666,7 +2731,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="19"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2696,7 +2761,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="19"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2726,7 +2791,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="19"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2756,7 +2821,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2786,7 +2851,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="19"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2816,7 +2881,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="19"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2887,8 +2952,12 @@
     <hyperlink ref="B23" r:id="rId25"/>
     <hyperlink ref="B28" r:id="rId26"/>
     <hyperlink ref="B29" r:id="rId27" tooltip="MDIGITS2" display="http://vn.spoj.com/problems/MDIGITS2/"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId28"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Practices" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -139,6 +139,9 @@
     <t>21147. Du lịch</t>
   </si>
   <si>
+    <t>46,15 (Java)</t>
+  </si>
+  <si>
     <t>VOSCOMPS</t>
   </si>
   <si>
@@ -215,36 +218,6 @@
   </si>
   <si>
     <t>4257. First Number</t>
-  </si>
-  <si>
-    <t>2203. Dãy số</t>
-  </si>
-  <si>
-    <t>NKSEQ</t>
-  </si>
-  <si>
-    <t>BONES</t>
-  </si>
-  <si>
-    <t>3198. Xúc xắc bò</t>
-  </si>
-  <si>
-    <t>NKBUS</t>
-  </si>
-  <si>
-    <t>2117. Bus</t>
-  </si>
-  <si>
-    <t>NKLINEUP</t>
-  </si>
-  <si>
-    <t>2210. Xếp hàng</t>
-  </si>
-  <si>
-    <t>NKLETTER</t>
-  </si>
-  <si>
-    <t>3631. Gửi thư</t>
   </si>
 </sst>
 </file>
@@ -255,7 +228,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -263,7 +236,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -271,7 +244,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -283,7 +256,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -508,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,13 +526,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,6 +544,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -883,90 +850,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="12.625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="12.625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="16" width="12.625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1"/>
-    <col min="19" max="19" width="12.625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.25" customWidth="1"/>
-    <col min="21" max="21" width="11.125" customWidth="1"/>
-    <col min="22" max="22" width="12.625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="E1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="21" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="21" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="23"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="21"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1033,8 +1000,8 @@
         <v>13</v>
       </c>
       <c r="D3" s="12">
-        <f>IFERROR(ROUND( SUM(E3,H3,K3,N3,Q3,T3, W3, W3, W3)/COUNT(E3,H3,K3,N3,Q3,T3, W3, W3, W3),1),"")</f>
-        <v>1.5</v>
+        <f>IFERROR(SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3),"")</f>
+        <v>1.8</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -1076,11 +1043,8 @@
       <c r="T3" s="8"/>
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1091,10 +1055,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:D29" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E4" s="19">
+        <f t="shared" ref="D4:D50" si="0">IFERROR(SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),"")</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="9">
@@ -1114,12 +1078,7 @@
         <v>100</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="20">
-        <v>3</v>
-      </c>
-      <c r="O4" s="9">
-        <v>100</v>
-      </c>
+      <c r="O4" s="9"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="8">
         <v>3</v>
@@ -1131,9 +1090,8 @@
       <c r="T4" s="8"/>
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1181,11 +1139,8 @@
       <c r="T5" s="8"/>
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1237,9 +1192,8 @@
       <c r="T6" s="8"/>
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1259,8 +1213,8 @@
       <c r="H7" s="8">
         <v>3</v>
       </c>
-      <c r="I7" s="9">
-        <v>46.15</v>
+      <c r="I7" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="8">
@@ -1279,11 +1233,8 @@
       <c r="T7" s="8"/>
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1323,9 +1274,8 @@
       <c r="T8" s="8"/>
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="19"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1337,7 +1287,7 @@
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -1360,12 +1310,8 @@
         <v>100</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="8">
-        <v>3</v>
-      </c>
-      <c r="O9" s="9">
-        <v>100</v>
-      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="9"/>
@@ -1373,9 +1319,8 @@
       <c r="T9" s="8"/>
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="19"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1425,9 +1370,8 @@
         <v>100</v>
       </c>
       <c r="V10" s="5"/>
-      <c r="W10" s="19"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1439,7 +1383,7 @@
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E11" s="8">
         <v>2</v>
@@ -1462,7 +1406,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11" s="9">
         <v>20</v>
@@ -1471,11 +1415,8 @@
       <c r="T11" s="8"/>
       <c r="U11" s="9"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1487,7 +1428,7 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -1506,12 +1447,8 @@
         <v>100</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="8">
-        <v>2</v>
-      </c>
-      <c r="O12" s="9">
-        <v>100</v>
-      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="9"/>
@@ -1523,9 +1460,8 @@
         <v>100</v>
       </c>
       <c r="V12" s="5"/>
-      <c r="W12" s="19"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1567,11 +1503,8 @@
       <c r="T13" s="8"/>
       <c r="U13" s="9"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1604,12 +1537,8 @@
         <v>100</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="8">
-        <v>2</v>
-      </c>
-      <c r="O14" s="9">
-        <v>100</v>
-      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="8">
         <v>2</v>
@@ -1625,11 +1554,8 @@
         <v>100</v>
       </c>
       <c r="V14" s="5"/>
-      <c r="W14" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1665,21 +1591,20 @@
       <c r="T15" s="8"/>
       <c r="U15" s="9"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="19"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
@@ -1703,19 +1628,16 @@
       <c r="T16" s="8"/>
       <c r="U16" s="9"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
@@ -1730,12 +1652,8 @@
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="8">
-        <v>2</v>
-      </c>
-      <c r="O17" s="9">
-        <v>100</v>
-      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="8">
         <v>2</v>
@@ -1747,17 +1665,16 @@
       <c r="T17" s="8"/>
       <c r="U17" s="9"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="19"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
@@ -1776,12 +1693,8 @@
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="9">
-        <v>100</v>
-      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="8">
         <v>1</v>
@@ -1793,17 +1706,16 @@
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="19"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
@@ -1815,12 +1727,8 @@
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="8">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9">
-        <v>100</v>
-      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="5"/>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
@@ -1835,21 +1743,20 @@
       <c r="T19" s="8"/>
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="19"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
@@ -1873,23 +1780,20 @@
       <c r="T20" s="8"/>
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
@@ -1911,29 +1815,26 @@
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U21" s="9">
         <v>20</v>
       </c>
       <c r="V21" s="5"/>
-      <c r="W21" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="D22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
@@ -1950,38 +1851,29 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="9"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="8">
-        <v>4</v>
-      </c>
+      <c r="T22" s="8"/>
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9">
-        <v>50</v>
-      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
@@ -1999,23 +1891,20 @@
         <v>50</v>
       </c>
       <c r="V23" s="5"/>
-      <c r="W23" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
@@ -2033,29 +1922,26 @@
       <c r="R24" s="9"/>
       <c r="S24" s="5"/>
       <c r="T24" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U24" s="9">
         <v>70</v>
       </c>
       <c r="V24" s="5"/>
-      <c r="W24" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -2073,29 +1959,26 @@
       <c r="R25" s="9"/>
       <c r="S25" s="5"/>
       <c r="T25" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U25" s="9">
         <v>30</v>
       </c>
       <c r="V25" s="5"/>
-      <c r="W25" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -2113,29 +1996,26 @@
       <c r="R26" s="9"/>
       <c r="S26" s="5"/>
       <c r="T26" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U26" s="9">
         <v>14.29</v>
       </c>
       <c r="V26" s="5"/>
-      <c r="W26" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
@@ -2153,43 +2033,36 @@
       <c r="R27" s="9"/>
       <c r="S27" s="5"/>
       <c r="T27" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U27" s="9">
         <v>10</v>
       </c>
       <c r="V27" s="5"/>
-      <c r="W27" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E28" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="9">
         <v>100</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="8">
-        <v>3</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="5"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9"/>
@@ -2203,19 +2076,16 @@
       <c r="T28" s="8"/>
       <c r="U28" s="9"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>64</v>
+      <c r="B29" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
@@ -2228,12 +2098,8 @@
         <v>100</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="9">
-        <v>100</v>
-      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="5"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9"/>
@@ -2247,31 +2113,22 @@
       <c r="T29" s="8"/>
       <c r="U29" s="9"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="19"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="12">
-        <f t="shared" ref="D30:D50" si="1">IFERROR(ROUND( SUM(E30,H30,K30,N30,Q30,T30)/COUNT(E30,H30,K30,N30,Q30,T30),1),"")</f>
-        <v>1</v>
+      <c r="B30" s="9"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9">
-        <v>100</v>
-      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="5"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9"/>
@@ -2285,31 +2142,22 @@
       <c r="T30" s="8"/>
       <c r="U30" s="9"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="19"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="12">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B31" s="9"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="8">
-        <v>2</v>
-      </c>
-      <c r="I31" s="9">
-        <v>90</v>
-      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="5"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
@@ -2323,31 +2171,22 @@
       <c r="T31" s="8"/>
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="19"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="12">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B32" s="9"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="8">
-        <v>3</v>
-      </c>
-      <c r="I32" s="9">
-        <v>100</v>
-      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="5"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
@@ -2361,31 +2200,22 @@
       <c r="T32" s="8"/>
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="19"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B33" s="9"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="9">
-        <v>100</v>
-      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="5"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
@@ -2399,16 +2229,15 @@
       <c r="T33" s="8"/>
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="19"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="16"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E34" s="8"/>
@@ -2429,16 +2258,15 @@
       <c r="T34" s="8"/>
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="19"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="4"/>
       <c r="D35" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E35" s="8"/>
@@ -2459,16 +2287,15 @@
       <c r="T35" s="8"/>
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="19"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="4"/>
       <c r="D36" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E36" s="8"/>
@@ -2489,16 +2316,15 @@
       <c r="T36" s="8"/>
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="19"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="4"/>
       <c r="D37" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E37" s="8"/>
@@ -2519,16 +2345,15 @@
       <c r="T37" s="8"/>
       <c r="U37" s="9"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="19"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="4"/>
       <c r="D38" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E38" s="8"/>
@@ -2549,16 +2374,15 @@
       <c r="T38" s="8"/>
       <c r="U38" s="9"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="19"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="4"/>
       <c r="D39" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E39" s="8"/>
@@ -2579,16 +2403,15 @@
       <c r="T39" s="8"/>
       <c r="U39" s="9"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="19"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="4"/>
       <c r="D40" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E40" s="8"/>
@@ -2609,16 +2432,15 @@
       <c r="T40" s="8"/>
       <c r="U40" s="9"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="19"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="4"/>
       <c r="D41" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E41" s="8"/>
@@ -2639,16 +2461,15 @@
       <c r="T41" s="8"/>
       <c r="U41" s="9"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="19"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="4"/>
       <c r="D42" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E42" s="8"/>
@@ -2669,16 +2490,15 @@
       <c r="T42" s="8"/>
       <c r="U42" s="9"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="19"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="4"/>
       <c r="D43" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E43" s="8"/>
@@ -2699,16 +2519,15 @@
       <c r="T43" s="8"/>
       <c r="U43" s="9"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="19"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
       <c r="D44" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E44" s="8"/>
@@ -2729,16 +2548,15 @@
       <c r="T44" s="8"/>
       <c r="U44" s="9"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="19"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>43</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="4"/>
       <c r="D45" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E45" s="8"/>
@@ -2759,16 +2577,15 @@
       <c r="T45" s="8"/>
       <c r="U45" s="9"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="19"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>44</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="4"/>
       <c r="D46" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E46" s="8"/>
@@ -2789,16 +2606,15 @@
       <c r="T46" s="8"/>
       <c r="U46" s="9"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="19"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="4"/>
       <c r="D47" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E47" s="8"/>
@@ -2819,16 +2635,15 @@
       <c r="T47" s="8"/>
       <c r="U47" s="9"/>
       <c r="V47" s="5"/>
-      <c r="W47" s="19"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>46</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="4"/>
       <c r="D48" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E48" s="8"/>
@@ -2849,16 +2664,15 @@
       <c r="T48" s="8"/>
       <c r="U48" s="9"/>
       <c r="V48" s="5"/>
-      <c r="W48" s="19"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>47</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="4"/>
       <c r="D49" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E49" s="8"/>
@@ -2879,16 +2693,15 @@
       <c r="T49" s="8"/>
       <c r="U49" s="9"/>
       <c r="V49" s="5"/>
-      <c r="W49" s="19"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>48</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="6"/>
       <c r="D50" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E50" s="13"/>
@@ -2909,7 +2722,6 @@
       <c r="T50" s="13"/>
       <c r="U50" s="10"/>
       <c r="V50" s="7"/>
-      <c r="W50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2942,7 +2754,7 @@
     <hyperlink ref="B17" r:id="rId15"/>
     <hyperlink ref="B18" r:id="rId16"/>
     <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18" display="C11SEQ3"/>
+    <hyperlink ref="B20" r:id="rId18"/>
     <hyperlink ref="B21" r:id="rId19"/>
     <hyperlink ref="B22" r:id="rId20"/>
     <hyperlink ref="B26" r:id="rId21"/>
@@ -2952,12 +2764,8 @@
     <hyperlink ref="B23" r:id="rId25"/>
     <hyperlink ref="B28" r:id="rId26"/>
     <hyperlink ref="B29" r:id="rId27" tooltip="MDIGITS2" display="http://vn.spoj.com/problems/MDIGITS2/"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-    <hyperlink ref="B32" r:id="rId30"/>
-    <hyperlink ref="B33" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Practices" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -139,9 +139,6 @@
     <t>21147. Du lịch</t>
   </si>
   <si>
-    <t>46,15 (Java)</t>
-  </si>
-  <si>
     <t>VOSCOMPS</t>
   </si>
   <si>
@@ -218,6 +215,39 @@
   </si>
   <si>
     <t>4257. First Number</t>
+  </si>
+  <si>
+    <t>2203. Dãy số</t>
+  </si>
+  <si>
+    <t>NKSEQ</t>
+  </si>
+  <si>
+    <t>BONES</t>
+  </si>
+  <si>
+    <t>3198. Xúc xắc bò</t>
+  </si>
+  <si>
+    <t>NKBUS</t>
+  </si>
+  <si>
+    <t>2117. Bus</t>
+  </si>
+  <si>
+    <t>NKLINEUP</t>
+  </si>
+  <si>
+    <t>2210. Xếp hàng</t>
+  </si>
+  <si>
+    <t>NKLETTER</t>
+  </si>
+  <si>
+    <t>3631. Gửi thư</t>
+  </si>
+  <si>
+    <t>2 (3 for Java)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,6 +556,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,7 +581,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -850,90 +886,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="19" customWidth="1"/>
     <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" customWidth="1"/>
     <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" customWidth="1"/>
     <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" customWidth="1"/>
     <col min="15" max="15" width="11.109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" customWidth="1"/>
     <col min="18" max="18" width="11.109375" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.21875" customWidth="1"/>
     <col min="21" max="21" width="11.109375" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="18" t="s">
+      <c r="E1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="18" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="18" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="18" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="20"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="18"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="23"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,7 +1025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1000,8 +1036,8 @@
         <v>13</v>
       </c>
       <c r="D3" s="12">
-        <f>IFERROR(SUM(E3,H3,K3,N3,Q3,T3)/COUNT(E3,H3,K3,N3,Q3,T3),"")</f>
-        <v>1.8</v>
+        <f>IFERROR(ROUND( SUM(E3,H3,K3,N3,Q3,T3, W3, W3, W3)/COUNT(E3,H3,K3,N3,Q3,T3, W3, W3, W3),1),"")</f>
+        <v>1.5</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -1043,8 +1079,11 @@
       <c r="T3" s="8"/>
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1055,10 +1094,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:D50" si="0">IFERROR(SUM(E4,H4,K4,N4,Q4,T4)/COUNT(E4,H4,K4,N4,Q4,T4),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E4">
+        <f t="shared" ref="D4:D29" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E4" s="19">
         <v>1</v>
       </c>
       <c r="F4" s="9">
@@ -1078,7 +1117,12 @@
         <v>100</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="20">
+        <v>3</v>
+      </c>
+      <c r="O4" s="9">
+        <v>100</v>
+      </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="8">
         <v>3</v>
@@ -1090,8 +1134,9 @@
       <c r="T4" s="8"/>
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="19"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1105,8 +1150,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>80</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="8">
         <v>3</v>
@@ -1139,8 +1188,11 @@
       <c r="T5" s="8"/>
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1192,8 +1244,9 @@
       <c r="T6" s="8"/>
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="19"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1207,14 +1260,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>100</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="8">
         <v>3</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>40</v>
+      <c r="I7" s="9">
+        <v>46.15</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="8">
@@ -1233,8 +1290,11 @@
       <c r="T7" s="8"/>
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1274,8 +1334,9 @@
       <c r="T8" s="8"/>
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8" s="19"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1287,7 +1348,7 @@
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -1310,8 +1371,12 @@
         <v>100</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
+      <c r="N9" s="8">
+        <v>3</v>
+      </c>
+      <c r="O9" s="9">
+        <v>100</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="9"/>
@@ -1319,8 +1384,9 @@
       <c r="T9" s="8"/>
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="19"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1332,12 +1398,14 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>100</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="8">
         <v>2</v>
@@ -1370,8 +1438,9 @@
         <v>100</v>
       </c>
       <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="19"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1383,7 +1452,7 @@
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="8">
         <v>2</v>
@@ -1406,7 +1475,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" s="9">
         <v>20</v>
@@ -1415,8 +1484,11 @@
       <c r="T11" s="8"/>
       <c r="U11" s="9"/>
       <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1428,7 +1500,7 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -1447,8 +1519,12 @@
         <v>100</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
+      <c r="N12" s="8">
+        <v>2</v>
+      </c>
+      <c r="O12" s="9">
+        <v>100</v>
+      </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="9"/>
@@ -1460,8 +1536,9 @@
         <v>100</v>
       </c>
       <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1503,8 +1580,11 @@
       <c r="T13" s="8"/>
       <c r="U13" s="9"/>
       <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1537,8 +1617,12 @@
         <v>100</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="N14" s="8">
+        <v>2</v>
+      </c>
+      <c r="O14" s="9">
+        <v>100</v>
+      </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="8">
         <v>2</v>
@@ -1554,8 +1638,11 @@
         <v>100</v>
       </c>
       <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1591,20 +1678,21 @@
       <c r="T15" s="8"/>
       <c r="U15" s="9"/>
       <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15" s="19"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
@@ -1628,16 +1716,19 @@
       <c r="T16" s="8"/>
       <c r="U16" s="9"/>
       <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W16" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
@@ -1652,8 +1743,12 @@
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
+      <c r="N17" s="8">
+        <v>2</v>
+      </c>
+      <c r="O17" s="9">
+        <v>100</v>
+      </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="8">
         <v>2</v>
@@ -1665,16 +1760,17 @@
       <c r="T17" s="8"/>
       <c r="U17" s="9"/>
       <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W17" s="19"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
@@ -1693,8 +1789,12 @@
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9">
+        <v>100</v>
+      </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="8">
         <v>1</v>
@@ -1706,16 +1806,17 @@
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
       <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W18" s="19"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
@@ -1727,8 +1828,12 @@
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9">
+        <v>100</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
@@ -1743,20 +1848,21 @@
       <c r="T19" s="8"/>
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W19" s="19"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
@@ -1780,20 +1886,23 @@
       <c r="T20" s="8"/>
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W20" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
@@ -1815,26 +1924,29 @@
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U21" s="9">
         <v>20</v>
       </c>
       <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W21" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="12" t="str">
+        <v>50</v>
+      </c>
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
@@ -1851,29 +1963,38 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="9"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="8"/>
+      <c r="T22" s="8">
+        <v>4</v>
+      </c>
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W22" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <v>50</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
@@ -1891,20 +2012,23 @@
         <v>50</v>
       </c>
       <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W23" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
@@ -1922,26 +2046,29 @@
       <c r="R24" s="9"/>
       <c r="S24" s="5"/>
       <c r="T24" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U24" s="9">
         <v>70</v>
       </c>
       <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W24" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -1959,26 +2086,29 @@
       <c r="R25" s="9"/>
       <c r="S25" s="5"/>
       <c r="T25" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U25" s="9">
         <v>30</v>
       </c>
       <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W25" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -1996,26 +2126,29 @@
       <c r="R26" s="9"/>
       <c r="S26" s="5"/>
       <c r="T26" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U26" s="9">
         <v>14.29</v>
       </c>
       <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W26" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
@@ -2033,36 +2166,43 @@
       <c r="R27" s="9"/>
       <c r="S27" s="5"/>
       <c r="T27" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U27" s="9">
         <v>10</v>
       </c>
       <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W27" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E28" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="9">
         <v>100</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="8">
+        <v>3</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9"/>
@@ -2076,16 +2216,19 @@
       <c r="T28" s="8"/>
       <c r="U28" s="9"/>
       <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W28" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
@@ -2098,8 +2241,12 @@
         <v>100</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>100</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9"/>
@@ -2113,22 +2260,31 @@
       <c r="T29" s="8"/>
       <c r="U29" s="9"/>
       <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W29" s="19"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" ref="D30:D50" si="1">IFERROR(ROUND( SUM(E30,H30,K30,N30,Q30,T30)/COUNT(E30,H30,K30,N30,Q30,T30),1),"")</f>
+        <v>1</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>100</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9"/>
@@ -2142,22 +2298,35 @@
       <c r="T30" s="8"/>
       <c r="U30" s="9"/>
       <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W30" s="19"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="9">
+        <v>100</v>
+      </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="8">
+        <v>2</v>
+      </c>
+      <c r="I31" s="9">
+        <v>90</v>
+      </c>
       <c r="J31" s="5"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
@@ -2171,22 +2340,31 @@
       <c r="T31" s="8"/>
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W31" s="19"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="8">
+        <v>3</v>
+      </c>
+      <c r="I32" s="9">
+        <v>100</v>
+      </c>
       <c r="J32" s="5"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
@@ -2200,22 +2378,31 @@
       <c r="T32" s="8"/>
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W32" s="19"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B33" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9">
+        <v>100</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
@@ -2229,15 +2416,16 @@
       <c r="T33" s="8"/>
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W33" s="19"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E34" s="8"/>
@@ -2258,15 +2446,16 @@
       <c r="T34" s="8"/>
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W34" s="19"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="4"/>
       <c r="D35" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E35" s="8"/>
@@ -2287,15 +2476,16 @@
       <c r="T35" s="8"/>
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W35" s="19"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="4"/>
       <c r="D36" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E36" s="8"/>
@@ -2316,15 +2506,16 @@
       <c r="T36" s="8"/>
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W36" s="19"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="4"/>
       <c r="D37" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E37" s="8"/>
@@ -2345,15 +2536,16 @@
       <c r="T37" s="8"/>
       <c r="U37" s="9"/>
       <c r="V37" s="5"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W37" s="19"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="4"/>
       <c r="D38" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E38" s="8"/>
@@ -2374,15 +2566,16 @@
       <c r="T38" s="8"/>
       <c r="U38" s="9"/>
       <c r="V38" s="5"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W38" s="19"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="4"/>
       <c r="D39" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E39" s="8"/>
@@ -2403,15 +2596,16 @@
       <c r="T39" s="8"/>
       <c r="U39" s="9"/>
       <c r="V39" s="5"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W39" s="19"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="4"/>
       <c r="D40" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E40" s="8"/>
@@ -2432,15 +2626,16 @@
       <c r="T40" s="8"/>
       <c r="U40" s="9"/>
       <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W40" s="19"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="4"/>
       <c r="D41" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E41" s="8"/>
@@ -2461,15 +2656,16 @@
       <c r="T41" s="8"/>
       <c r="U41" s="9"/>
       <c r="V41" s="5"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W41" s="19"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="4"/>
       <c r="D42" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E42" s="8"/>
@@ -2490,15 +2686,16 @@
       <c r="T42" s="8"/>
       <c r="U42" s="9"/>
       <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W42" s="19"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="4"/>
       <c r="D43" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E43" s="8"/>
@@ -2519,15 +2716,16 @@
       <c r="T43" s="8"/>
       <c r="U43" s="9"/>
       <c r="V43" s="5"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W43" s="19"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
       <c r="D44" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E44" s="8"/>
@@ -2548,15 +2746,16 @@
       <c r="T44" s="8"/>
       <c r="U44" s="9"/>
       <c r="V44" s="5"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W44" s="19"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>43</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="4"/>
       <c r="D45" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E45" s="8"/>
@@ -2577,15 +2776,16 @@
       <c r="T45" s="8"/>
       <c r="U45" s="9"/>
       <c r="V45" s="5"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W45" s="19"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>44</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="4"/>
       <c r="D46" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E46" s="8"/>
@@ -2606,15 +2806,16 @@
       <c r="T46" s="8"/>
       <c r="U46" s="9"/>
       <c r="V46" s="5"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W46" s="19"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="4"/>
       <c r="D47" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E47" s="8"/>
@@ -2635,15 +2836,16 @@
       <c r="T47" s="8"/>
       <c r="U47" s="9"/>
       <c r="V47" s="5"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W47" s="19"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>46</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="4"/>
       <c r="D48" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E48" s="8"/>
@@ -2664,15 +2866,16 @@
       <c r="T48" s="8"/>
       <c r="U48" s="9"/>
       <c r="V48" s="5"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W48" s="19"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>47</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="4"/>
       <c r="D49" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E49" s="8"/>
@@ -2693,15 +2896,16 @@
       <c r="T49" s="8"/>
       <c r="U49" s="9"/>
       <c r="V49" s="5"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W49" s="19"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>48</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="6"/>
       <c r="D50" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E50" s="13"/>
@@ -2722,6 +2926,7 @@
       <c r="T50" s="13"/>
       <c r="U50" s="10"/>
       <c r="V50" s="7"/>
+      <c r="W50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2754,7 +2959,7 @@
     <hyperlink ref="B17" r:id="rId15"/>
     <hyperlink ref="B18" r:id="rId16"/>
     <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId18" display="C11SEQ3"/>
     <hyperlink ref="B21" r:id="rId19"/>
     <hyperlink ref="B22" r:id="rId20"/>
     <hyperlink ref="B26" r:id="rId21"/>
@@ -2764,8 +2969,12 @@
     <hyperlink ref="B23" r:id="rId25"/>
     <hyperlink ref="B28" r:id="rId26"/>
     <hyperlink ref="B29" r:id="rId27" tooltip="MDIGITS2" display="http://vn.spoj.com/problems/MDIGITS2/"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId28"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -892,7 +892,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2354,10 +2354,14 @@
       </c>
       <c r="D32" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9">
+        <v>100</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="8">
         <v>3</v>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -889,10 +889,10 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,10 +1862,14 @@
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+        <v>4.2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9">
+        <v>100</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1905,7 +1909,6 @@
         <v>3.8</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
@@ -2108,10 +2111,14 @@
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+        <v>3.8</v>
+      </c>
+      <c r="E26" s="8">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9">
+        <v>100</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Practices" sheetId="1" r:id="rId1"/>
@@ -889,39 +889,39 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.21875" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.21875" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -965,7 +965,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="23"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1025,7 +1025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1246,7 +1246,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2293,8 +2293,12 @@
         <v>100</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9"/>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30" s="9">
+        <v>100</v>
+      </c>
       <c r="M30" s="5"/>
       <c r="N30" s="8"/>
       <c r="O30" s="9"/>
@@ -2307,7 +2311,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2349,7 +2353,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2361,7 +2365,7 @@
       </c>
       <c r="D32" s="12">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E32" s="8">
         <v>2</v>
@@ -2377,8 +2381,12 @@
         <v>100</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9"/>
+      <c r="K32" s="8">
+        <v>2</v>
+      </c>
+      <c r="L32" s="9">
+        <v>100</v>
+      </c>
       <c r="M32" s="5"/>
       <c r="N32" s="8"/>
       <c r="O32" s="9"/>
@@ -2391,7 +2399,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2429,7 +2437,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2459,7 +2467,7 @@
       <c r="V34" s="5"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2489,7 +2497,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2519,7 +2527,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="19"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2549,7 +2557,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="19"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2579,7 +2587,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2609,7 +2617,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2639,7 +2647,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2669,7 +2677,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2699,7 +2707,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="19"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2729,7 +2737,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="19"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2759,7 +2767,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="19"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2789,7 +2797,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="19"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2819,7 +2827,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="19"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2849,7 +2857,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2879,7 +2887,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="19"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2909,7 +2917,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="19"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>2 (3 for Java)</t>
+  </si>
+  <si>
+    <t>VOSHANDL</t>
+  </si>
+  <si>
+    <t>21218. VOSHANDL</t>
   </si>
 </sst>
 </file>
@@ -892,7 +898,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,8 +2447,12 @@
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="D34" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2992,8 +3002,9 @@
     <hyperlink ref="B31" r:id="rId29"/>
     <hyperlink ref="B32" r:id="rId30"/>
     <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>21218. VOSHANDL</t>
+  </si>
+  <si>
+    <t>TPCDLCS</t>
+  </si>
+  <si>
+    <t>21313. Distinct LCS</t>
   </si>
 </sst>
 </file>
@@ -264,7 +270,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -272,7 +278,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +286,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +298,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -517,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,6 +592,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,39 +904,39 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="12.75" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="12.75" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="12.75" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.25" customWidth="1"/>
+    <col min="21" max="21" width="11.125" customWidth="1"/>
+    <col min="22" max="22" width="12.75" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -971,7 +980,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="23"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1031,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1089,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1142,7 +1151,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1252,7 +1261,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1300,7 +1309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1342,7 +1351,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1392,7 +1401,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1446,7 +1455,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1544,7 +1553,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1648,7 +1657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1686,7 +1695,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1726,7 +1735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1768,7 +1777,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1789,8 +1798,12 @@
         <v>100</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>100</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
@@ -1814,7 +1827,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1831,8 +1844,12 @@
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9">
+        <v>100</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="8">
         <v>1</v>
@@ -1856,7 +1873,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1900,7 +1917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1943,7 +1960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1981,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2025,7 +2042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2065,7 +2082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2105,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2149,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2189,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2233,7 +2250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2275,7 +2292,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2317,7 +2334,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2359,7 +2376,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2371,7 +2388,7 @@
       </c>
       <c r="D32" s="12">
         <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="E32" s="8">
         <v>2</v>
@@ -2381,7 +2398,7 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" s="9">
         <v>100</v>
@@ -2405,7 +2422,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2443,7 +2460,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2477,21 +2494,29 @@
       <c r="V34" s="5"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="12" t="str">
+      <c r="B35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="12">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
+      <c r="H35" s="8">
+        <v>2</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
       <c r="J35" s="5"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
@@ -2507,7 +2532,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2537,7 +2562,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="19"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2567,7 +2592,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="19"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2597,7 +2622,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2627,7 +2652,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2657,7 +2682,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2687,7 +2712,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2717,7 +2742,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="19"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2747,7 +2772,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="19"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2777,7 +2802,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="19"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2807,7 +2832,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="19"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2837,7 +2862,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="19"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2867,7 +2892,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2897,7 +2922,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="19"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2927,7 +2952,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="19"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -3003,8 +3028,9 @@
     <hyperlink ref="B32" r:id="rId30"/>
     <hyperlink ref="B33" r:id="rId31"/>
     <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId33"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>21313. Distinct LCS</t>
+  </si>
+  <si>
+    <t>VMUNCH</t>
+  </si>
+  <si>
+    <t>2722. Gặm cỏ</t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -278,7 +284,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -286,7 +292,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -298,7 +304,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -594,7 +600,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -904,39 +910,39 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.75" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="12.75" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="12.75" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="16" width="12.75" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1"/>
-    <col min="19" max="19" width="12.75" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.25" customWidth="1"/>
-    <col min="21" max="21" width="11.125" customWidth="1"/>
-    <col min="22" max="22" width="12.75" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -980,7 +986,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="23"/>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1040,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1151,7 +1157,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1261,7 +1267,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1351,7 +1357,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1401,7 +1407,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1455,7 +1461,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1553,7 +1559,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1695,7 +1701,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1777,7 +1783,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1827,7 +1833,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1873,7 +1879,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2292,7 +2298,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2334,7 +2340,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2376,7 +2382,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2422,7 +2428,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2460,7 +2466,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2494,14 +2500,14 @@
       <c r="V34" s="5"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="16" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="12">
@@ -2532,15 +2538,19 @@
       <c r="V35" s="5"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="12" t="str">
+      <c r="B36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="12">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
@@ -2548,8 +2558,12 @@
       <c r="H36" s="8"/>
       <c r="I36" s="9"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="9"/>
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+      <c r="L36" s="9">
+        <v>100</v>
+      </c>
       <c r="M36" s="5"/>
       <c r="N36" s="8"/>
       <c r="O36" s="9"/>
@@ -2562,7 +2576,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="19"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2592,7 +2606,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="19"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2622,7 +2636,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2652,7 +2666,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2682,7 +2696,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2712,7 +2726,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2742,7 +2756,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="19"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2772,7 +2786,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="19"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2802,7 +2816,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="19"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2832,7 +2846,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="19"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2862,7 +2876,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="19"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2892,7 +2906,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2922,7 +2936,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="19"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2952,7 +2966,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="19"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -3029,8 +3043,9 @@
     <hyperlink ref="B33" r:id="rId31"/>
     <hyperlink ref="B34" r:id="rId32"/>
     <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId34"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>2722. Gặm cỏ</t>
+  </si>
+  <si>
+    <t>C11PINES</t>
+  </si>
+  <si>
+    <t>17383. Growing Pines</t>
+  </si>
+  <si>
+    <t>FWATER</t>
+  </si>
+  <si>
+    <t>3200. Tưới nước đồng cỏ</t>
   </si>
 </sst>
 </file>
@@ -276,7 +288,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +296,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +304,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +316,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -529,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +593,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,8 +614,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -913,84 +928,84 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="12.75" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="12.75" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="12.75" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.25" customWidth="1"/>
+    <col min="21" max="21" width="11.125" customWidth="1"/>
+    <col min="22" max="22" width="12.75" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="E1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="21" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="21" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="23"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="21"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="24"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1104,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1157,7 +1172,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1267,7 +1282,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1315,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1357,7 +1372,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1407,7 +1422,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1461,7 +1476,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1509,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1559,7 +1574,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1605,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1663,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1701,7 +1716,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1741,7 +1756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1783,7 +1798,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1833,7 +1848,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1879,7 +1894,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1923,7 +1938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1966,7 +1981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -2004,7 +2019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2048,7 +2063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2088,7 +2103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2128,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2140,7 +2155,7 @@
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E26" s="8">
         <v>3</v>
@@ -2149,8 +2164,12 @@
         <v>100</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
+      <c r="H26" s="8">
+        <v>2</v>
+      </c>
+      <c r="I26" s="9">
+        <v>100</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9"/>
@@ -2172,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2212,7 +2231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2256,7 +2275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2298,7 +2317,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2340,7 +2359,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2382,7 +2401,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2428,7 +2447,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2466,7 +2485,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2500,7 +2519,7 @@
       <c r="V34" s="5"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2538,25 +2557,29 @@
       <c r="V35" s="5"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D36" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="9"/>
+      <c r="H36" s="8">
+        <v>2</v>
+      </c>
+      <c r="I36" s="9">
+        <v>100</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="8">
         <v>1</v>
@@ -2576,21 +2599,29 @@
       <c r="V36" s="5"/>
       <c r="W36" s="19"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="12" t="str">
+      <c r="B37" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="12">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
+      <c r="H37" s="8">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9">
+        <v>100</v>
+      </c>
       <c r="J37" s="5"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9"/>
@@ -2606,21 +2637,29 @@
       <c r="V37" s="5"/>
       <c r="W37" s="19"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="12" t="str">
+      <c r="B38" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="12">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
+      <c r="H38" s="8">
+        <v>2</v>
+      </c>
+      <c r="I38" s="9">
+        <v>100</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9"/>
@@ -2636,21 +2675,29 @@
       <c r="V38" s="5"/>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="12" t="str">
+      <c r="B39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="12">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
+      <c r="I39" s="9">
+        <v>100</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9"/>
@@ -2666,7 +2713,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2696,7 +2743,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2726,7 +2773,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2756,7 +2803,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="19"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2786,7 +2833,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="19"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2816,7 +2863,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="19"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2846,7 +2893,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="19"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2876,7 +2923,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="19"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2906,7 +2953,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2936,7 +2983,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="19"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2966,7 +3013,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="19"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -3044,8 +3091,11 @@
     <hyperlink ref="B34" r:id="rId32"/>
     <hyperlink ref="B35" r:id="rId33"/>
     <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId35"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId38"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -288,7 +288,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -296,7 +296,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +304,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -316,7 +316,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -596,6 +596,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,9 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,87 +925,87 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.75" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="12.75" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="12.75" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="16" width="12.75" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1"/>
-    <col min="19" max="19" width="12.75" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.25" customWidth="1"/>
-    <col min="21" max="21" width="11.125" customWidth="1"/>
-    <col min="22" max="22" width="12.75" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="22" t="s">
+      <c r="E1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="22" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="22" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="22" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="24"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="22"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="25"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1827,7 +1827,9 @@
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="9">
+        <v>100</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="8">
         <v>1</v>
@@ -1848,7 +1850,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1894,7 +1896,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1981,7 +1983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2143,7 +2145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2172,7 +2174,9 @@
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
+      <c r="L26" s="9">
+        <v>100</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="8"/>
       <c r="O26" s="9"/>
@@ -2191,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2275,7 +2279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2317,7 +2321,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2359,7 +2363,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2401,7 +2405,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2447,7 +2451,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2485,7 +2489,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2519,7 +2523,7 @@
       <c r="V34" s="5"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2557,7 +2561,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2599,14 +2603,14 @@
       <c r="V36" s="5"/>
       <c r="W36" s="19"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="22" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="12">
@@ -2624,7 +2628,9 @@
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="9"/>
+      <c r="L37" s="9">
+        <v>100</v>
+      </c>
       <c r="M37" s="5"/>
       <c r="N37" s="8"/>
       <c r="O37" s="9"/>
@@ -2637,14 +2643,14 @@
       <c r="V37" s="5"/>
       <c r="W37" s="19"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="22" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="12">
@@ -2662,7 +2668,9 @@
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="9"/>
+      <c r="L38" s="9">
+        <v>70</v>
+      </c>
       <c r="M38" s="5"/>
       <c r="N38" s="8"/>
       <c r="O38" s="9"/>
@@ -2675,14 +2683,14 @@
       <c r="V38" s="5"/>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="12">
@@ -2700,7 +2708,9 @@
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="9"/>
+      <c r="L39" s="9">
+        <v>100</v>
+      </c>
       <c r="M39" s="5"/>
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
@@ -2713,7 +2723,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2743,7 +2753,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2773,7 +2783,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2803,7 +2813,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="19"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2833,7 +2843,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="19"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2863,7 +2873,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="19"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2893,7 +2903,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="19"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2923,7 +2933,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="19"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2953,7 +2963,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2983,7 +2993,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="19"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -3013,7 +3023,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="19"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -928,7 +928,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,7 +2308,9 @@
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9">
+        <v>100</v>
+      </c>
       <c r="M29" s="5"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9"/>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -288,7 +288,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -296,7 +296,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +304,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -316,7 +316,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -925,39 +925,39 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="12.75" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="12.75" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="12.75" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.25" customWidth="1"/>
+    <col min="21" max="21" width="11.125" customWidth="1"/>
+    <col min="22" max="22" width="12.75" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="U1" s="24"/>
       <c r="V1" s="25"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2453,7 +2453,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2501,15 +2501,19 @@
       <c r="C34" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="12" t="str">
+      <c r="D34" s="12">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
+      <c r="H34" s="8">
+        <v>2</v>
+      </c>
+      <c r="I34" s="9">
+        <v>100</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
@@ -2525,7 +2529,7 @@
       <c r="V34" s="5"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2563,7 +2567,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2605,7 +2609,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="19"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2645,7 +2649,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="19"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2685,7 +2689,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2725,7 +2729,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2755,7 +2759,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2785,7 +2789,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2815,7 +2819,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="19"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2845,7 +2849,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="19"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2875,7 +2879,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="19"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2905,7 +2909,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="19"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2935,7 +2939,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="19"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2965,7 +2969,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2995,7 +2999,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="19"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -3025,7 +3029,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="19"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>48</v>
       </c>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -288,7 +288,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -296,7 +296,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +304,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -316,7 +316,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -928,36 +928,36 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.75" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="12.75" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="12.75" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="16" width="12.75" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1"/>
-    <col min="19" max="19" width="12.75" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.25" customWidth="1"/>
-    <col min="21" max="21" width="11.125" customWidth="1"/>
-    <col min="22" max="22" width="12.75" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="U1" s="24"/>
       <c r="V1" s="25"/>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2453,7 +2453,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="V34" s="5"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="19"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2649,7 +2649,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="19"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2675,7 +2675,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="8"/>
@@ -2689,7 +2689,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2819,7 +2819,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="19"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="19"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="19"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="19"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="19"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2969,7 +2969,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="19"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="19"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -541,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,12 +592,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,7 +672,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,7 +707,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,10 +919,10 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,54 +952,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="23" t="s">
+      <c r="E1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="23" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="23" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="23" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1130,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:D29" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
+        <f t="shared" ref="D4:D50" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E4" s="19">
@@ -2308,9 +2302,7 @@
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="9">
-        <v>100</v>
-      </c>
+      <c r="L29" s="9"/>
       <c r="M29" s="5"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9"/>
@@ -2330,11 +2322,11 @@
       <c r="B30" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" ref="D30:D50" si="1">IFERROR(ROUND( SUM(E30,H30,K30,N30,Q30,T30)/COUNT(E30,H30,K30,N30,Q30,T30),1),"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E30" s="8"/>
@@ -2372,11 +2364,11 @@
       <c r="B31" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -2414,11 +2406,11 @@
       <c r="B32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E32" s="8">
@@ -2460,11 +2452,11 @@
       <c r="B33" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E33" s="8"/>
@@ -2498,12 +2490,12 @@
       <c r="B34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D34" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
@@ -2523,7 +2515,9 @@
       <c r="T34" s="8"/>
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="19"/>
+      <c r="W34" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
@@ -2532,11 +2526,11 @@
       <c r="B35" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E35" s="8"/>
@@ -2570,11 +2564,11 @@
       <c r="B36" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E36" s="8"/>
@@ -2612,11 +2606,11 @@
       <c r="B37" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E37" s="8"/>
@@ -2652,11 +2646,11 @@
       <c r="B38" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E38" s="8"/>
@@ -2692,11 +2686,11 @@
       <c r="B39" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E39" s="8"/>
@@ -2732,7 +2726,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="4"/>
       <c r="D40" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E40" s="8"/>
@@ -2762,7 +2756,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="4"/>
       <c r="D41" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E41" s="8"/>
@@ -2792,7 +2786,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="4"/>
       <c r="D42" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E42" s="8"/>
@@ -2822,7 +2816,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="4"/>
       <c r="D43" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E43" s="8"/>
@@ -2852,7 +2846,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
       <c r="D44" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E44" s="8"/>
@@ -2882,7 +2876,7 @@
       <c r="B45" s="9"/>
       <c r="C45" s="4"/>
       <c r="D45" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E45" s="8"/>
@@ -2912,7 +2906,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="4"/>
       <c r="D46" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E46" s="8"/>
@@ -2942,7 +2936,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="4"/>
       <c r="D47" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E47" s="8"/>
@@ -2972,7 +2966,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="4"/>
       <c r="D48" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E48" s="8"/>
@@ -3002,7 +2996,7 @@
       <c r="B49" s="9"/>
       <c r="C49" s="4"/>
       <c r="D49" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E49" s="8"/>
@@ -3032,7 +3026,7 @@
       <c r="B50" s="10"/>
       <c r="C50" s="6"/>
       <c r="D50" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E50" s="13"/>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>3200. Tưới nước đồng cỏ</t>
+  </si>
+  <si>
+    <t>VSTEPS</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>VMRR</t>
+  </si>
+  <si>
+    <t>15051. RR</t>
   </si>
 </sst>
 </file>
@@ -672,7 +684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,7 +719,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,10 +931,10 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,7 +2314,9 @@
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9">
+        <v>100</v>
+      </c>
       <c r="M29" s="5"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9"/>
@@ -2723,11 +2737,15 @@
       <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
@@ -2735,8 +2753,12 @@
       <c r="H40" s="8"/>
       <c r="I40" s="9"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="9"/>
+      <c r="K40" s="8">
+        <v>2</v>
+      </c>
+      <c r="L40" s="9">
+        <v>100</v>
+      </c>
       <c r="M40" s="5"/>
       <c r="N40" s="8"/>
       <c r="O40" s="9"/>
@@ -2753,11 +2775,15 @@
       <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B41" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
@@ -2765,8 +2791,12 @@
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="9"/>
+      <c r="K41" s="8">
+        <v>2</v>
+      </c>
+      <c r="L41" s="9">
+        <v>100</v>
+      </c>
       <c r="M41" s="5"/>
       <c r="N41" s="8"/>
       <c r="O41" s="9"/>
@@ -3100,8 +3130,10 @@
     <hyperlink ref="B37" r:id="rId35"/>
     <hyperlink ref="B38" r:id="rId36"/>
     <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId38"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId40"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -283,13 +283,55 @@
     <t>VSTEPS</t>
   </si>
   <si>
-    <t>Steps</t>
-  </si>
-  <si>
     <t>VMRR</t>
   </si>
   <si>
     <t>15051. RR</t>
+  </si>
+  <si>
+    <t>NOIXICH</t>
+  </si>
+  <si>
+    <t>2779. Nối Xích</t>
+  </si>
+  <si>
+    <t>NKDIVSEQ</t>
+  </si>
+  <si>
+    <t>3630. Dãy chia hết</t>
+  </si>
+  <si>
+    <t>FIRS</t>
+  </si>
+  <si>
+    <t>4614. Hàng cây</t>
+  </si>
+  <si>
+    <t>COUNTCBG</t>
+  </si>
+  <si>
+    <t>3778. COUNT N</t>
+  </si>
+  <si>
+    <t>BINTREE</t>
+  </si>
+  <si>
+    <t>10068. Duyệt cây nhị phân</t>
+  </si>
+  <si>
+    <t>BILL</t>
+  </si>
+  <si>
+    <t>13099. Hóa đơn tiền điện</t>
+  </si>
+  <si>
+    <t>AUCTION</t>
+  </si>
+  <si>
+    <t>3337. Going Once, Going Twice, Gone!</t>
+  </si>
+  <si>
+    <t>2795. Steps</t>
   </si>
 </sst>
 </file>
@@ -347,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -548,12 +590,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,6 +704,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -931,10 +1023,10 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2255,7 @@
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="E26" s="8">
         <v>3</v>
@@ -2179,7 +2271,9 @@
         <v>100</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="8"/>
+      <c r="K26" s="8">
+        <v>2</v>
+      </c>
       <c r="L26" s="9">
         <v>100</v>
       </c>
@@ -2313,7 +2407,9 @@
         <v>100</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="8"/>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
       <c r="L29" s="9">
         <v>100</v>
       </c>
@@ -2637,7 +2733,9 @@
         <v>100</v>
       </c>
       <c r="J37" s="5"/>
-      <c r="K37" s="8"/>
+      <c r="K37" s="8">
+        <v>1</v>
+      </c>
       <c r="L37" s="9">
         <v>100</v>
       </c>
@@ -2677,9 +2775,11 @@
         <v>100</v>
       </c>
       <c r="J38" s="5"/>
-      <c r="K38" s="8"/>
+      <c r="K38" s="8">
+        <v>2</v>
+      </c>
       <c r="L38" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="8"/>
@@ -2717,7 +2817,9 @@
         <v>100</v>
       </c>
       <c r="J39" s="5"/>
-      <c r="K39" s="8"/>
+      <c r="K39" s="8">
+        <v>1</v>
+      </c>
       <c r="L39" s="9">
         <v>100</v>
       </c>
@@ -2741,7 +2843,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D40" s="12">
         <f t="shared" si="0"/>
@@ -2776,10 +2878,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D41" s="12">
         <f t="shared" si="0"/>
@@ -2813,11 +2915,15 @@
       <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
@@ -2825,8 +2931,12 @@
       <c r="H42" s="8"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="9"/>
+      <c r="K42" s="8">
+        <v>2</v>
+      </c>
+      <c r="L42" s="9">
+        <v>100</v>
+      </c>
       <c r="M42" s="5"/>
       <c r="N42" s="8"/>
       <c r="O42" s="9"/>
@@ -2843,11 +2953,15 @@
       <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B43" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
@@ -2855,8 +2969,12 @@
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9"/>
+      <c r="K43" s="8">
+        <v>1</v>
+      </c>
+      <c r="L43" s="9">
+        <v>100</v>
+      </c>
       <c r="M43" s="5"/>
       <c r="N43" s="8"/>
       <c r="O43" s="9"/>
@@ -2873,11 +2991,15 @@
       <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B44" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
@@ -2885,8 +3007,12 @@
       <c r="H44" s="8"/>
       <c r="I44" s="9"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9"/>
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+      <c r="L44" s="9">
+        <v>100</v>
+      </c>
       <c r="M44" s="5"/>
       <c r="N44" s="8"/>
       <c r="O44" s="9"/>
@@ -2903,11 +3029,15 @@
       <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B45" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
@@ -2915,8 +3045,12 @@
       <c r="H45" s="8"/>
       <c r="I45" s="9"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9"/>
+      <c r="K45" s="8">
+        <v>2</v>
+      </c>
+      <c r="L45" s="9">
+        <v>100</v>
+      </c>
       <c r="M45" s="5"/>
       <c r="N45" s="8"/>
       <c r="O45" s="9"/>
@@ -2933,11 +3067,15 @@
       <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B46" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
@@ -2945,8 +3083,12 @@
       <c r="H46" s="8"/>
       <c r="I46" s="9"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9"/>
+      <c r="K46" s="8">
+        <v>2</v>
+      </c>
+      <c r="L46" s="9">
+        <v>88</v>
+      </c>
       <c r="M46" s="5"/>
       <c r="N46" s="8"/>
       <c r="O46" s="9"/>
@@ -2963,11 +3105,15 @@
       <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B47" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
@@ -2975,8 +3121,12 @@
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9"/>
+      <c r="K47" s="8">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9">
+        <v>100</v>
+      </c>
       <c r="M47" s="5"/>
       <c r="N47" s="8"/>
       <c r="O47" s="9"/>
@@ -2993,11 +3143,15 @@
       <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
@@ -3005,8 +3159,12 @@
       <c r="H48" s="8"/>
       <c r="I48" s="9"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9"/>
+      <c r="K48" s="8">
+        <v>1</v>
+      </c>
+      <c r="L48" s="9">
+        <v>100</v>
+      </c>
       <c r="M48" s="5"/>
       <c r="N48" s="8"/>
       <c r="O48" s="9"/>
@@ -3023,30 +3181,27 @@
       <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="5"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="31"/>
       <c r="W49" s="19"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -3132,8 +3287,15 @@
     <hyperlink ref="B39" r:id="rId37"/>
     <hyperlink ref="B40" r:id="rId38"/>
     <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B48" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId40"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId47"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
   <si>
     <t>No</t>
   </si>
@@ -332,6 +332,18 @@
   </si>
   <si>
     <t>2795. Steps</t>
+  </si>
+  <si>
+    <t>KDIFF</t>
+  </si>
+  <si>
+    <t>9412. Trồng hoa</t>
+  </si>
+  <si>
+    <t>CHATCHIT</t>
+  </si>
+  <si>
+    <t>2604. Chat chit</t>
   </si>
 </sst>
 </file>
@@ -342,7 +354,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -350,7 +362,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -358,7 +370,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -370,7 +382,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -634,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,7 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,6 +697,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,17 +725,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1023,87 +1033,87 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="12.75" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="12.75" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="12.75" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.25" customWidth="1"/>
+    <col min="21" max="21" width="11.125" customWidth="1"/>
+    <col min="22" max="22" width="12.75" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="E1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="21" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="21" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="23"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="21"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="26"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1159,2080 +1169,2112 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>IFERROR(ROUND( SUM(E3,H3,K3,N3,Q3,T3, W3, W3, W3)/COUNT(E3,H3,K3,N3,Q3,T3, W3, W3, W3),1),"")</f>
         <v>1.5</v>
       </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
         <v>100</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8">
-        <v>2</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8">
         <v>100</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="8">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
         <v>85</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="8">
-        <v>3</v>
-      </c>
-      <c r="O3" s="14">
+      <c r="N3" s="7">
+        <v>3</v>
+      </c>
+      <c r="O3" s="13">
         <v>85</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="8">
-        <v>2</v>
-      </c>
-      <c r="R3" s="9">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="7">
+        <v>2</v>
+      </c>
+      <c r="R3" s="8">
         <v>100</v>
       </c>
       <c r="S3" s="5"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="9"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="W3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f t="shared" ref="D4:D50" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>100</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>100</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8">
         <v>100</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="12">
-        <v>2</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="K4" s="11">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7">
         <v>100</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="20">
-        <v>3</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="N4" s="19">
+        <v>3</v>
+      </c>
+      <c r="O4" s="8">
         <v>100</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="8">
-        <v>3</v>
-      </c>
-      <c r="R4" s="9">
+      <c r="Q4" s="7">
+        <v>3</v>
+      </c>
+      <c r="R4" s="8">
         <v>100</v>
       </c>
       <c r="S4" s="5"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="9"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E5" s="8">
-        <v>3</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
         <v>80</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="8">
-        <v>3</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8">
         <v>100</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="8">
-        <v>3</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="K5" s="7">
+        <v>3</v>
+      </c>
+      <c r="L5" s="8">
         <v>90</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="8">
-        <v>3</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="N5" s="7">
+        <v>3</v>
+      </c>
+      <c r="O5" s="8">
         <v>10</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="8">
-        <v>3</v>
-      </c>
-      <c r="R5" s="9">
+      <c r="Q5" s="7">
+        <v>3</v>
+      </c>
+      <c r="R5" s="8">
         <v>10</v>
       </c>
       <c r="S5" s="5"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="W5" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
         <v>100</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="8">
-        <v>2</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8">
         <v>100</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="8">
-        <v>2</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8">
         <v>100</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="8">
-        <v>2</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="N6" s="7">
+        <v>2</v>
+      </c>
+      <c r="O6" s="8">
         <v>80</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="8">
-        <v>2</v>
-      </c>
-      <c r="R6" s="9">
+      <c r="Q6" s="7">
+        <v>2</v>
+      </c>
+      <c r="R6" s="8">
         <v>100</v>
       </c>
       <c r="S6" s="5"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="8"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E7" s="8">
-        <v>3</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8">
         <v>100</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="8">
-        <v>3</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="8">
         <v>46.15</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="8">
-        <v>3</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="K7" s="7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="8">
         <v>92.31</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="8"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="W7" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8">
         <v>100</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="8">
-        <v>2</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="8">
         <v>100</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="9"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="9"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="8"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="19"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="W8" s="18"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
         <v>100</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="8">
-        <v>2</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="8">
         <v>100</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="8">
-        <v>2</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
         <v>100</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="8">
-        <v>3</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="N9" s="7">
+        <v>3</v>
+      </c>
+      <c r="O9" s="8">
         <v>100</v>
       </c>
       <c r="P9" s="5"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="9"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="8"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="19"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
         <v>100</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="8">
-        <v>2</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8">
         <v>100</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="8">
-        <v>3</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="K10" s="7">
+        <v>3</v>
+      </c>
+      <c r="L10" s="8">
         <v>100</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="8">
-        <v>3</v>
-      </c>
-      <c r="R10" s="9">
+      <c r="Q10" s="7">
+        <v>3</v>
+      </c>
+      <c r="R10" s="8">
         <v>0</v>
       </c>
       <c r="S10" s="5"/>
-      <c r="T10" s="8">
-        <v>3</v>
-      </c>
-      <c r="U10" s="9">
+      <c r="T10" s="7">
+        <v>3</v>
+      </c>
+      <c r="U10" s="8">
         <v>100</v>
       </c>
       <c r="V10" s="5"/>
-      <c r="W10" s="19"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="E11" s="8">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
         <v>60</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="8">
-        <v>3</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
+      <c r="L11" s="8">
         <v>100</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <v>4</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <v>20</v>
       </c>
       <c r="S11" s="5"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="9"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="19">
+      <c r="W11" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="8">
-        <v>3</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
         <v>100</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="8">
-        <v>2</v>
-      </c>
-      <c r="L12" s="9">
+      <c r="K12" s="7">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8">
         <v>100</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="8">
-        <v>2</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="N12" s="7">
+        <v>2</v>
+      </c>
+      <c r="O12" s="8">
         <v>100</v>
       </c>
       <c r="P12" s="5"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="9"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="8">
-        <v>2</v>
-      </c>
-      <c r="U12" s="9">
+      <c r="T12" s="7">
+        <v>2</v>
+      </c>
+      <c r="U12" s="8">
         <v>100</v>
       </c>
       <c r="V12" s="5"/>
-      <c r="W12" s="19"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="W12" s="18"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="8">
-        <v>2</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="8">
         <v>100</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="8">
-        <v>2</v>
-      </c>
-      <c r="L13" s="9">
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="8">
         <v>100</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="9"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="8"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="9"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="8"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="W13" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2</v>
-      </c>
-      <c r="F14" s="9"/>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="8">
-        <v>2</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8">
         <v>100</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="8">
-        <v>2</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="K14" s="7">
+        <v>2</v>
+      </c>
+      <c r="L14" s="8">
         <v>100</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="8">
-        <v>2</v>
-      </c>
-      <c r="O14" s="9">
+      <c r="N14" s="7">
+        <v>2</v>
+      </c>
+      <c r="O14" s="8">
         <v>100</v>
       </c>
       <c r="P14" s="5"/>
-      <c r="Q14" s="8">
-        <v>2</v>
-      </c>
-      <c r="R14" s="9">
+      <c r="Q14" s="7">
+        <v>2</v>
+      </c>
+      <c r="R14" s="8">
         <v>100</v>
       </c>
       <c r="S14" s="5"/>
-      <c r="T14" s="8">
-        <v>2</v>
-      </c>
-      <c r="U14" s="9">
+      <c r="T14" s="7">
+        <v>2</v>
+      </c>
+      <c r="U14" s="8">
         <v>100</v>
       </c>
       <c r="V14" s="5"/>
-      <c r="W14" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="W14" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>4</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>100</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="8"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="9"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="19"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="W15" s="18"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="8">
-        <v>3</v>
-      </c>
-      <c r="L16" s="9">
+      <c r="K16" s="7">
+        <v>3</v>
+      </c>
+      <c r="L16" s="8">
         <v>10</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="9"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="9"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="8"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="19">
+      <c r="W16" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="8">
-        <v>2</v>
-      </c>
-      <c r="O17" s="9">
+      <c r="N17" s="7">
+        <v>2</v>
+      </c>
+      <c r="O17" s="8">
         <v>100</v>
       </c>
       <c r="P17" s="5"/>
-      <c r="Q17" s="8">
-        <v>2</v>
-      </c>
-      <c r="R17" s="9">
+      <c r="Q17" s="7">
+        <v>2</v>
+      </c>
+      <c r="R17" s="8">
         <v>100</v>
       </c>
       <c r="S17" s="5"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="8"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="19"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="W17" s="18"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
         <v>100</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
         <v>100</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9">
+      <c r="K18" s="7"/>
+      <c r="L18" s="8">
         <v>100</v>
       </c>
       <c r="M18" s="5"/>
-      <c r="N18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="9">
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8">
         <v>100</v>
       </c>
       <c r="P18" s="5"/>
-      <c r="Q18" s="8">
-        <v>1</v>
-      </c>
-      <c r="R18" s="9">
+      <c r="Q18" s="7">
+        <v>1</v>
+      </c>
+      <c r="R18" s="8">
         <v>100</v>
       </c>
       <c r="S18" s="5"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="9"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="8"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="19"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
         <v>100</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="8">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9">
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8">
         <v>100</v>
       </c>
       <c r="M19" s="5"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="8">
-        <v>1</v>
-      </c>
-      <c r="R19" s="9">
+      <c r="Q19" s="7">
+        <v>1</v>
+      </c>
+      <c r="R19" s="8">
         <v>100</v>
       </c>
       <c r="S19" s="5"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="9"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="8"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="19"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="W19" s="18"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="E20" s="8">
-        <v>3</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="7">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8">
         <v>100</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="8">
-        <v>3</v>
-      </c>
-      <c r="R20" s="9">
+      <c r="Q20" s="7">
+        <v>3</v>
+      </c>
+      <c r="R20" s="8">
         <v>10</v>
       </c>
       <c r="S20" s="5"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="9"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="8"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="19">
+      <c r="W20" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="7"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="8">
-        <v>3</v>
-      </c>
-      <c r="R21" s="9">
+      <c r="Q21" s="7">
+        <v>3</v>
+      </c>
+      <c r="R21" s="8">
         <v>50</v>
       </c>
       <c r="S21" s="5"/>
-      <c r="T21" s="8">
+      <c r="T21" s="7">
         <v>4</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="8">
         <v>20</v>
       </c>
       <c r="V21" s="5"/>
-      <c r="W21" s="19">
+      <c r="W21" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="9"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="8"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="8">
+      <c r="T22" s="7">
         <v>4</v>
       </c>
-      <c r="U22" s="9"/>
+      <c r="U22" s="8"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="19">
+      <c r="W22" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
         <v>50</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="9"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="8"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="8">
-        <v>3</v>
-      </c>
-      <c r="U23" s="9">
+      <c r="T23" s="7">
+        <v>3</v>
+      </c>
+      <c r="U23" s="8">
         <v>50</v>
       </c>
       <c r="V23" s="5"/>
-      <c r="W23" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="W23" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="8"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="9"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="8">
+      <c r="T24" s="7">
         <v>5</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="8">
         <v>70</v>
       </c>
       <c r="V24" s="5"/>
-      <c r="W24" s="19">
+      <c r="W24" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="8"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="9"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="8"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="8">
+      <c r="T25" s="7">
         <v>4</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="8">
         <v>30</v>
       </c>
       <c r="V25" s="5"/>
-      <c r="W25" s="19">
+      <c r="W25" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="E26" s="8">
-        <v>3</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8">
         <v>100</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="8">
-        <v>2</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="8">
         <v>100</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="8">
-        <v>2</v>
-      </c>
-      <c r="L26" s="9">
+      <c r="K26" s="7">
+        <v>2</v>
+      </c>
+      <c r="L26" s="8">
         <v>100</v>
       </c>
       <c r="M26" s="5"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="8"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="9"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="8"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="8">
+      <c r="T26" s="7">
         <v>4</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="8">
         <v>14.29</v>
       </c>
       <c r="V26" s="5"/>
-      <c r="W26" s="19">
+      <c r="W26" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="8"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="9"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="8"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="8">
+      <c r="T27" s="7">
         <v>5</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="8">
         <v>10</v>
       </c>
       <c r="V27" s="5"/>
-      <c r="W27" s="19">
+      <c r="W27" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E28" s="8">
-        <v>2</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="E28" s="7">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8">
         <v>100</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="8">
-        <v>3</v>
-      </c>
-      <c r="I28" s="9">
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="8">
         <v>0</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="9"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="8"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="9"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="8"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="W28" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
         <v>100</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
         <v>100</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="8">
-        <v>1</v>
-      </c>
-      <c r="L29" s="9">
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
         <v>100</v>
       </c>
       <c r="M29" s="5"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="9"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="9"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="8"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="9"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="8"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="19"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="W29" s="18"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
         <v>100</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="8">
-        <v>1</v>
-      </c>
-      <c r="L30" s="9">
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
         <v>100</v>
       </c>
       <c r="M30" s="5"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="9"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="8"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="9"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="8"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="19"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="W30" s="18"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>100</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="8">
-        <v>2</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="8">
         <v>90</v>
       </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="8"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="9"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="8"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="9"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="8"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="19"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="W31" s="18"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E32" s="8">
-        <v>2</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8">
         <v>100</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="8">
-        <v>2</v>
-      </c>
-      <c r="I32" s="9">
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="8">
         <v>100</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="8">
-        <v>2</v>
-      </c>
-      <c r="L32" s="9">
+      <c r="K32" s="7">
+        <v>2</v>
+      </c>
+      <c r="L32" s="8">
         <v>100</v>
       </c>
       <c r="M32" s="5"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="8"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="9"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="8"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="9"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="8"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="19"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="W32" s="18"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8">
         <v>100</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="8"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="9"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="8"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="9"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="8"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="19"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="W33" s="18"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="D34" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="9"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="9"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="8"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="9"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="8"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="9"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="8"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="W34" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="D35" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="8">
-        <v>2</v>
-      </c>
-      <c r="I35" s="9">
+      <c r="H35" s="7">
+        <v>2</v>
+      </c>
+      <c r="I35" s="8">
         <v>0</v>
       </c>
       <c r="J35" s="5"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="9"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="9"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="8"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="9"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="8"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="9"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="8"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="19"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="W35" s="18"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="8">
-        <v>2</v>
-      </c>
-      <c r="I36" s="9">
+      <c r="H36" s="7">
+        <v>2</v>
+      </c>
+      <c r="I36" s="8">
         <v>100</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="K36" s="8">
-        <v>1</v>
-      </c>
-      <c r="L36" s="9">
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8">
         <v>100</v>
       </c>
       <c r="M36" s="5"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="8"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="9"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="8"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="9"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="8"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="19"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="W36" s="18"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="D37" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="8">
-        <v>1</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8">
         <v>100</v>
       </c>
       <c r="J37" s="5"/>
-      <c r="K37" s="8">
-        <v>1</v>
-      </c>
-      <c r="L37" s="9">
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="8">
         <v>100</v>
       </c>
       <c r="M37" s="5"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="9"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="8"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="9"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="8"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="9"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="8"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="19"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="W37" s="18"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="D38" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="8">
-        <v>2</v>
-      </c>
-      <c r="I38" s="9">
+      <c r="H38" s="7">
+        <v>2</v>
+      </c>
+      <c r="I38" s="8">
         <v>100</v>
       </c>
       <c r="J38" s="5"/>
-      <c r="K38" s="8">
-        <v>2</v>
-      </c>
-      <c r="L38" s="9">
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="8">
         <v>100</v>
       </c>
       <c r="M38" s="5"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="8"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="9"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="8"/>
       <c r="S38" s="5"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="9"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="8"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="19"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="D39" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
-      <c r="I39" s="9">
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
         <v>100</v>
       </c>
       <c r="J39" s="5"/>
-      <c r="K39" s="8">
-        <v>1</v>
-      </c>
-      <c r="L39" s="9">
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="8">
         <v>100</v>
       </c>
       <c r="M39" s="5"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="9"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="8"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="9"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="8"/>
       <c r="S39" s="5"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="9"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="8"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="19"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="W39" s="18"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+      <c r="D40" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="9"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="8">
-        <v>2</v>
-      </c>
-      <c r="L40" s="9">
+      <c r="K40" s="7">
+        <v>2</v>
+      </c>
+      <c r="L40" s="8">
         <v>100</v>
       </c>
       <c r="M40" s="5"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="9"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="8"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="9"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="8"/>
       <c r="S40" s="5"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="9"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="8"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="19"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="W40" s="18"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
+      <c r="D41" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
+      <c r="H41" s="7">
+        <v>2</v>
+      </c>
+      <c r="I41" s="8">
+        <v>100</v>
+      </c>
       <c r="J41" s="5"/>
-      <c r="K41" s="8">
-        <v>2</v>
-      </c>
-      <c r="L41" s="9">
+      <c r="K41" s="7">
+        <v>2</v>
+      </c>
+      <c r="L41" s="8">
         <v>100</v>
       </c>
       <c r="M41" s="5"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="9"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="8"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="9"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="8"/>
       <c r="S41" s="5"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="9"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="8"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="19"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="W41" s="18"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
+      <c r="D42" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
+      <c r="H42" s="7">
+        <v>2</v>
+      </c>
+      <c r="I42" s="8">
+        <v>100</v>
+      </c>
       <c r="J42" s="5"/>
-      <c r="K42" s="8">
-        <v>2</v>
-      </c>
-      <c r="L42" s="9">
+      <c r="K42" s="7">
+        <v>2</v>
+      </c>
+      <c r="L42" s="8">
         <v>100</v>
       </c>
       <c r="M42" s="5"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="9"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="8"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="9"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="8"/>
       <c r="S42" s="5"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="9"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="8"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="19"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
+      <c r="D43" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="8">
-        <v>1</v>
-      </c>
-      <c r="L43" s="9">
+      <c r="K43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8">
         <v>100</v>
       </c>
       <c r="M43" s="5"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="9"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="8"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="9"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="8"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="9"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="8"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="19"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
+      <c r="D44" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="8">
+        <v>100</v>
+      </c>
       <c r="J44" s="5"/>
-      <c r="K44" s="8">
-        <v>1</v>
-      </c>
-      <c r="L44" s="9">
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8">
         <v>100</v>
       </c>
       <c r="M44" s="5"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="9"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="8"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="9"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="8"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="9"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="8"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="19"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="W44" s="18"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
+      <c r="D45" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="8">
-        <v>2</v>
-      </c>
-      <c r="L45" s="9">
+      <c r="K45" s="7">
+        <v>2</v>
+      </c>
+      <c r="L45" s="8">
         <v>100</v>
       </c>
       <c r="M45" s="5"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="9"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="8"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="9"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="8"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="9"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="8"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="19"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="W45" s="18"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
+      <c r="D46" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
+      <c r="H46" s="7">
+        <v>2</v>
+      </c>
+      <c r="I46" s="8">
+        <v>88</v>
+      </c>
       <c r="J46" s="5"/>
-      <c r="K46" s="8">
-        <v>2</v>
-      </c>
-      <c r="L46" s="9">
+      <c r="K46" s="7">
+        <v>2</v>
+      </c>
+      <c r="L46" s="8">
         <v>88</v>
       </c>
       <c r="M46" s="5"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="9"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="8"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="9"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="8"/>
       <c r="S46" s="5"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="9"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="8"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="19"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="W46" s="18"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
         <v>45</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
+      <c r="D47" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="9"/>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+      <c r="I47" s="8">
+        <v>100</v>
+      </c>
       <c r="J47" s="5"/>
-      <c r="K47" s="8">
-        <v>1</v>
-      </c>
-      <c r="L47" s="9">
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8">
         <v>100</v>
       </c>
       <c r="M47" s="5"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="9"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="8"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="9"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="8"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="9"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="8"/>
       <c r="V47" s="5"/>
-      <c r="W47" s="19"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="W47" s="18"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
+      <c r="D48" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+      <c r="I48" s="8">
+        <v>100</v>
+      </c>
       <c r="J48" s="5"/>
-      <c r="K48" s="8">
-        <v>1</v>
-      </c>
-      <c r="L48" s="9">
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8">
         <v>100</v>
       </c>
       <c r="M48" s="5"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="9"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="8"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="9"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="8"/>
       <c r="S48" s="5"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="9"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="8"/>
       <c r="V48" s="5"/>
-      <c r="W48" s="19"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="W48" s="18"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
         <v>47</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="19"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="B49" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="18"/>
+    </row>
+    <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="12" t="str">
+      <c r="B50" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="19"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3294,8 +3336,10 @@
     <hyperlink ref="B46" r:id="rId44"/>
     <hyperlink ref="B47" r:id="rId45"/>
     <hyperlink ref="B48" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B50" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId47"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId49"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -338,12 +338,6 @@
   </si>
   <si>
     <t>9412. Trồng hoa</t>
-  </si>
-  <si>
-    <t>CHATCHIT</t>
-  </si>
-  <si>
-    <t>2604. Chat chit</t>
   </si>
 </sst>
 </file>
@@ -354,7 +348,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -362,7 +356,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -370,7 +364,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,7 +376,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1030,42 +1024,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.75" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="12.75" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="12.75" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="16" width="12.75" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1"/>
-    <col min="19" max="19" width="12.75" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.25" customWidth="1"/>
-    <col min="21" max="21" width="11.125" customWidth="1"/>
-    <col min="22" max="22" width="12.75" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1103,7 @@
       <c r="U1" s="25"/>
       <c r="V1" s="26"/>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1169,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1227,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1238,7 +1232,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="11">
-        <f t="shared" ref="D4:D50" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
+        <f t="shared" ref="D4:D62" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E4" s="18">
@@ -1280,7 +1274,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1336,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1390,7 +1384,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="18"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1438,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1480,7 +1474,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1530,7 +1524,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1584,7 +1578,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1632,7 +1626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1682,7 +1676,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="18"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1728,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1786,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1824,7 +1818,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="18"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1864,7 +1858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -1906,7 +1900,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="18"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -1958,7 +1952,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="18"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -2004,7 +1998,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="18"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -2048,7 +2042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -2091,7 +2085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2129,7 +2123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -2173,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2213,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -2253,7 +2247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -2305,7 +2299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -2345,7 +2339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -2389,7 +2383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -2435,7 +2429,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="18"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -2477,7 +2471,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="18"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -2519,7 +2513,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="18"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -2565,7 +2559,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="18"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -2603,7 +2597,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="18"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -2639,7 +2633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -2677,7 +2671,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="18"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -2719,7 +2713,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="18"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -2761,7 +2755,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="18"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -2803,7 +2797,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="18"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -2845,7 +2839,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="18"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -2883,7 +2877,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="18"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -2925,7 +2919,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="18"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -2967,7 +2961,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="18"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -3005,7 +2999,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="18"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -3047,7 +3041,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="18"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -3085,7 +3079,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="18"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -3127,7 +3121,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="18"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -3169,7 +3163,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="18"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -3211,7 +3205,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="18"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -3242,39 +3236,359 @@
       <c r="V49" s="22"/>
       <c r="W49" s="18"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="11" t="str">
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="18"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="18"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="18"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="18"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="18"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="18"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="18"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="18"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="18"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="18"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="18"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="18"/>
+    </row>
+    <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="18"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3337,9 +3651,8 @@
     <hyperlink ref="B47" r:id="rId45"/>
     <hyperlink ref="B48" r:id="rId46"/>
     <hyperlink ref="B49" r:id="rId47"/>
-    <hyperlink ref="B50" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId49"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId48"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="113">
   <si>
     <t>No</t>
   </si>
@@ -338,6 +338,24 @@
   </si>
   <si>
     <t>9412. Trồng hoa</t>
+  </si>
+  <si>
+    <t>KPLANK</t>
+  </si>
+  <si>
+    <t>9074. Bán dừa</t>
+  </si>
+  <si>
+    <t>C11ID</t>
+  </si>
+  <si>
+    <t>12819. Mã số</t>
+  </si>
+  <si>
+    <t>CHATCHIT</t>
+  </si>
+  <si>
+    <t>2604. Chat chit</t>
   </si>
 </sst>
 </file>
@@ -348,7 +366,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -356,7 +374,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -364,7 +382,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -376,7 +394,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1027,39 +1045,39 @@
   <dimension ref="A1:W62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="12.75" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="12.75" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="12.75" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.25" customWidth="1"/>
+    <col min="21" max="21" width="11.125" customWidth="1"/>
+    <col min="22" max="22" width="12.75" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1121,7 @@
       <c r="U1" s="25"/>
       <c r="V1" s="26"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1163,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1221,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1274,7 +1292,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1330,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1384,7 +1402,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="18"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1432,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1474,7 +1492,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1524,7 +1542,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1578,7 +1596,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1626,7 +1644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1676,7 +1694,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="18"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1780,7 +1798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1818,7 +1836,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="18"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1858,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -1900,7 +1918,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="18"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -1952,7 +1970,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="18"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -1998,7 +2016,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="18"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -2085,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2123,7 +2141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2207,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -2299,7 +2317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -2339,7 +2357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -2383,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -2429,7 +2447,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="18"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -2471,7 +2489,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="18"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -2513,7 +2531,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="18"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -2559,7 +2577,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="18"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -2597,7 +2615,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="18"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -2633,7 +2651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -2671,7 +2689,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="18"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -2713,7 +2731,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="18"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -2755,7 +2773,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="18"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -2797,7 +2815,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="18"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -2839,7 +2857,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="18"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -2877,7 +2895,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="18"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -2919,7 +2937,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="18"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -2961,7 +2979,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="18"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -2999,7 +3017,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="18"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -3041,7 +3059,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="18"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -3079,7 +3097,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="18"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -3121,7 +3139,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="18"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -3163,7 +3181,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="18"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -3205,7 +3223,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="18"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -3215,12 +3233,19 @@
       <c r="C49" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="11"/>
+      <c r="D49" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
+      <c r="H49" s="20">
+        <v>2</v>
+      </c>
+      <c r="I49" s="21">
+        <v>63.33</v>
+      </c>
       <c r="J49" s="22"/>
       <c r="K49" s="20"/>
       <c r="L49" s="21"/>
@@ -3236,18 +3261,29 @@
       <c r="V49" s="22"/>
       <c r="W49" s="18"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="B50" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E50" s="20"/>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
+      <c r="H50" s="20">
+        <v>2</v>
+      </c>
+      <c r="I50" s="21">
+        <v>100</v>
+      </c>
       <c r="J50" s="22"/>
       <c r="K50" s="20"/>
       <c r="L50" s="21"/>
@@ -3263,18 +3299,29 @@
       <c r="V50" s="22"/>
       <c r="W50" s="18"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>49</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="B51" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="21"/>
+      <c r="H51" s="20">
+        <v>1</v>
+      </c>
+      <c r="I51" s="21">
+        <v>100</v>
+      </c>
       <c r="J51" s="22"/>
       <c r="K51" s="20"/>
       <c r="L51" s="21"/>
@@ -3290,18 +3337,29 @@
       <c r="V51" s="22"/>
       <c r="W51" s="18"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="B52" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E52" s="20"/>
       <c r="F52" s="21"/>
       <c r="G52" s="22"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
+      <c r="H52" s="20">
+        <v>1</v>
+      </c>
+      <c r="I52" s="21">
+        <v>100</v>
+      </c>
       <c r="J52" s="22"/>
       <c r="K52" s="20"/>
       <c r="L52" s="21"/>
@@ -3317,7 +3375,7 @@
       <c r="V52" s="22"/>
       <c r="W52" s="18"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -3344,7 +3402,7 @@
       <c r="V53" s="22"/>
       <c r="W53" s="18"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -3371,7 +3429,7 @@
       <c r="V54" s="22"/>
       <c r="W54" s="18"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -3398,7 +3456,7 @@
       <c r="V55" s="22"/>
       <c r="W55" s="18"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -3425,7 +3483,7 @@
       <c r="V56" s="22"/>
       <c r="W56" s="18"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -3452,7 +3510,7 @@
       <c r="V57" s="22"/>
       <c r="W57" s="18"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -3479,7 +3537,7 @@
       <c r="V58" s="22"/>
       <c r="W58" s="18"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -3506,7 +3564,7 @@
       <c r="V59" s="22"/>
       <c r="W59" s="18"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -3533,7 +3591,7 @@
       <c r="V60" s="22"/>
       <c r="W60" s="18"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -3560,7 +3618,7 @@
       <c r="V61" s="22"/>
       <c r="W61" s="18"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -3651,8 +3709,11 @@
     <hyperlink ref="B47" r:id="rId45"/>
     <hyperlink ref="B48" r:id="rId46"/>
     <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B50" r:id="rId48"/>
+    <hyperlink ref="B51" r:id="rId49"/>
+    <hyperlink ref="B52" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId48"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId51"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -672,7 +672,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,7 +707,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,10 +919,10 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,8 +1607,12 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="9"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="9"/>
+      <c r="T13" s="8">
+        <v>2</v>
+      </c>
+      <c r="U13" s="9">
+        <v>100</v>
+      </c>
       <c r="V13" s="5"/>
       <c r="W13" s="19">
         <v>2</v>
@@ -1787,8 +1791,12 @@
         <v>100</v>
       </c>
       <c r="S17" s="5"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9"/>
+      <c r="T17" s="8">
+        <v>2</v>
+      </c>
+      <c r="U17" s="9">
+        <v>100</v>
+      </c>
       <c r="V17" s="5"/>
       <c r="W17" s="19"/>
     </row>
@@ -2352,8 +2360,12 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="9"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="9"/>
+      <c r="T30" s="8">
+        <v>1</v>
+      </c>
+      <c r="U30" s="9">
+        <v>100</v>
+      </c>
       <c r="V30" s="5"/>
       <c r="W30" s="19"/>
     </row>
@@ -2394,8 +2406,12 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="9"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="9"/>
+      <c r="T31" s="8">
+        <v>2</v>
+      </c>
+      <c r="U31" s="9">
+        <v>100</v>
+      </c>
       <c r="V31" s="5"/>
       <c r="W31" s="19"/>
     </row>
@@ -2569,7 +2585,7 @@
       </c>
       <c r="D36" s="12">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
@@ -2594,8 +2610,12 @@
       <c r="Q36" s="8"/>
       <c r="R36" s="9"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="9"/>
+      <c r="T36" s="8">
+        <v>2</v>
+      </c>
+      <c r="U36" s="9">
+        <v>100</v>
+      </c>
       <c r="V36" s="5"/>
       <c r="W36" s="19"/>
     </row>

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
   <si>
     <t>No</t>
   </si>
@@ -247,9 +247,6 @@
     <t>3631. Gửi thư</t>
   </si>
   <si>
-    <t>2 (3 for Java)</t>
-  </si>
-  <si>
     <t>VOSHANDL</t>
   </si>
   <si>
@@ -278,6 +275,84 @@
   </si>
   <si>
     <t>3200. Tưới nước đồng cỏ</t>
+  </si>
+  <si>
+    <t>VSTEPS</t>
+  </si>
+  <si>
+    <t>VMRR</t>
+  </si>
+  <si>
+    <t>15051. RR</t>
+  </si>
+  <si>
+    <t>NOIXICH</t>
+  </si>
+  <si>
+    <t>2779. Nối Xích</t>
+  </si>
+  <si>
+    <t>NKDIVSEQ</t>
+  </si>
+  <si>
+    <t>3630. Dãy chia hết</t>
+  </si>
+  <si>
+    <t>FIRS</t>
+  </si>
+  <si>
+    <t>4614. Hàng cây</t>
+  </si>
+  <si>
+    <t>COUNTCBG</t>
+  </si>
+  <si>
+    <t>3778. COUNT N</t>
+  </si>
+  <si>
+    <t>BINTREE</t>
+  </si>
+  <si>
+    <t>10068. Duyệt cây nhị phân</t>
+  </si>
+  <si>
+    <t>BILL</t>
+  </si>
+  <si>
+    <t>13099. Hóa đơn tiền điện</t>
+  </si>
+  <si>
+    <t>AUCTION</t>
+  </si>
+  <si>
+    <t>3337. Going Once, Going Twice, Gone!</t>
+  </si>
+  <si>
+    <t>2795. Steps</t>
+  </si>
+  <si>
+    <t>KDIFF</t>
+  </si>
+  <si>
+    <t>9412. Trồng hoa</t>
+  </si>
+  <si>
+    <t>KPLANK</t>
+  </si>
+  <si>
+    <t>9074. Bán dừa</t>
+  </si>
+  <si>
+    <t>C11ID</t>
+  </si>
+  <si>
+    <t>12819. Mã số</t>
+  </si>
+  <si>
+    <t>CHATCHIT</t>
+  </si>
+  <si>
+    <t>2604. Chat chit</t>
   </si>
 </sst>
 </file>
@@ -335,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -536,12 +611,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,7 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -593,6 +706,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,7 +792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,7 +827,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -916,13 +1036,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +1051,7 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
@@ -952,54 +1072,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="E1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="21" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="21" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="23"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="25"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,2018 +1176,2491 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>IFERROR(ROUND( SUM(E3,H3,K3,N3,Q3,T3, W3, W3, W3)/COUNT(E3,H3,K3,N3,Q3,T3, W3, W3, W3),1),"")</f>
         <v>1.5</v>
       </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
         <v>100</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8">
-        <v>2</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8">
         <v>100</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="8">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
         <v>85</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>3</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>85</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="8">
-        <v>2</v>
-      </c>
-      <c r="R3" s="9">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="7">
+        <v>2</v>
+      </c>
+      <c r="R3" s="8">
         <v>100</v>
       </c>
       <c r="S3" s="5"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="9"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="19">
+      <c r="W3" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="12">
-        <f t="shared" ref="D4:D50" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
+      <c r="D4" s="11">
+        <f t="shared" ref="D4:D62" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>100</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>100</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8">
         <v>100</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="12">
-        <v>2</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="K4" s="11">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7">
         <v>100</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="20">
+      <c r="N4" s="19">
         <v>3</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>100</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>3</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <v>100</v>
       </c>
       <c r="S4" s="5"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="9"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="19"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>80</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>100</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>3</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>90</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>3</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <v>10</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>3</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <v>10</v>
       </c>
       <c r="S5" s="5"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="19">
+      <c r="W5" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
         <v>100</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="8">
-        <v>2</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8">
         <v>100</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="8">
-        <v>2</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8">
         <v>100</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="8">
-        <v>2</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="N6" s="7">
+        <v>2</v>
+      </c>
+      <c r="O6" s="8">
         <v>80</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="8">
-        <v>2</v>
-      </c>
-      <c r="R6" s="9">
+      <c r="Q6" s="7">
+        <v>2</v>
+      </c>
+      <c r="R6" s="8">
         <v>100</v>
       </c>
       <c r="S6" s="5"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="8"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="19"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>100</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>46.15</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>3</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>92.31</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="8"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="19">
+      <c r="W7" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8">
         <v>100</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="8">
-        <v>2</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="8">
         <v>100</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="9"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="9"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="8"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="18"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
         <v>100</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="8">
-        <v>2</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="8">
         <v>100</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="8">
-        <v>2</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
         <v>100</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>3</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>100</v>
       </c>
       <c r="P9" s="5"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="9"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="8"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="19"/>
+      <c r="W9" s="18"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
         <v>100</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="8">
-        <v>2</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8">
         <v>100</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>3</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>100</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <v>3</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="8">
         <v>0</v>
       </c>
       <c r="S10" s="5"/>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <v>3</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="8">
         <v>100</v>
       </c>
       <c r="V10" s="5"/>
-      <c r="W10" s="19"/>
+      <c r="W10" s="18"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="E11" s="8">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
         <v>60</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>3</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>100</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <v>4</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <v>20</v>
       </c>
       <c r="S11" s="5"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="9"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="19">
+      <c r="W11" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>3</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>100</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="8">
-        <v>2</v>
-      </c>
-      <c r="L12" s="9">
+      <c r="K12" s="7">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8">
         <v>100</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="8">
-        <v>2</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="N12" s="7">
+        <v>2</v>
+      </c>
+      <c r="O12" s="8">
         <v>100</v>
       </c>
       <c r="P12" s="5"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="9"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="8">
-        <v>2</v>
-      </c>
-      <c r="U12" s="9">
+      <c r="T12" s="7">
+        <v>2</v>
+      </c>
+      <c r="U12" s="8">
         <v>100</v>
       </c>
       <c r="V12" s="5"/>
-      <c r="W12" s="19"/>
+      <c r="W12" s="18"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="8">
-        <v>2</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="8">
         <v>100</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="8">
-        <v>2</v>
-      </c>
-      <c r="L13" s="9">
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="8">
         <v>100</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="9"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="8"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="8">
-        <v>2</v>
-      </c>
-      <c r="U13" s="9">
+      <c r="T13" s="7">
+        <v>2</v>
+      </c>
+      <c r="U13" s="8">
         <v>100</v>
       </c>
       <c r="V13" s="5"/>
-      <c r="W13" s="19">
+      <c r="W13" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2</v>
-      </c>
-      <c r="F14" s="9"/>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="8">
-        <v>2</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8">
         <v>100</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="8">
-        <v>2</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="K14" s="7">
+        <v>2</v>
+      </c>
+      <c r="L14" s="8">
         <v>100</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="8">
-        <v>2</v>
-      </c>
-      <c r="O14" s="9">
+      <c r="N14" s="7">
+        <v>2</v>
+      </c>
+      <c r="O14" s="8">
         <v>100</v>
       </c>
       <c r="P14" s="5"/>
-      <c r="Q14" s="8">
-        <v>2</v>
-      </c>
-      <c r="R14" s="9">
+      <c r="Q14" s="7">
+        <v>2</v>
+      </c>
+      <c r="R14" s="8">
         <v>100</v>
       </c>
       <c r="S14" s="5"/>
-      <c r="T14" s="8">
-        <v>2</v>
-      </c>
-      <c r="U14" s="9">
+      <c r="T14" s="7">
+        <v>2</v>
+      </c>
+      <c r="U14" s="8">
         <v>100</v>
       </c>
       <c r="V14" s="5"/>
-      <c r="W14" s="20">
+      <c r="W14" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>4</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>100</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="8"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="9"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="19"/>
+      <c r="W15" s="18"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>3</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>10</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="9"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="9"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="8"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="19">
+      <c r="W16" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="8">
-        <v>2</v>
-      </c>
-      <c r="O17" s="9">
+      <c r="N17" s="7">
+        <v>2</v>
+      </c>
+      <c r="O17" s="8">
         <v>100</v>
       </c>
       <c r="P17" s="5"/>
-      <c r="Q17" s="8">
-        <v>2</v>
-      </c>
-      <c r="R17" s="9">
+      <c r="Q17" s="7">
+        <v>2</v>
+      </c>
+      <c r="R17" s="8">
         <v>100</v>
       </c>
       <c r="S17" s="5"/>
-      <c r="T17" s="8">
-        <v>2</v>
-      </c>
-      <c r="U17" s="9">
+      <c r="T17" s="7">
+        <v>2</v>
+      </c>
+      <c r="U17" s="8">
         <v>100</v>
       </c>
       <c r="V17" s="5"/>
-      <c r="W17" s="19"/>
+      <c r="W17" s="18"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
         <v>100</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
         <v>100</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9">
+      <c r="K18" s="7"/>
+      <c r="L18" s="8">
         <v>100</v>
       </c>
       <c r="M18" s="5"/>
-      <c r="N18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="9">
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8">
         <v>100</v>
       </c>
       <c r="P18" s="5"/>
-      <c r="Q18" s="8">
-        <v>1</v>
-      </c>
-      <c r="R18" s="9">
+      <c r="Q18" s="7">
+        <v>1</v>
+      </c>
+      <c r="R18" s="8">
         <v>100</v>
       </c>
       <c r="S18" s="5"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="9"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="8"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="19"/>
+      <c r="W18" s="18"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
         <v>100</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="8">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9">
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8">
         <v>100</v>
       </c>
       <c r="M19" s="5"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="8">
-        <v>1</v>
-      </c>
-      <c r="R19" s="9">
+      <c r="Q19" s="7">
+        <v>1</v>
+      </c>
+      <c r="R19" s="8">
         <v>100</v>
       </c>
       <c r="S19" s="5"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="9"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="8"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="19"/>
+      <c r="W19" s="18"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>3</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>100</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <v>3</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="8">
         <v>10</v>
       </c>
       <c r="S20" s="5"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="9"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="8"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="19">
+      <c r="W20" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="7"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="8">
+      <c r="Q21" s="7">
         <v>3</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="8">
         <v>50</v>
       </c>
       <c r="S21" s="5"/>
-      <c r="T21" s="8">
+      <c r="T21" s="7">
         <v>4</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="8">
         <v>20</v>
       </c>
       <c r="V21" s="5"/>
-      <c r="W21" s="19">
+      <c r="W21" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="9"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="8"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="8">
+      <c r="T22" s="7">
         <v>4</v>
       </c>
-      <c r="U22" s="9"/>
+      <c r="U22" s="8"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="19">
+      <c r="W22" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
         <v>50</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="9"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="8"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="8">
+      <c r="T23" s="7">
         <v>3</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="8">
         <v>50</v>
       </c>
       <c r="V23" s="5"/>
-      <c r="W23" s="19">
+      <c r="W23" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="8"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="9"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="8">
+      <c r="T24" s="7">
         <v>5</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="8">
         <v>70</v>
       </c>
       <c r="V24" s="5"/>
-      <c r="W24" s="19">
+      <c r="W24" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="8"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="9"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="8"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="8">
+      <c r="T25" s="7">
         <v>4</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="8">
         <v>30</v>
       </c>
       <c r="V25" s="5"/>
-      <c r="W25" s="19">
+      <c r="W25" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="E26" s="7">
         <v>3</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>100</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="8">
-        <v>2</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="8">
         <v>100</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9">
+      <c r="K26" s="7">
+        <v>2</v>
+      </c>
+      <c r="L26" s="8">
         <v>100</v>
       </c>
       <c r="M26" s="5"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="8"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="9"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="8"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="8">
+      <c r="T26" s="7">
         <v>4</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="8">
         <v>14.29</v>
       </c>
       <c r="V26" s="5"/>
-      <c r="W26" s="19">
+      <c r="W26" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="8"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="9"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="8"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="8">
+      <c r="T27" s="7">
         <v>5</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="8">
         <v>10</v>
       </c>
       <c r="V27" s="5"/>
-      <c r="W27" s="19">
+      <c r="W27" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E28" s="8">
-        <v>2</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="E28" s="7">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8">
         <v>100</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>3</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>0</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="9"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="8"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="9"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="8"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="19">
+      <c r="W28" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
         <v>100</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
         <v>100</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
+        <v>100</v>
+      </c>
       <c r="M29" s="5"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="9"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="9"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="8"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="9"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="8"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="19"/>
+      <c r="W29" s="18"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
         <v>100</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="8">
-        <v>1</v>
-      </c>
-      <c r="L30" s="9">
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
         <v>100</v>
       </c>
       <c r="M30" s="5"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="9"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="8"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="8">
-        <v>1</v>
-      </c>
-      <c r="U30" s="9">
+      <c r="T30" s="7">
+        <v>1</v>
+      </c>
+      <c r="U30" s="8">
         <v>100</v>
       </c>
       <c r="V30" s="5"/>
-      <c r="W30" s="19"/>
+      <c r="W30" s="18"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3</v>
+      </c>
+      <c r="F31" s="8">
         <v>100</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="8">
-        <v>2</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="8">
         <v>90</v>
       </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="8"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="9"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="8"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="8">
-        <v>2</v>
-      </c>
-      <c r="U31" s="9">
+      <c r="T31" s="7">
+        <v>2</v>
+      </c>
+      <c r="U31" s="8">
         <v>100</v>
       </c>
       <c r="V31" s="5"/>
-      <c r="W31" s="19"/>
+      <c r="W31" s="18"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E32" s="8">
-        <v>2</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8">
         <v>100</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="8">
-        <v>2</v>
-      </c>
-      <c r="I32" s="9">
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="8">
         <v>100</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="8">
-        <v>2</v>
-      </c>
-      <c r="L32" s="9">
+      <c r="K32" s="7">
+        <v>2</v>
+      </c>
+      <c r="L32" s="8">
         <v>100</v>
       </c>
       <c r="M32" s="5"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="8"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="9"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="8"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="9"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="8"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="19"/>
+      <c r="W32" s="18"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8">
         <v>100</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="8"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="9"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="8"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="9"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="8"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="19"/>
+      <c r="W33" s="18"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>33</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="7">
+        <v>2</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="18"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="8">
-        <v>2</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="19"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>34</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="7">
+        <v>2</v>
+      </c>
+      <c r="I36" s="8">
+        <v>100</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8">
+        <v>100</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="7">
+        <v>2</v>
+      </c>
+      <c r="U36" s="8">
+        <v>100</v>
+      </c>
+      <c r="V36" s="5"/>
+      <c r="W36" s="18"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="12">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="8">
-        <v>2</v>
-      </c>
-      <c r="I36" s="9">
-        <v>100</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="8">
-        <v>1</v>
-      </c>
-      <c r="L36" s="9">
-        <v>100</v>
-      </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="8">
-        <v>2</v>
-      </c>
-      <c r="U36" s="9">
-        <v>100</v>
-      </c>
-      <c r="V36" s="5"/>
-      <c r="W36" s="19"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>35</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8">
+        <v>100</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="8">
+        <v>100</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="18"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="8">
-        <v>1</v>
-      </c>
-      <c r="I37" s="9">
-        <v>100</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="9">
-        <v>100</v>
-      </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="19"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>36</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="D38" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="8">
-        <v>2</v>
-      </c>
-      <c r="I38" s="9">
+      <c r="H38" s="7">
+        <v>2</v>
+      </c>
+      <c r="I38" s="8">
         <v>100</v>
       </c>
       <c r="J38" s="5"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="9">
-        <v>70</v>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="8">
+        <v>100</v>
       </c>
       <c r="M38" s="5"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="8"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="9"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="8"/>
       <c r="S38" s="5"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="9"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="8"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="19"/>
+      <c r="W38" s="18"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="D39" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
-      <c r="I39" s="9">
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
         <v>100</v>
       </c>
       <c r="J39" s="5"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="9">
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="8">
         <v>100</v>
       </c>
       <c r="M39" s="5"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="9"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="8"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="9"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="8"/>
       <c r="S39" s="5"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="9"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="8"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="19"/>
+      <c r="W39" s="18"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="12" t="str">
+      <c r="B40" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="7">
+        <v>2</v>
+      </c>
+      <c r="L40" s="8">
+        <v>100</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="18"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="7">
+        <v>2</v>
+      </c>
+      <c r="I41" s="8">
+        <v>100</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="7">
+        <v>2</v>
+      </c>
+      <c r="L41" s="8">
+        <v>100</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="18"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="7">
+        <v>2</v>
+      </c>
+      <c r="I42" s="8">
+        <v>100</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="7">
+        <v>2</v>
+      </c>
+      <c r="L42" s="8">
+        <v>100</v>
+      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8">
+        <v>100</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="8">
+        <v>100</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8">
+        <v>100</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="18"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="7">
+        <v>2</v>
+      </c>
+      <c r="L45" s="8">
+        <v>100</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="18"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="7">
+        <v>2</v>
+      </c>
+      <c r="I46" s="8">
+        <v>88</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="7">
+        <v>2</v>
+      </c>
+      <c r="L46" s="8">
+        <v>88</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="18"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+      <c r="I47" s="8">
+        <v>100</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8">
+        <v>100</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="18"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+      <c r="I48" s="8">
+        <v>100</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8">
+        <v>100</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="18"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="20">
+        <v>2</v>
+      </c>
+      <c r="I49" s="21">
+        <v>63.33</v>
+      </c>
+      <c r="J49" s="22"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="18"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="20">
+        <v>2</v>
+      </c>
+      <c r="I50" s="21">
+        <v>100</v>
+      </c>
+      <c r="J50" s="22"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="18"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="20">
+        <v>1</v>
+      </c>
+      <c r="I51" s="21">
+        <v>100</v>
+      </c>
+      <c r="J51" s="22"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="18"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="20">
+        <v>1</v>
+      </c>
+      <c r="I52" s="21">
+        <v>100</v>
+      </c>
+      <c r="J52" s="22"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="18"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="18"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="18"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="18"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="18"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="18"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="18"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="18"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="18"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="18"/>
+    </row>
+    <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="19"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>39</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="19"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>40</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="19"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>41</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="19"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>42</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="19"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>43</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="19"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>44</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="19"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>45</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="19"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>46</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="19"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <v>47</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="19"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>48</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="19"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3120,8 +3713,21 @@
     <hyperlink ref="B37" r:id="rId35"/>
     <hyperlink ref="B38" r:id="rId36"/>
     <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B48" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B50" r:id="rId48"/>
+    <hyperlink ref="B51" r:id="rId49"/>
+    <hyperlink ref="B52" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId38"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId51"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
   <si>
     <t>No</t>
   </si>
@@ -353,6 +353,75 @@
   </si>
   <si>
     <t>2604. Chat chit</t>
+  </si>
+  <si>
+    <t>Little Pony and Sort by Shift</t>
+  </si>
+  <si>
+    <t>454B</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>426C</t>
+  </si>
+  <si>
+    <t>Sereja and Swaps</t>
+  </si>
+  <si>
+    <t>100488G</t>
+  </si>
+  <si>
+    <t>Change-making Problem</t>
+  </si>
+  <si>
+    <t>Cardiogram</t>
+  </si>
+  <si>
+    <t>435C</t>
+  </si>
+  <si>
+    <t>Sort the Array</t>
+  </si>
+  <si>
+    <t>451B</t>
+  </si>
+  <si>
+    <t>Suffix Structures</t>
+  </si>
+  <si>
+    <t>448B</t>
+  </si>
+  <si>
+    <t>Shower Line</t>
+  </si>
+  <si>
+    <t>431B</t>
+  </si>
+  <si>
+    <t>Start Up</t>
+  </si>
+  <si>
+    <t>421B</t>
+  </si>
+  <si>
+    <t>Prison Transfer</t>
+  </si>
+  <si>
+    <t>427B</t>
+  </si>
+  <si>
+    <t>Sereja and Mirroring</t>
+  </si>
+  <si>
+    <t>426B</t>
+  </si>
+  <si>
+    <t>Pasha Maximizes</t>
+  </si>
+  <si>
+    <t>435B</t>
   </si>
 </sst>
 </file>
@@ -410,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -650,12 +719,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,6 +822,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,7 +898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -827,7 +933,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1036,13 +1142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomRight" activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="R10" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="7">
@@ -3393,8 +3499,12 @@
       <c r="A53" s="7">
         <v>51</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
+      <c r="B53" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="D53" s="11"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
@@ -3408,8 +3518,12 @@
       <c r="N53" s="20"/>
       <c r="O53" s="21"/>
       <c r="P53" s="22"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="21"/>
+      <c r="Q53" s="20">
+        <v>1</v>
+      </c>
+      <c r="R53" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="S53" s="22"/>
       <c r="T53" s="20"/>
       <c r="U53" s="21"/>
@@ -3420,8 +3534,12 @@
       <c r="A54" s="7">
         <v>52</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
+      <c r="B54" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="D54" s="11"/>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
@@ -3435,8 +3553,12 @@
       <c r="N54" s="20"/>
       <c r="O54" s="21"/>
       <c r="P54" s="22"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="21"/>
+      <c r="Q54" s="20">
+        <v>2</v>
+      </c>
+      <c r="R54" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="S54" s="22"/>
       <c r="T54" s="20"/>
       <c r="U54" s="21"/>
@@ -3447,8 +3569,12 @@
       <c r="A55" s="7">
         <v>53</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
+      <c r="B55" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="D55" s="11"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
@@ -3462,8 +3588,12 @@
       <c r="N55" s="20"/>
       <c r="O55" s="21"/>
       <c r="P55" s="22"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="21"/>
+      <c r="Q55" s="20">
+        <v>2</v>
+      </c>
+      <c r="R55" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="S55" s="22"/>
       <c r="T55" s="20"/>
       <c r="U55" s="21"/>
@@ -3474,8 +3604,12 @@
       <c r="A56" s="7">
         <v>54</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>119</v>
+      </c>
       <c r="D56" s="11"/>
       <c r="E56" s="20"/>
       <c r="F56" s="21"/>
@@ -3489,8 +3623,12 @@
       <c r="N56" s="20"/>
       <c r="O56" s="21"/>
       <c r="P56" s="22"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="21"/>
+      <c r="Q56" s="20">
+        <v>2</v>
+      </c>
+      <c r="R56" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="S56" s="22"/>
       <c r="T56" s="20"/>
       <c r="U56" s="21"/>
@@ -3501,8 +3639,12 @@
       <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>121</v>
+      </c>
       <c r="D57" s="11"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
@@ -3516,8 +3658,12 @@
       <c r="N57" s="20"/>
       <c r="O57" s="21"/>
       <c r="P57" s="22"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="21"/>
+      <c r="Q57" s="20">
+        <v>1</v>
+      </c>
+      <c r="R57" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="S57" s="22"/>
       <c r="T57" s="20"/>
       <c r="U57" s="21"/>
@@ -3528,8 +3674,12 @@
       <c r="A58" s="7">
         <v>56</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
+      <c r="B58" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>123</v>
+      </c>
       <c r="D58" s="11"/>
       <c r="E58" s="20"/>
       <c r="F58" s="21"/>
@@ -3543,8 +3693,12 @@
       <c r="N58" s="20"/>
       <c r="O58" s="21"/>
       <c r="P58" s="22"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="21"/>
+      <c r="Q58" s="20">
+        <v>1</v>
+      </c>
+      <c r="R58" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="S58" s="22"/>
       <c r="T58" s="20"/>
       <c r="U58" s="21"/>
@@ -3555,8 +3709,12 @@
       <c r="A59" s="7">
         <v>57</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
+      <c r="B59" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>125</v>
+      </c>
       <c r="D59" s="11"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -3570,8 +3728,12 @@
       <c r="N59" s="20"/>
       <c r="O59" s="21"/>
       <c r="P59" s="22"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="21"/>
+      <c r="Q59" s="20">
+        <v>1</v>
+      </c>
+      <c r="R59" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="S59" s="22"/>
       <c r="T59" s="20"/>
       <c r="U59" s="21"/>
@@ -3582,8 +3744,12 @@
       <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
+      <c r="B60" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>127</v>
+      </c>
       <c r="D60" s="11"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
@@ -3597,8 +3763,12 @@
       <c r="N60" s="20"/>
       <c r="O60" s="21"/>
       <c r="P60" s="22"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="21"/>
+      <c r="Q60" s="20">
+        <v>1</v>
+      </c>
+      <c r="R60" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="S60" s="22"/>
       <c r="T60" s="20"/>
       <c r="U60" s="21"/>
@@ -3609,8 +3779,12 @@
       <c r="A61" s="7">
         <v>59</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
+      <c r="B61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>129</v>
+      </c>
       <c r="D61" s="11"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
@@ -3624,8 +3798,12 @@
       <c r="N61" s="20"/>
       <c r="O61" s="21"/>
       <c r="P61" s="22"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="21"/>
+      <c r="Q61" s="20">
+        <v>1</v>
+      </c>
+      <c r="R61" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="S61" s="22"/>
       <c r="T61" s="20"/>
       <c r="U61" s="21"/>
@@ -3636,12 +3814,13 @@
       <c r="A62" s="7">
         <v>60</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B62" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="11"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="6"/>
@@ -3654,13 +3833,31 @@
       <c r="N62" s="12"/>
       <c r="O62" s="9"/>
       <c r="P62" s="6"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="9"/>
+      <c r="Q62" s="12">
+        <v>1</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="S62" s="6"/>
       <c r="T62" s="12"/>
       <c r="U62" s="9"/>
       <c r="V62" s="6"/>
       <c r="W62" s="18"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B63" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q63" s="32">
+        <v>1</v>
+      </c>
+      <c r="R63" s="33" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3693,41 +3890,52 @@
     <hyperlink ref="B17" r:id="rId15"/>
     <hyperlink ref="B18" r:id="rId16"/>
     <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18" display="C11SEQ3"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B26" r:id="rId21"/>
-    <hyperlink ref="B27" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B24" r:id="rId24"/>
-    <hyperlink ref="B23" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27" tooltip="MDIGITS2" display="http://vn.spoj.com/problems/MDIGITS2/"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-    <hyperlink ref="B32" r:id="rId30"/>
-    <hyperlink ref="B33" r:id="rId31"/>
-    <hyperlink ref="B34" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B36" r:id="rId34"/>
-    <hyperlink ref="B37" r:id="rId35"/>
-    <hyperlink ref="B38" r:id="rId36"/>
-    <hyperlink ref="B39" r:id="rId37"/>
-    <hyperlink ref="B40" r:id="rId38"/>
-    <hyperlink ref="B41" r:id="rId39"/>
-    <hyperlink ref="B42" r:id="rId40"/>
-    <hyperlink ref="B43" r:id="rId41"/>
-    <hyperlink ref="B44" r:id="rId42"/>
-    <hyperlink ref="B45" r:id="rId43"/>
-    <hyperlink ref="B46" r:id="rId44"/>
-    <hyperlink ref="B47" r:id="rId45"/>
-    <hyperlink ref="B48" r:id="rId46"/>
-    <hyperlink ref="B49" r:id="rId47"/>
-    <hyperlink ref="B50" r:id="rId48"/>
-    <hyperlink ref="B51" r:id="rId49"/>
-    <hyperlink ref="B52" r:id="rId50"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B26" r:id="rId20"/>
+    <hyperlink ref="B27" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B23" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B29" r:id="rId26" tooltip="MDIGITS2" display="http://vn.spoj.com/problems/MDIGITS2/"/>
+    <hyperlink ref="B30" r:id="rId27"/>
+    <hyperlink ref="B31" r:id="rId28"/>
+    <hyperlink ref="B32" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B34" r:id="rId31"/>
+    <hyperlink ref="B35" r:id="rId32"/>
+    <hyperlink ref="B36" r:id="rId33"/>
+    <hyperlink ref="B37" r:id="rId34"/>
+    <hyperlink ref="B38" r:id="rId35"/>
+    <hyperlink ref="B39" r:id="rId36"/>
+    <hyperlink ref="B40" r:id="rId37"/>
+    <hyperlink ref="B41" r:id="rId38"/>
+    <hyperlink ref="B42" r:id="rId39"/>
+    <hyperlink ref="B43" r:id="rId40"/>
+    <hyperlink ref="B44" r:id="rId41"/>
+    <hyperlink ref="B45" r:id="rId42"/>
+    <hyperlink ref="B46" r:id="rId43"/>
+    <hyperlink ref="B47" r:id="rId44"/>
+    <hyperlink ref="B48" r:id="rId45"/>
+    <hyperlink ref="B49" r:id="rId46"/>
+    <hyperlink ref="B50" r:id="rId47"/>
+    <hyperlink ref="B51" r:id="rId48"/>
+    <hyperlink ref="B52" r:id="rId49"/>
+    <hyperlink ref="B20" r:id="rId50"/>
+    <hyperlink ref="B53" r:id="rId51"/>
+    <hyperlink ref="B54" r:id="rId52"/>
+    <hyperlink ref="B55" r:id="rId53"/>
+    <hyperlink ref="B56" r:id="rId54" display="435/C"/>
+    <hyperlink ref="B57" r:id="rId55"/>
+    <hyperlink ref="B58" r:id="rId56"/>
+    <hyperlink ref="B59" r:id="rId57" display="431/B"/>
+    <hyperlink ref="B60" r:id="rId58" display="21/B"/>
+    <hyperlink ref="B61" r:id="rId59"/>
+    <hyperlink ref="B62" r:id="rId60"/>
+    <hyperlink ref="B63" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId51"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId62"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Practices" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="164">
   <si>
     <t>No</t>
   </si>
@@ -422,6 +422,93 @@
   </si>
   <si>
     <t>435B</t>
+  </si>
+  <si>
+    <t>ROUND 1E</t>
+  </si>
+  <si>
+    <t>ROUND 1B</t>
+  </si>
+  <si>
+    <t>ROUND 1C</t>
+  </si>
+  <si>
+    <t>ROUND 1A</t>
+  </si>
+  <si>
+    <t>PTIT133C</t>
+  </si>
+  <si>
+    <t>PTIT133D</t>
+  </si>
+  <si>
+    <t>PTIT133I</t>
+  </si>
+  <si>
+    <t>NZEC</t>
+  </si>
+  <si>
+    <t>PTIT133B</t>
+  </si>
+  <si>
+    <t>PTIT133A</t>
+  </si>
+  <si>
+    <t>PTIT124A</t>
+  </si>
+  <si>
+    <t>PTIT124H</t>
+  </si>
+  <si>
+    <t>PTIT124J</t>
+  </si>
+  <si>
+    <t>PTIT124C</t>
+  </si>
+  <si>
+    <t>PTIT124G</t>
+  </si>
+  <si>
+    <t>17858. ROUND 1E - Khóa vòng</t>
+  </si>
+  <si>
+    <t>17855. ROUND 1B - Tuần lễ công dân</t>
+  </si>
+  <si>
+    <t>17856. ROUND 1C - BIT operator</t>
+  </si>
+  <si>
+    <t>17854. ROUND 1A - Đối mặt</t>
+  </si>
+  <si>
+    <t>13701. Đếm số tam giác vuông</t>
+  </si>
+  <si>
+    <t>13721. Ăn bánh</t>
+  </si>
+  <si>
+    <t>13770. Phương pháp cân</t>
+  </si>
+  <si>
+    <t>10983. Mã hóa bằng ma trận xoáy ốc</t>
+  </si>
+  <si>
+    <t>10999. Chuyển đổi hệ cơ số (bản dễ)</t>
+  </si>
+  <si>
+    <t>10985. Can dia</t>
+  </si>
+  <si>
+    <t>10982. Trao bai</t>
+  </si>
+  <si>
+    <t>13684. Tìm phần tử nhỏ nhất</t>
+  </si>
+  <si>
+    <t>13685. Bể cá</t>
+  </si>
+  <si>
+    <t>10989. Điểm còn lại của hình chữ nhật</t>
   </si>
 </sst>
 </file>
@@ -479,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -637,36 +724,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thin">
@@ -721,23 +778,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -746,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,23 +805,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -797,13 +837,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,19 +865,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1142,90 +1195,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O57" sqref="O57"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="23" t="s">
+      <c r="E1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="23" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="23" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="23" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="24"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1281,17 +1334,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>IFERROR(ROUND( SUM(E3,H3,K3,N3,Q3,T3, W3, W3, W3)/COUNT(E3,H3,K3,N3,Q3,T3, W3, W3, W3),1),"")</f>
         <v>1.5</v>
       </c>
@@ -1321,10 +1374,10 @@
       <c r="N3" s="7">
         <v>3</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="11">
         <v>85</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="12"/>
       <c r="Q3" s="7">
         <v>2</v>
       </c>
@@ -1335,25 +1388,25 @@
       <c r="T3" s="7"/>
       <c r="U3" s="8"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11">
-        <f t="shared" ref="D4:D62" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D63" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>1</v>
       </c>
       <c r="F4" s="8">
@@ -1366,14 +1419,14 @@
         <v>100</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>2</v>
       </c>
       <c r="L4" s="7">
         <v>100</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="19">
+      <c r="N4" s="17">
         <v>3</v>
       </c>
       <c r="O4" s="8">
@@ -1390,19 +1443,19 @@
       <c r="T4" s="7"/>
       <c r="U4" s="8"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1444,21 +1497,21 @@
       <c r="T5" s="7"/>
       <c r="U5" s="8"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="18">
+      <c r="W5" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
@@ -1500,19 +1553,19 @@
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="18"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1546,21 +1599,21 @@
       <c r="T7" s="7"/>
       <c r="U7" s="8"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="18">
+      <c r="W7" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1590,19 +1643,19 @@
       <c r="T8" s="7"/>
       <c r="U8" s="8"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="18"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="16"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1640,19 +1693,19 @@
       <c r="T9" s="7"/>
       <c r="U9" s="8"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="18"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="16"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
@@ -1694,19 +1747,19 @@
         <v>100</v>
       </c>
       <c r="V10" s="5"/>
-      <c r="W10" s="18"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="16"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
@@ -1740,26 +1793,30 @@
       <c r="T11" s="7"/>
       <c r="U11" s="8"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="18">
+      <c r="W11" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="11">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>100</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="7">
         <v>3</v>
@@ -1792,19 +1849,19 @@
         <v>100</v>
       </c>
       <c r="V12" s="5"/>
-      <c r="W12" s="18"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W12" s="16"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1840,21 +1897,21 @@
         <v>100</v>
       </c>
       <c r="V13" s="5"/>
-      <c r="W13" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1898,21 +1955,21 @@
         <v>100</v>
       </c>
       <c r="V14" s="5"/>
-      <c r="W14" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W14" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1938,19 +1995,19 @@
       <c r="T15" s="7"/>
       <c r="U15" s="8"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="18"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W15" s="16"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -1976,21 +2033,21 @@
       <c r="T16" s="7"/>
       <c r="U16" s="8"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="18">
+      <c r="W16" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2024,19 +2081,19 @@
         <v>100</v>
       </c>
       <c r="V17" s="5"/>
-      <c r="W17" s="18"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W17" s="16"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2076,19 +2133,19 @@
       <c r="T18" s="7"/>
       <c r="U18" s="8"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="18"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W18" s="16"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2122,19 +2179,19 @@
       <c r="T19" s="7"/>
       <c r="U19" s="8"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="18"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W19" s="16"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
@@ -2164,21 +2221,21 @@
       <c r="T20" s="7"/>
       <c r="U20" s="8"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="18">
+      <c r="W20" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
@@ -2207,21 +2264,21 @@
         <v>20</v>
       </c>
       <c r="V21" s="5"/>
-      <c r="W21" s="18">
+      <c r="W21" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2245,26 +2302,30 @@
       </c>
       <c r="U22" s="8"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="18">
+      <c r="W22" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>100</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="7">
         <v>1</v>
@@ -2289,21 +2350,21 @@
         <v>50</v>
       </c>
       <c r="V23" s="5"/>
-      <c r="W23" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W23" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2329,21 +2390,21 @@
         <v>70</v>
       </c>
       <c r="V24" s="5"/>
-      <c r="W24" s="18">
+      <c r="W24" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
@@ -2369,21 +2430,21 @@
         <v>30</v>
       </c>
       <c r="V25" s="5"/>
-      <c r="W25" s="18">
+      <c r="W25" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
@@ -2421,21 +2482,21 @@
         <v>14.29</v>
       </c>
       <c r="V26" s="5"/>
-      <c r="W26" s="18">
+      <c r="W26" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2461,21 +2522,21 @@
         <v>10</v>
       </c>
       <c r="V27" s="5"/>
-      <c r="W27" s="18">
+      <c r="W27" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
@@ -2505,21 +2566,21 @@
       <c r="T28" s="7"/>
       <c r="U28" s="8"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W28" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2553,19 +2614,19 @@
       <c r="T29" s="7"/>
       <c r="U29" s="8"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="18"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W29" s="16"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2599,19 +2660,19 @@
         <v>100</v>
       </c>
       <c r="V30" s="5"/>
-      <c r="W30" s="18"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W30" s="16"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
@@ -2645,19 +2706,19 @@
         <v>100</v>
       </c>
       <c r="V31" s="5"/>
-      <c r="W31" s="18"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W31" s="16"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2691,19 +2752,19 @@
       <c r="T32" s="7"/>
       <c r="U32" s="8"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="18"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W32" s="16"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2729,24 +2790,28 @@
       <c r="T33" s="7"/>
       <c r="U33" s="8"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="18"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W33" s="16"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="7">
+        <v>3</v>
+      </c>
+      <c r="F34" s="8">
+        <v>100</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="7"/>
       <c r="I34" s="8"/>
@@ -2763,21 +2828,21 @@
       <c r="T34" s="7"/>
       <c r="U34" s="8"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="18">
+      <c r="W34" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2803,19 +2868,19 @@
       <c r="T35" s="7"/>
       <c r="U35" s="8"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="18"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W35" s="16"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
@@ -2849,19 +2914,19 @@
         <v>100</v>
       </c>
       <c r="V36" s="5"/>
-      <c r="W36" s="18"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W36" s="16"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2891,24 +2956,28 @@
       <c r="T37" s="7"/>
       <c r="U37" s="8"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="18"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W37" s="16"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
+      <c r="D38" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E38" s="7">
+        <v>3</v>
+      </c>
+      <c r="F38" s="8">
+        <v>100</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="7">
         <v>2</v>
@@ -2933,19 +3002,19 @@
       <c r="T38" s="7"/>
       <c r="U38" s="8"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="18"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W38" s="16"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2975,19 +3044,19 @@
       <c r="T39" s="7"/>
       <c r="U39" s="8"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="18"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W39" s="16"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3013,24 +3082,28 @@
       <c r="T40" s="7"/>
       <c r="U40" s="8"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="18"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W40" s="16"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
+      <c r="D41" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2</v>
+      </c>
+      <c r="F41" s="8">
+        <v>100</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="7">
         <v>2</v>
@@ -3055,24 +3128,28 @@
       <c r="T41" s="7"/>
       <c r="U41" s="8"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="18"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W41" s="16"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
+      <c r="D42" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8">
+        <v>100</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="7">
         <v>2</v>
@@ -3097,24 +3174,28 @@
       <c r="T42" s="7"/>
       <c r="U42" s="8"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="18"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W42" s="16"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
+      <c r="D43" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8">
+        <v>100</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="7"/>
       <c r="I43" s="8"/>
@@ -3135,19 +3216,19 @@
       <c r="T43" s="7"/>
       <c r="U43" s="8"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="18"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W43" s="16"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3177,24 +3258,28 @@
       <c r="T44" s="7"/>
       <c r="U44" s="8"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="18"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W44" s="16"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
+      <c r="D45" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="7">
+        <v>2</v>
+      </c>
+      <c r="F45" s="8">
+        <v>100</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="7"/>
       <c r="I45" s="8"/>
@@ -3215,19 +3300,19 @@
       <c r="T45" s="7"/>
       <c r="U45" s="8"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="18"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W45" s="16"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>44</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3257,24 +3342,28 @@
       <c r="T46" s="7"/>
       <c r="U46" s="8"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="18"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W46" s="16"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>45</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
+      <c r="D47" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="8">
+        <v>100</v>
+      </c>
       <c r="G47" s="5"/>
       <c r="H47" s="7">
         <v>1</v>
@@ -3299,19 +3388,19 @@
       <c r="T47" s="7"/>
       <c r="U47" s="8"/>
       <c r="V47" s="5"/>
-      <c r="W47" s="18"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W47" s="16"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3341,523 +3430,1061 @@
       <c r="T48" s="7"/>
       <c r="U48" s="8"/>
       <c r="V48" s="5"/>
-      <c r="W48" s="18"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W48" s="16"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>47</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="20">
-        <v>2</v>
-      </c>
-      <c r="I49" s="21">
+      <c r="D49" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="18">
+        <v>2</v>
+      </c>
+      <c r="I49" s="19">
         <v>63.33</v>
       </c>
-      <c r="J49" s="22"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="18"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J49" s="20"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="16"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="20">
-        <v>2</v>
-      </c>
-      <c r="I50" s="21">
-        <v>100</v>
-      </c>
-      <c r="J50" s="22"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="18"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D50" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E50" s="18">
+        <v>2</v>
+      </c>
+      <c r="F50" s="19">
+        <v>40</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="18">
+        <v>2</v>
+      </c>
+      <c r="I50" s="19">
+        <v>100</v>
+      </c>
+      <c r="J50" s="20"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="16"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>49</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="20">
-        <v>1</v>
-      </c>
-      <c r="I51" s="21">
-        <v>100</v>
-      </c>
-      <c r="J51" s="22"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="18"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D51" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="18">
+        <v>1</v>
+      </c>
+      <c r="I51" s="19">
+        <v>100</v>
+      </c>
+      <c r="J51" s="20"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="16"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>50</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="20">
-        <v>1</v>
-      </c>
-      <c r="I52" s="21">
-        <v>100</v>
-      </c>
-      <c r="J52" s="22"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="18"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D52" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E52" s="18">
+        <v>2</v>
+      </c>
+      <c r="F52" s="19">
+        <v>100</v>
+      </c>
+      <c r="G52" s="20"/>
+      <c r="H52" s="18">
+        <v>1</v>
+      </c>
+      <c r="I52" s="19">
+        <v>100</v>
+      </c>
+      <c r="J52" s="20"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="16"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>51</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="20">
-        <v>1</v>
-      </c>
-      <c r="R53" s="21" t="s">
+      <c r="D53" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="18">
+        <v>1</v>
+      </c>
+      <c r="R53" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S53" s="22"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="18"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S53" s="20"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="16"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>52</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="20">
-        <v>2</v>
-      </c>
-      <c r="R54" s="21" t="s">
+      <c r="D54" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E54" s="18">
+        <v>2</v>
+      </c>
+      <c r="F54" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S54" s="22"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="18"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G54" s="20"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="18">
+        <v>2</v>
+      </c>
+      <c r="R54" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="S54" s="20"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="16"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>53</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="20">
-        <v>2</v>
-      </c>
-      <c r="R55" s="21" t="s">
+      <c r="D55" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="18">
+        <v>2</v>
+      </c>
+      <c r="R55" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S55" s="22"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="18"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S55" s="20"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="16"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>54</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="20">
-        <v>2</v>
-      </c>
-      <c r="R56" s="21" t="s">
+      <c r="D56" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E56" s="18">
+        <v>1</v>
+      </c>
+      <c r="F56" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S56" s="22"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="18"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G56" s="20"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="18">
+        <v>2</v>
+      </c>
+      <c r="R56" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="S56" s="20"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="16"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="20">
-        <v>1</v>
-      </c>
-      <c r="R57" s="21" t="s">
+      <c r="D57" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="18">
+        <v>1</v>
+      </c>
+      <c r="R57" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S57" s="22"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="18"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S57" s="20"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="16"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>56</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="20">
-        <v>1</v>
-      </c>
-      <c r="R58" s="21" t="s">
+      <c r="D58" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="18">
+        <v>1</v>
+      </c>
+      <c r="R58" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S58" s="22"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="18"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S58" s="20"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="16"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>57</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="20">
-        <v>1</v>
-      </c>
-      <c r="R59" s="21" t="s">
+      <c r="D59" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="18">
+        <v>1</v>
+      </c>
+      <c r="F59" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S59" s="22"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="18"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G59" s="20"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="18">
+        <v>1</v>
+      </c>
+      <c r="R59" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="S59" s="20"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="16"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="20">
-        <v>1</v>
-      </c>
-      <c r="R60" s="21" t="s">
+      <c r="D60" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="18">
+        <v>1</v>
+      </c>
+      <c r="R60" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S60" s="22"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="18"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S60" s="20"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="16"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>59</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="20">
-        <v>1</v>
-      </c>
-      <c r="R61" s="21" t="s">
+      <c r="D61" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E61" s="18">
+        <v>2</v>
+      </c>
+      <c r="F61" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S61" s="22"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="18"/>
-    </row>
-    <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="G61" s="20"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="18">
+        <v>1</v>
+      </c>
+      <c r="R61" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="S61" s="20"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="16"/>
+    </row>
+    <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="18">
         <v>60</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="12">
-        <v>1</v>
-      </c>
-      <c r="R62" s="9" t="s">
+      <c r="D62" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="18"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="18">
+        <v>1</v>
+      </c>
+      <c r="R62" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S62" s="6"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="9"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="19"/>
       <c r="V62" s="6"/>
-      <c r="W62" s="18"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="30" t="s">
+      <c r="W62" s="16"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A63" s="31">
+        <v>61</v>
+      </c>
+      <c r="B63" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="Q63" s="32">
-        <v>1</v>
-      </c>
-      <c r="R63" s="33" t="s">
+      <c r="D63" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="35">
+        <v>1</v>
+      </c>
+      <c r="R63" s="35" t="s">
         <v>114</v>
       </c>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64" s="31">
+        <v>62</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="31">
+        <v>2</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A65" s="31">
+        <v>63</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="34"/>
+      <c r="E65" s="31">
+        <v>2</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66" s="31">
+        <v>64</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="34"/>
+      <c r="E66" s="31">
+        <v>2</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" s="31">
+        <v>65</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="31">
+        <v>2</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" s="31">
+        <v>66</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="34"/>
+      <c r="E68" s="31">
+        <v>2</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" s="31">
+        <v>67</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="34"/>
+      <c r="E69" s="31">
+        <v>2</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" s="31">
+        <v>68</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="34"/>
+      <c r="E70" s="31">
+        <v>2</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A71" s="31">
+        <v>69</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="34"/>
+      <c r="E71" s="31">
+        <v>2</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A72" s="31">
+        <v>70</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="34"/>
+      <c r="E72" s="31">
+        <v>2</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A73" s="31">
+        <v>71</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="34"/>
+      <c r="E73" s="31">
+        <v>2</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="34"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A74" s="31">
+        <v>72</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="34"/>
+      <c r="E74" s="31">
+        <v>1</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="34"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A75" s="31">
+        <v>73</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="34"/>
+      <c r="E75" s="31">
+        <v>2</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A76" s="31">
+        <v>74</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="34"/>
+      <c r="E76" s="31">
+        <v>2</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="34"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A77" s="31">
+        <v>75</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="34"/>
+      <c r="E77" s="31">
+        <v>2</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3934,8 +4561,22 @@
     <hyperlink ref="B61" r:id="rId59"/>
     <hyperlink ref="B62" r:id="rId60"/>
     <hyperlink ref="B63" r:id="rId61"/>
+    <hyperlink ref="B64" r:id="rId62" tooltip="P141PROE" display="http://www.spoj.com/ACMBKK14/problems/P141PROE/"/>
+    <hyperlink ref="B65" r:id="rId63" tooltip="P141PROB" display="http://www.spoj.com/ACMBKK14/problems/P141PROB/"/>
+    <hyperlink ref="B66" r:id="rId64" tooltip="P141PROC" display="http://www.spoj.com/ACMBKK14/problems/P141PROC/"/>
+    <hyperlink ref="B67" r:id="rId65" tooltip="P141PROA" display="http://www.spoj.com/ACMBKK14/problems/P141PROA/"/>
+    <hyperlink ref="B68" r:id="rId66" tooltip="PTIT133C"/>
+    <hyperlink ref="B69" r:id="rId67" tooltip="PTIT133D"/>
+    <hyperlink ref="B70" r:id="rId68" tooltip="PTIT133I"/>
+    <hyperlink ref="B71" r:id="rId69" tooltip="PTIT133B"/>
+    <hyperlink ref="B72" r:id="rId70" tooltip="PTIT133A"/>
+    <hyperlink ref="B73" r:id="rId71" tooltip="PTIT124A"/>
+    <hyperlink ref="B74" r:id="rId72" tooltip="PTIT124H"/>
+    <hyperlink ref="B75" r:id="rId73" tooltip="PTIT124J"/>
+    <hyperlink ref="B76" r:id="rId74" tooltip="PTIT124C"/>
+    <hyperlink ref="B77" r:id="rId75" tooltip="PTIT124G"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId62"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId76"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Practices" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
   <si>
     <t>No</t>
   </si>
@@ -355,73 +355,7 @@
     <t>2604. Chat chit</t>
   </si>
   <si>
-    <t>Little Pony and Sort by Shift</t>
-  </si>
-  <si>
-    <t>454B</t>
-  </si>
-  <si>
     <t>AC</t>
-  </si>
-  <si>
-    <t>426C</t>
-  </si>
-  <si>
-    <t>Sereja and Swaps</t>
-  </si>
-  <si>
-    <t>100488G</t>
-  </si>
-  <si>
-    <t>Change-making Problem</t>
-  </si>
-  <si>
-    <t>Cardiogram</t>
-  </si>
-  <si>
-    <t>435C</t>
-  </si>
-  <si>
-    <t>Sort the Array</t>
-  </si>
-  <si>
-    <t>451B</t>
-  </si>
-  <si>
-    <t>Suffix Structures</t>
-  </si>
-  <si>
-    <t>448B</t>
-  </si>
-  <si>
-    <t>Shower Line</t>
-  </si>
-  <si>
-    <t>431B</t>
-  </si>
-  <si>
-    <t>Start Up</t>
-  </si>
-  <si>
-    <t>421B</t>
-  </si>
-  <si>
-    <t>Prison Transfer</t>
-  </si>
-  <si>
-    <t>427B</t>
-  </si>
-  <si>
-    <t>Sereja and Mirroring</t>
-  </si>
-  <si>
-    <t>426B</t>
-  </si>
-  <si>
-    <t>Pasha Maximizes</t>
-  </si>
-  <si>
-    <t>435B</t>
   </si>
   <si>
     <t>ROUND 1E</t>
@@ -566,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -778,13 +712,45 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </left>
       <right/>
       <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -792,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -844,9 +810,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,29 +828,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -951,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,7 +937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1195,90 +1146,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomRight" activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="22" t="s">
+      <c r="E1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="22" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="22" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="22" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="24"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="23"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1334,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1392,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1403,7 +1355,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="10">
-        <f t="shared" ref="D4:D63" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
+        <f t="shared" ref="D4:D66" si="0">IFERROR(ROUND( SUM(E4,H4,K4,N4,Q4,T4, W4, W4, W4)/COUNT(E4,H4,K4,N4,Q4,T4, W4, W4, W4),1),"")</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E4" s="16">
@@ -1445,7 +1397,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1501,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1555,7 +1507,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1603,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1645,7 +1597,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1695,7 +1647,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1749,7 +1701,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1797,7 +1749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1851,7 +1803,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1901,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1959,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1997,7 +1949,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2037,7 +1989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -2083,7 +2035,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2135,7 +2087,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -2181,7 +2133,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -2225,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -2268,7 +2220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2306,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -2354,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2394,7 +2346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -2434,7 +2386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -2486,7 +2438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -2526,7 +2478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -2570,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -2616,7 +2568,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="16"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -2662,7 +2614,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="16"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -2708,7 +2660,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="16"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -2754,7 +2706,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="16"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -2792,7 +2744,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="16"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -2832,7 +2784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -2870,7 +2822,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="16"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -2916,7 +2868,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="16"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -2958,7 +2910,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="16"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -3004,7 +2956,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="16"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -3046,7 +2998,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="16"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -3084,7 +3036,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="16"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -3130,7 +3082,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="16"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -3176,7 +3128,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="16"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -3218,7 +3170,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="16"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -3260,7 +3212,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="16"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -3302,7 +3254,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="16"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -3344,7 +3296,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="16"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -3390,7 +3342,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="16"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -3432,7 +3384,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="16"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -3470,7 +3422,7 @@
       <c r="V49" s="20"/>
       <c r="W49" s="16"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -3512,7 +3464,7 @@
       <c r="V50" s="20"/>
       <c r="W50" s="16"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -3550,7 +3502,7 @@
       <c r="V51" s="20"/>
       <c r="W51" s="16"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -3592,22 +3544,26 @@
       <c r="V52" s="20"/>
       <c r="W52" s="16"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="18">
+        <v>2</v>
+      </c>
+      <c r="F53" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
       <c r="G53" s="20"/>
       <c r="H53" s="18"/>
       <c r="I53" s="19"/>
@@ -3618,27 +3574,21 @@
       <c r="N53" s="18"/>
       <c r="O53" s="19"/>
       <c r="P53" s="20"/>
-      <c r="Q53" s="18">
-        <v>1</v>
-      </c>
-      <c r="R53" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="19"/>
       <c r="S53" s="20"/>
       <c r="T53" s="18"/>
       <c r="U53" s="19"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="16"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D54" s="10">
         <f t="shared" si="0"/>
@@ -3648,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="18"/>
@@ -3660,34 +3610,32 @@
       <c r="N54" s="18"/>
       <c r="O54" s="19"/>
       <c r="P54" s="20"/>
-      <c r="Q54" s="18">
-        <v>2</v>
-      </c>
-      <c r="R54" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="19"/>
       <c r="S54" s="20"/>
       <c r="T54" s="18"/>
       <c r="U54" s="19"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="16"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D55" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
+      <c r="E55" s="18">
+        <v>2</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="G55" s="20"/>
       <c r="H55" s="18"/>
       <c r="I55" s="19"/>
@@ -3698,37 +3646,31 @@
       <c r="N55" s="18"/>
       <c r="O55" s="19"/>
       <c r="P55" s="20"/>
-      <c r="Q55" s="18">
-        <v>2</v>
-      </c>
-      <c r="R55" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="19"/>
       <c r="S55" s="20"/>
       <c r="T55" s="18"/>
       <c r="U55" s="19"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="16"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D56" s="10">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E56" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="18"/>
@@ -3740,34 +3682,32 @@
       <c r="N56" s="18"/>
       <c r="O56" s="19"/>
       <c r="P56" s="20"/>
-      <c r="Q56" s="18">
-        <v>2</v>
-      </c>
-      <c r="R56" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="19"/>
       <c r="S56" s="20"/>
       <c r="T56" s="18"/>
       <c r="U56" s="19"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="16"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="D57" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="E57" s="18">
+        <v>2</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="G57" s="20"/>
       <c r="H57" s="18"/>
       <c r="I57" s="19"/>
@@ -3778,34 +3718,32 @@
       <c r="N57" s="18"/>
       <c r="O57" s="19"/>
       <c r="P57" s="20"/>
-      <c r="Q57" s="18">
-        <v>1</v>
-      </c>
-      <c r="R57" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="19"/>
       <c r="S57" s="20"/>
       <c r="T57" s="18"/>
       <c r="U57" s="19"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="16"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="D58" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="E58" s="18">
+        <v>2</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="G58" s="20"/>
       <c r="H58" s="18"/>
       <c r="I58" s="19"/>
@@ -3816,37 +3754,31 @@
       <c r="N58" s="18"/>
       <c r="O58" s="19"/>
       <c r="P58" s="20"/>
-      <c r="Q58" s="18">
-        <v>1</v>
-      </c>
-      <c r="R58" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="19"/>
       <c r="S58" s="20"/>
       <c r="T58" s="18"/>
       <c r="U58" s="19"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="16"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="D59" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="18"/>
@@ -3858,34 +3790,32 @@
       <c r="N59" s="18"/>
       <c r="O59" s="19"/>
       <c r="P59" s="20"/>
-      <c r="Q59" s="18">
-        <v>1</v>
-      </c>
-      <c r="R59" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="19"/>
       <c r="S59" s="20"/>
       <c r="T59" s="18"/>
       <c r="U59" s="19"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="16"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="D60" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="E60" s="18">
+        <v>2</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="G60" s="20"/>
       <c r="H60" s="18"/>
       <c r="I60" s="19"/>
@@ -3896,37 +3826,31 @@
       <c r="N60" s="18"/>
       <c r="O60" s="19"/>
       <c r="P60" s="20"/>
-      <c r="Q60" s="18">
-        <v>1</v>
-      </c>
-      <c r="R60" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="19"/>
       <c r="S60" s="20"/>
       <c r="T60" s="18"/>
       <c r="U60" s="19"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="16"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="D61" s="10">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E61" s="18">
         <v>2</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="18"/>
@@ -3938,34 +3862,32 @@
       <c r="N61" s="18"/>
       <c r="O61" s="19"/>
       <c r="P61" s="20"/>
-      <c r="Q61" s="18">
-        <v>1</v>
-      </c>
-      <c r="R61" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="19"/>
       <c r="S61" s="20"/>
       <c r="T61" s="18"/>
       <c r="U61" s="19"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="16"/>
-    </row>
-    <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18">
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
         <v>60</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
+      <c r="B62" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E62" s="18">
+        <v>2</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="G62" s="20"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -3976,515 +3898,1006 @@
       <c r="N62" s="18"/>
       <c r="O62" s="19"/>
       <c r="P62" s="20"/>
-      <c r="Q62" s="18">
-        <v>1</v>
-      </c>
-      <c r="R62" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="19"/>
       <c r="S62" s="20"/>
       <c r="T62" s="18"/>
       <c r="U62" s="19"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="16"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A63" s="31">
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
         <v>61</v>
       </c>
-      <c r="B63" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="35">
-        <v>1</v>
-      </c>
-      <c r="R63" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A64" s="31">
+      <c r="B63" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="18">
+        <v>1</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" s="20"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="19"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
         <v>62</v>
       </c>
-      <c r="B64" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="31">
-        <v>2</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="31">
+      <c r="B64" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E64" s="18">
+        <v>2</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="20"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="19"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
         <v>63</v>
       </c>
-      <c r="B65" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="31">
-        <v>2</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="31">
+      <c r="B65" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E65" s="18">
+        <v>2</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" s="20"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="19"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
         <v>64</v>
       </c>
-      <c r="B66" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="31">
-        <v>2</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="31">
-        <v>65</v>
-      </c>
-      <c r="B67" s="36" t="s">
+      <c r="B66" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="31">
-        <v>2</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="31">
-        <v>66</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="31">
-        <v>2</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="31">
-        <v>67</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="31">
-        <v>2</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="31">
-        <v>68</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="31">
-        <v>2</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="31">
-        <v>69</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="31">
-        <v>2</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="31">
-        <v>70</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72" s="34"/>
-      <c r="E72" s="31">
-        <v>2</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" s="31">
-        <v>71</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="31">
-        <v>2</v>
-      </c>
-      <c r="F73" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="34"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="31">
-        <v>72</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="31">
-        <v>1</v>
-      </c>
-      <c r="F74" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="34"/>
-      <c r="T74" s="34"/>
-      <c r="U74" s="34"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="31">
-        <v>73</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="31">
-        <v>2</v>
-      </c>
-      <c r="F75" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="31">
-        <v>74</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="31">
-        <v>2</v>
-      </c>
-      <c r="F76" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="34"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
-      <c r="T76" s="34"/>
-      <c r="U76" s="34"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="31">
-        <v>75</v>
-      </c>
-      <c r="B77" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="31">
-        <v>2</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
-      <c r="S77" s="34"/>
-      <c r="T77" s="34"/>
-      <c r="U77" s="34"/>
+      <c r="D66" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E66" s="18">
+        <v>2</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="20"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="19"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="19"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="19"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="19"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="19"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="19"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="19"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="19"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="19"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="19"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="19"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="19"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="19"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="19"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="19"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="19"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="19"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="19"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="19"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="19"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="19"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="18"/>
+      <c r="U87" s="19"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="18"/>
+      <c r="U88" s="19"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="18"/>
+      <c r="U89" s="19"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="18"/>
+      <c r="U90" s="19"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="19"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="19"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="18"/>
+      <c r="U93" s="19"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="18"/>
+      <c r="U94" s="19"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="20"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="20"/>
+      <c r="T95" s="18"/>
+      <c r="U95" s="19"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="20"/>
+      <c r="T96" s="18"/>
+      <c r="U96" s="19"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" s="7"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="18"/>
+      <c r="U97" s="19"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="18"/>
+      <c r="U98" s="19"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" s="7"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="18"/>
+      <c r="U99" s="19"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" s="7"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="18"/>
+      <c r="U100" s="19"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="20"/>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="18"/>
+      <c r="U101" s="19"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="18"/>
+      <c r="U102" s="19"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="27"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="31"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="31"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="27"/>
+      <c r="R103" s="31"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="27"/>
+      <c r="U103" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4547,36 +4960,25 @@
     <hyperlink ref="B48" r:id="rId45"/>
     <hyperlink ref="B49" r:id="rId46"/>
     <hyperlink ref="B50" r:id="rId47"/>
-    <hyperlink ref="B51" r:id="rId48"/>
-    <hyperlink ref="B52" r:id="rId49"/>
-    <hyperlink ref="B20" r:id="rId50"/>
-    <hyperlink ref="B53" r:id="rId51"/>
-    <hyperlink ref="B54" r:id="rId52"/>
-    <hyperlink ref="B55" r:id="rId53"/>
-    <hyperlink ref="B56" r:id="rId54" display="435/C"/>
-    <hyperlink ref="B57" r:id="rId55"/>
-    <hyperlink ref="B58" r:id="rId56"/>
-    <hyperlink ref="B59" r:id="rId57" display="431/B"/>
-    <hyperlink ref="B60" r:id="rId58" display="21/B"/>
-    <hyperlink ref="B61" r:id="rId59"/>
-    <hyperlink ref="B62" r:id="rId60"/>
-    <hyperlink ref="B63" r:id="rId61"/>
-    <hyperlink ref="B64" r:id="rId62" tooltip="P141PROE" display="http://www.spoj.com/ACMBKK14/problems/P141PROE/"/>
-    <hyperlink ref="B65" r:id="rId63" tooltip="P141PROB" display="http://www.spoj.com/ACMBKK14/problems/P141PROB/"/>
-    <hyperlink ref="B66" r:id="rId64" tooltip="P141PROC" display="http://www.spoj.com/ACMBKK14/problems/P141PROC/"/>
-    <hyperlink ref="B67" r:id="rId65" tooltip="P141PROA" display="http://www.spoj.com/ACMBKK14/problems/P141PROA/"/>
-    <hyperlink ref="B68" r:id="rId66" tooltip="PTIT133C"/>
-    <hyperlink ref="B69" r:id="rId67" tooltip="PTIT133D"/>
-    <hyperlink ref="B70" r:id="rId68" tooltip="PTIT133I"/>
-    <hyperlink ref="B71" r:id="rId69" tooltip="PTIT133B"/>
-    <hyperlink ref="B72" r:id="rId70" tooltip="PTIT133A"/>
-    <hyperlink ref="B73" r:id="rId71" tooltip="PTIT124A"/>
-    <hyperlink ref="B74" r:id="rId72" tooltip="PTIT124H"/>
-    <hyperlink ref="B75" r:id="rId73" tooltip="PTIT124J"/>
-    <hyperlink ref="B76" r:id="rId74" tooltip="PTIT124C"/>
-    <hyperlink ref="B77" r:id="rId75" tooltip="PTIT124G"/>
+    <hyperlink ref="B20" r:id="rId48"/>
+    <hyperlink ref="B66" r:id="rId49" tooltip="PTIT124G"/>
+    <hyperlink ref="B65" r:id="rId50" tooltip="PTIT124C"/>
+    <hyperlink ref="B64" r:id="rId51" tooltip="PTIT124J"/>
+    <hyperlink ref="B63" r:id="rId52" tooltip="PTIT124H"/>
+    <hyperlink ref="B62" r:id="rId53" tooltip="PTIT124A"/>
+    <hyperlink ref="B61" r:id="rId54" tooltip="PTIT133A"/>
+    <hyperlink ref="B60" r:id="rId55" tooltip="PTIT133B"/>
+    <hyperlink ref="B59" r:id="rId56" tooltip="PTIT133I"/>
+    <hyperlink ref="B58" r:id="rId57" tooltip="PTIT133D"/>
+    <hyperlink ref="B57" r:id="rId58" tooltip="PTIT133C"/>
+    <hyperlink ref="B56" r:id="rId59" tooltip="P141PROA" display="http://www.spoj.com/ACMBKK14/problems/P141PROA/"/>
+    <hyperlink ref="B55" r:id="rId60" tooltip="P141PROC" display="http://www.spoj.com/ACMBKK14/problems/P141PROC/"/>
+    <hyperlink ref="B54" r:id="rId61" tooltip="P141PROB" display="http://www.spoj.com/ACMBKK14/problems/P141PROB/"/>
+    <hyperlink ref="B53" r:id="rId62" tooltip="P141PROE" display="http://www.spoj.com/ACMBKK14/problems/P141PROE/"/>
+    <hyperlink ref="B52" r:id="rId63"/>
+    <hyperlink ref="B51" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId76"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId65"/>
 </worksheet>
 </file>
--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Practices!$E$2:$V$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
   <si>
     <t>No</t>
   </si>
@@ -453,7 +453,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -461,7 +461,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -469,7 +469,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -481,7 +481,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -810,6 +810,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,19 +839,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -902,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,7 +937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1149,88 +1149,88 @@
   <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O60" sqref="O60"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="12.75" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="12.75" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="12.75" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.25" customWidth="1"/>
+    <col min="21" max="21" width="11.125" customWidth="1"/>
+    <col min="22" max="22" width="12.75" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="E1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="21" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="21" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="27"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="23"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="21"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="28"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="16"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="16"/>
     </row>
-    <row r="31" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="16"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="16"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="16"/>
     </row>
-    <row r="34" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="16"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -2868,7 +2868,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="16"/>
     </row>
-    <row r="37" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="16"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="16"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="16"/>
     </row>
-    <row r="40" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="16"/>
     </row>
-    <row r="41" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="16"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="16"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -3170,7 +3170,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="16"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="16"/>
     </row>
-    <row r="45" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -3254,7 +3254,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="16"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="16"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="16"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="16"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="V49" s="20"/>
       <c r="W49" s="16"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="V50" s="20"/>
       <c r="W50" s="16"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="V51" s="20"/>
       <c r="W51" s="16"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="V52" s="20"/>
       <c r="W52" s="16"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="T53" s="18"/>
       <c r="U53" s="19"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -3602,7 +3602,9 @@
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
+      <c r="I54" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="J54" s="20"/>
       <c r="K54" s="18"/>
       <c r="L54" s="19"/>
@@ -3616,7 +3618,7 @@
       <c r="T54" s="18"/>
       <c r="U54" s="19"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -3638,7 +3640,9 @@
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
+      <c r="I55" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="J55" s="20"/>
       <c r="K55" s="18"/>
       <c r="L55" s="19"/>
@@ -3652,7 +3656,7 @@
       <c r="T55" s="18"/>
       <c r="U55" s="19"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -3674,7 +3678,9 @@
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
+      <c r="I56" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="J56" s="20"/>
       <c r="K56" s="18"/>
       <c r="L56" s="19"/>
@@ -3688,7 +3694,7 @@
       <c r="T56" s="18"/>
       <c r="U56" s="19"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -3724,7 +3730,7 @@
       <c r="T57" s="18"/>
       <c r="U57" s="19"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -3746,7 +3752,9 @@
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
+      <c r="I58" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="J58" s="20"/>
       <c r="K58" s="18"/>
       <c r="L58" s="19"/>
@@ -3760,7 +3768,7 @@
       <c r="T58" s="18"/>
       <c r="U58" s="19"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -3796,7 +3804,7 @@
       <c r="T59" s="18"/>
       <c r="U59" s="19"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -3832,7 +3840,7 @@
       <c r="T60" s="18"/>
       <c r="U60" s="19"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -3854,7 +3862,9 @@
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="18"/>
-      <c r="I61" s="19"/>
+      <c r="I61" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="J61" s="20"/>
       <c r="K61" s="18"/>
       <c r="L61" s="19"/>
@@ -3868,7 +3878,7 @@
       <c r="T61" s="18"/>
       <c r="U61" s="19"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -3890,7 +3900,9 @@
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="18"/>
-      <c r="I62" s="19"/>
+      <c r="I62" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="J62" s="20"/>
       <c r="K62" s="18"/>
       <c r="L62" s="19"/>
@@ -3904,7 +3916,7 @@
       <c r="T62" s="18"/>
       <c r="U62" s="19"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -3926,7 +3938,9 @@
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="18"/>
-      <c r="I63" s="19"/>
+      <c r="I63" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="J63" s="20"/>
       <c r="K63" s="18"/>
       <c r="L63" s="19"/>
@@ -3940,7 +3954,7 @@
       <c r="T63" s="18"/>
       <c r="U63" s="19"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -3962,7 +3976,9 @@
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="18"/>
-      <c r="I64" s="19"/>
+      <c r="I64" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="J64" s="20"/>
       <c r="K64" s="18"/>
       <c r="L64" s="19"/>
@@ -3976,7 +3992,7 @@
       <c r="T64" s="18"/>
       <c r="U64" s="19"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -3998,7 +4014,9 @@
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="18"/>
-      <c r="I65" s="19"/>
+      <c r="I65" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="J65" s="20"/>
       <c r="K65" s="18"/>
       <c r="L65" s="19"/>
@@ -4012,7 +4030,7 @@
       <c r="T65" s="18"/>
       <c r="U65" s="19"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -4034,7 +4052,9 @@
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
+      <c r="I66" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="J66" s="20"/>
       <c r="K66" s="18"/>
       <c r="L66" s="19"/>
@@ -4048,7 +4068,7 @@
       <c r="T66" s="18"/>
       <c r="U66" s="19"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="9"/>
       <c r="C67" s="4"/>
@@ -4071,7 +4091,7 @@
       <c r="T67" s="18"/>
       <c r="U67" s="19"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="9"/>
       <c r="C68" s="4"/>
@@ -4094,7 +4114,7 @@
       <c r="T68" s="18"/>
       <c r="U68" s="19"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="9"/>
       <c r="C69" s="4"/>
@@ -4117,7 +4137,7 @@
       <c r="T69" s="18"/>
       <c r="U69" s="19"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="9"/>
       <c r="C70" s="4"/>
@@ -4140,7 +4160,7 @@
       <c r="T70" s="18"/>
       <c r="U70" s="19"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
@@ -4163,7 +4183,7 @@
       <c r="T71" s="18"/>
       <c r="U71" s="19"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="9"/>
       <c r="C72" s="4"/>
@@ -4186,7 +4206,7 @@
       <c r="T72" s="18"/>
       <c r="U72" s="19"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="9"/>
       <c r="C73" s="4"/>
@@ -4209,7 +4229,7 @@
       <c r="T73" s="18"/>
       <c r="U73" s="19"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
@@ -4232,7 +4252,7 @@
       <c r="T74" s="18"/>
       <c r="U74" s="19"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="9"/>
       <c r="C75" s="4"/>
@@ -4255,7 +4275,7 @@
       <c r="T75" s="18"/>
       <c r="U75" s="19"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="9"/>
       <c r="C76" s="4"/>
@@ -4278,7 +4298,7 @@
       <c r="T76" s="18"/>
       <c r="U76" s="19"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="9"/>
       <c r="C77" s="4"/>
@@ -4301,7 +4321,7 @@
       <c r="T77" s="18"/>
       <c r="U77" s="19"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="9"/>
       <c r="C78" s="4"/>
@@ -4324,7 +4344,7 @@
       <c r="T78" s="18"/>
       <c r="U78" s="19"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="9"/>
       <c r="C79" s="4"/>
@@ -4347,7 +4367,7 @@
       <c r="T79" s="18"/>
       <c r="U79" s="19"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="9"/>
       <c r="C80" s="4"/>
@@ -4370,7 +4390,7 @@
       <c r="T80" s="18"/>
       <c r="U80" s="19"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="9"/>
       <c r="C81" s="4"/>
@@ -4393,7 +4413,7 @@
       <c r="T81" s="18"/>
       <c r="U81" s="19"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="9"/>
       <c r="C82" s="4"/>
@@ -4416,7 +4436,7 @@
       <c r="T82" s="18"/>
       <c r="U82" s="19"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="9"/>
       <c r="C83" s="4"/>
@@ -4439,7 +4459,7 @@
       <c r="T83" s="18"/>
       <c r="U83" s="19"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="9"/>
       <c r="C84" s="4"/>
@@ -4462,7 +4482,7 @@
       <c r="T84" s="18"/>
       <c r="U84" s="19"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="9"/>
       <c r="C85" s="4"/>
@@ -4485,7 +4505,7 @@
       <c r="T85" s="18"/>
       <c r="U85" s="19"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="9"/>
       <c r="C86" s="4"/>
@@ -4508,7 +4528,7 @@
       <c r="T86" s="18"/>
       <c r="U86" s="19"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="9"/>
       <c r="C87" s="4"/>
@@ -4531,7 +4551,7 @@
       <c r="T87" s="18"/>
       <c r="U87" s="19"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="9"/>
       <c r="C88" s="4"/>
@@ -4554,7 +4574,7 @@
       <c r="T88" s="18"/>
       <c r="U88" s="19"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="9"/>
       <c r="C89" s="4"/>
@@ -4577,7 +4597,7 @@
       <c r="T89" s="18"/>
       <c r="U89" s="19"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="9"/>
       <c r="C90" s="4"/>
@@ -4600,7 +4620,7 @@
       <c r="T90" s="18"/>
       <c r="U90" s="19"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="9"/>
       <c r="C91" s="4"/>
@@ -4623,7 +4643,7 @@
       <c r="T91" s="18"/>
       <c r="U91" s="19"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="9"/>
       <c r="C92" s="4"/>
@@ -4646,7 +4666,7 @@
       <c r="T92" s="18"/>
       <c r="U92" s="19"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="9"/>
       <c r="C93" s="4"/>
@@ -4669,7 +4689,7 @@
       <c r="T93" s="18"/>
       <c r="U93" s="19"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="9"/>
       <c r="C94" s="4"/>
@@ -4692,7 +4712,7 @@
       <c r="T94" s="18"/>
       <c r="U94" s="19"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="9"/>
       <c r="C95" s="4"/>
@@ -4715,7 +4735,7 @@
       <c r="T95" s="18"/>
       <c r="U95" s="19"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="9"/>
       <c r="C96" s="4"/>
@@ -4738,7 +4758,7 @@
       <c r="T96" s="18"/>
       <c r="U96" s="19"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="B97" s="9"/>
       <c r="C97" s="4"/>
@@ -4761,7 +4781,7 @@
       <c r="T97" s="18"/>
       <c r="U97" s="19"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="9"/>
       <c r="C98" s="4"/>
@@ -4784,7 +4804,7 @@
       <c r="T98" s="18"/>
       <c r="U98" s="19"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="B99" s="9"/>
       <c r="C99" s="4"/>
@@ -4807,7 +4827,7 @@
       <c r="T99" s="18"/>
       <c r="U99" s="19"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="B100" s="9"/>
       <c r="C100" s="4"/>
@@ -4830,7 +4850,7 @@
       <c r="T100" s="18"/>
       <c r="U100" s="19"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="9"/>
       <c r="C101" s="4"/>
@@ -4853,7 +4873,7 @@
       <c r="T101" s="18"/>
       <c r="U101" s="19"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="9"/>
       <c r="C102" s="4"/>
@@ -4876,28 +4896,28 @@
       <c r="T102" s="18"/>
       <c r="U102" s="19"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="31"/>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A103" s="21"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="25"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="31"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="25"/>
       <c r="J103" s="6"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="31"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="25"/>
       <c r="M103" s="6"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="31"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="25"/>
       <c r="P103" s="6"/>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="31"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="25"/>
       <c r="S103" s="6"/>
-      <c r="T103" s="27"/>
-      <c r="U103" s="31"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Olympic-2014/Practices.xlsx
+++ b/Olympic-2014/Practices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="142">
   <si>
     <t>No</t>
   </si>
@@ -453,7 +453,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -461,7 +461,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -469,7 +469,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -481,7 +481,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000020"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1149,40 +1149,40 @@
   <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomRight" activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="12.75" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="12.75" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="12.75" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="16" width="12.75" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1"/>
-    <col min="19" max="19" width="12.75" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.25" customWidth="1"/>
-    <col min="21" max="21" width="11.125" customWidth="1"/>
-    <col min="22" max="22" width="12.75" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1226,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="28"/>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1286,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="16"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="16"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="16"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="16"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="16"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="16"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -2868,7 +2868,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="16"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="16"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="16"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="16"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="16"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="16"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="16"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -3170,7 +3170,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="16"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="16"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -3254,7 +3254,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="16"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="16"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="16"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="16"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="V49" s="20"/>
       <c r="W49" s="16"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -3451,7 +3451,9 @@
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="18"/>
-      <c r="L50" s="19"/>
+      <c r="L50" s="19">
+        <v>80</v>
+      </c>
       <c r="M50" s="20"/>
       <c r="N50" s="18"/>
       <c r="O50" s="19"/>
@@ -3464,7 +3466,7 @@
       <c r="V50" s="20"/>
       <c r="W50" s="16"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -3489,7 +3491,9 @@
       </c>
       <c r="J51" s="20"/>
       <c r="K51" s="18"/>
-      <c r="L51" s="19"/>
+      <c r="L51" s="19">
+        <v>100</v>
+      </c>
       <c r="M51" s="20"/>
       <c r="N51" s="18"/>
       <c r="O51" s="19"/>
@@ -3502,7 +3506,7 @@
       <c r="V51" s="20"/>
       <c r="W51" s="16"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -3544,7 +3548,7 @@
       <c r="V52" s="20"/>
       <c r="W52" s="16"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -3580,7 +3584,7 @@
       <c r="T53" s="18"/>
       <c r="U53" s="19"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -3618,7 +3622,7 @@
       <c r="T54" s="18"/>
       <c r="U54" s="19"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -3656,7 +3660,7 @@
       <c r="T55" s="18"/>
       <c r="U55" s="19"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -3694,7 +3698,7 @@
       <c r="T56" s="18"/>
       <c r="U56" s="19"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -3730,7 +3734,7 @@
       <c r="T57" s="18"/>
       <c r="U57" s="19"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -3768,7 +3772,7 @@
       <c r="T58" s="18"/>
       <c r="U58" s="19"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -3793,7 +3797,9 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
       <c r="K59" s="18"/>
-      <c r="L59" s="19"/>
+      <c r="L59" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="M59" s="20"/>
       <c r="N59" s="18"/>
       <c r="O59" s="19"/>
@@ -3804,7 +3810,7 @@
       <c r="T59" s="18"/>
       <c r="U59" s="19"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -3840,7 +3846,7 @@
       <c r="T60" s="18"/>
       <c r="U60" s="19"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -3878,7 +3884,7 @@
       <c r="T61" s="18"/>
       <c r="U61" s="19"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -3916,7 +3922,7 @@
       <c r="T62" s="18"/>
       <c r="U62" s="19"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -3943,7 +3949,9 @@
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="18"/>
-      <c r="L63" s="19"/>
+      <c r="L63" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="M63" s="20"/>
       <c r="N63" s="18"/>
       <c r="O63" s="19"/>
@@ -3954,7 +3962,7 @@
       <c r="T63" s="18"/>
       <c r="U63" s="19"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -3992,7 +4000,7 @@
       <c r="T64" s="18"/>
       <c r="U64" s="19"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -4030,7 +4038,7 @@
       <c r="T65" s="18"/>
       <c r="U65" s="19"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -4057,7 +4065,9 @@
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="18"/>
-      <c r="L66" s="19"/>
+      <c r="L66" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="M66" s="20"/>
       <c r="N66" s="18"/>
       <c r="O66" s="19"/>
@@ -4068,7 +4078,7 @@
       <c r="T66" s="18"/>
       <c r="U66" s="19"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="9"/>
       <c r="C67" s="4"/>
@@ -4091,7 +4101,7 @@
       <c r="T67" s="18"/>
       <c r="U67" s="19"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="9"/>
       <c r="C68" s="4"/>
@@ -4114,7 +4124,7 @@
       <c r="T68" s="18"/>
       <c r="U68" s="19"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="9"/>
       <c r="C69" s="4"/>
@@ -4137,7 +4147,7 @@
       <c r="T69" s="18"/>
       <c r="U69" s="19"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="9"/>
       <c r="C70" s="4"/>
@@ -4160,7 +4170,7 @@
       <c r="T70" s="18"/>
       <c r="U70" s="19"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
@@ -4183,7 +4193,7 @@
       <c r="T71" s="18"/>
       <c r="U71" s="19"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="9"/>
       <c r="C72" s="4"/>
@@ -4206,7 +4216,7 @@
       <c r="T72" s="18"/>
       <c r="U72" s="19"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="9"/>
       <c r="C73" s="4"/>
@@ -4229,7 +4239,7 @@
       <c r="T73" s="18"/>
       <c r="U73" s="19"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
@@ -4252,7 +4262,7 @@
       <c r="T74" s="18"/>
       <c r="U74" s="19"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="9"/>
       <c r="C75" s="4"/>
@@ -4275,7 +4285,7 @@
       <c r="T75" s="18"/>
       <c r="U75" s="19"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="9"/>
       <c r="C76" s="4"/>
@@ -4298,7 +4308,7 @@
       <c r="T76" s="18"/>
       <c r="U76" s="19"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="9"/>
       <c r="C77" s="4"/>
@@ -4321,7 +4331,7 @@
       <c r="T77" s="18"/>
       <c r="U77" s="19"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="9"/>
       <c r="C78" s="4"/>
@@ -4344,7 +4354,7 @@
       <c r="T78" s="18"/>
       <c r="U78" s="19"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="9"/>
       <c r="C79" s="4"/>
@@ -4367,7 +4377,7 @@
       <c r="T79" s="18"/>
       <c r="U79" s="19"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="9"/>
       <c r="C80" s="4"/>
@@ -4390,7 +4400,7 @@
       <c r="T80" s="18"/>
       <c r="U80" s="19"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="9"/>
       <c r="C81" s="4"/>
@@ -4413,7 +4423,7 @@
       <c r="T81" s="18"/>
       <c r="U81" s="19"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="9"/>
       <c r="C82" s="4"/>
@@ -4436,7 +4446,7 @@
       <c r="T82" s="18"/>
       <c r="U82" s="19"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="9"/>
       <c r="C83" s="4"/>
@@ -4459,7 +4469,7 @@
       <c r="T83" s="18"/>
       <c r="U83" s="19"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="9"/>
       <c r="C84" s="4"/>
@@ -4482,7 +4492,7 @@
       <c r="T84" s="18"/>
       <c r="U84" s="19"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="9"/>
       <c r="C85" s="4"/>
@@ -4505,7 +4515,7 @@
       <c r="T85" s="18"/>
       <c r="U85" s="19"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="9"/>
       <c r="C86" s="4"/>
@@ -4528,7 +4538,7 @@
       <c r="T86" s="18"/>
       <c r="U86" s="19"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="9"/>
       <c r="C87" s="4"/>
@@ -4551,7 +4561,7 @@
       <c r="T87" s="18"/>
       <c r="U87" s="19"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="9"/>
       <c r="C88" s="4"/>
@@ -4574,7 +4584,7 @@
       <c r="T88" s="18"/>
       <c r="U88" s="19"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="9"/>
       <c r="C89" s="4"/>
@@ -4597,7 +4607,7 @@
       <c r="T89" s="18"/>
       <c r="U89" s="19"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="9"/>
       <c r="C90" s="4"/>
@@ -4620,7 +4630,7 @@
       <c r="T90" s="18"/>
       <c r="U90" s="19"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="9"/>
       <c r="C91" s="4"/>
@@ -4643,7 +4653,7 @@
       <c r="T91" s="18"/>
       <c r="U91" s="19"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="9"/>
       <c r="C92" s="4"/>
@@ -4666,7 +4676,7 @@
       <c r="T92" s="18"/>
       <c r="U92" s="19"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="9"/>
       <c r="C93" s="4"/>
@@ -4689,7 +4699,7 @@
       <c r="T93" s="18"/>
       <c r="U93" s="19"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="9"/>
       <c r="C94" s="4"/>
@@ -4712,7 +4722,7 @@
       <c r="T94" s="18"/>
       <c r="U94" s="19"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="9"/>
       <c r="C95" s="4"/>
@@ -4735,7 +4745,7 @@
       <c r="T95" s="18"/>
       <c r="U95" s="19"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="9"/>
       <c r="C96" s="4"/>
@@ -4758,7 +4768,7 @@
       <c r="T96" s="18"/>
       <c r="U96" s="19"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="9"/>
       <c r="C97" s="4"/>
@@ -4781,7 +4791,7 @@
       <c r="T97" s="18"/>
       <c r="U97" s="19"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="9"/>
       <c r="C98" s="4"/>
@@ -4804,7 +4814,7 @@
       <c r="T98" s="18"/>
       <c r="U98" s="19"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="9"/>
       <c r="C99" s="4"/>
@@ -4827,7 +4837,7 @@
       <c r="T99" s="18"/>
       <c r="U99" s="19"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="9"/>
       <c r="C100" s="4"/>
@@ -4850,7 +4860,7 @@
       <c r="T100" s="18"/>
       <c r="U100" s="19"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="9"/>
       <c r="C101" s="4"/>
@@ -4873,7 +4883,7 @@
       <c r="T101" s="18"/>
       <c r="U101" s="19"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="9"/>
       <c r="C102" s="4"/>
@@ -4896,7 +4906,7 @@
       <c r="T102" s="18"/>
       <c r="U102" s="19"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
